--- a/data/result1 traditional, without sampling.xlsx
+++ b/data/result1 traditional, without sampling.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1751 +440,1773 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06199605507799152</v>
+        <v>0.05471201980206139</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01339928929437483</v>
+        <v>0.05469289264800471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119999997317791</v>
+        <v>1.381471514701843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1185251856600704</v>
+        <v>0.109369095719096</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07054137056836049</v>
+        <v>0.1093346865651433</v>
       </c>
       <c r="C3" t="n">
-        <v>1.32168447971344</v>
+        <v>1.30906355381012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1744237933861257</v>
+        <v>0.1640175853621004</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1271465302990819</v>
+        <v>0.1639685874556779</v>
       </c>
       <c r="C4" t="n">
-        <v>1.241314053535461</v>
+        <v>1.231814503669739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2320885846772965</v>
+        <v>0.2187258510208251</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1853629363450874</v>
+        <v>0.2186580047830967</v>
       </c>
       <c r="C5" t="n">
-        <v>1.158268928527832</v>
+        <v>1.152937650680542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2873165505417944</v>
+        <v>0.2734368776244703</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2412944004548881</v>
+        <v>0.2733499554777075</v>
       </c>
       <c r="C6" t="n">
-        <v>1.067600727081299</v>
+        <v>1.056918382644653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3428997286160428</v>
+        <v>0.3280970045667279</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2975320706566054</v>
+        <v>0.3279947779485306</v>
       </c>
       <c r="C7" t="n">
-        <v>1.067600727081299</v>
+        <v>0.9944224953651428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4003322013876846</v>
+        <v>0.3827799447401921</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3555717862803029</v>
+        <v>0.3826603902755057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9198189973831177</v>
+        <v>0.9254314303398132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.456330438752508</v>
+        <v>0.4375418256142465</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4122703793501899</v>
+        <v>0.4373971971082742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8419117331504822</v>
+        <v>0.8359546661376953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5137714187478011</v>
+        <v>0.4922832662948685</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4703179171314096</v>
+        <v>0.4921158716794126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7560659646987915</v>
+        <v>0.7656018137931824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5696278430439282</v>
+        <v>0.5470111129391891</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5269444796888861</v>
+        <v>0.5468249946570362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6777499914169312</v>
+        <v>0.6792715787887573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6253938386528667</v>
+        <v>0.6017016442341417</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5833710145340146</v>
+        <v>0.6014988246177536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5937063694000244</v>
+        <v>0.6028870940208435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6805192117608515</v>
+        <v>0.6563957013357377</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6392111796180741</v>
+        <v>0.6561678134182507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5153112411499023</v>
+        <v>0.5270087718963623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.737341766238281</v>
+        <v>0.710799294392462</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6967164551493809</v>
+        <v>0.7105898924947487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4325666129589081</v>
+        <v>0.4433201253414154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7937623063255396</v>
+        <v>0.7640973928647951</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7537917142140637</v>
+        <v>0.7641959980825368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3422447741031647</v>
+        <v>0.3745968341827393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8473809107650697</v>
+        <v>0.8143520009862104</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8082626239307572</v>
+        <v>0.8146284146793575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2724142968654633</v>
+        <v>0.3018644452095032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8968173339364035</v>
+        <v>0.8587964875453133</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8602445513986224</v>
+        <v>0.8558391760246673</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1938238143920898</v>
+        <v>0.2248436957597733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8810081732397974</v>
+        <v>0.8273439704214187</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9061149272842609</v>
+        <v>0.8861026745318971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.119999997317791</v>
+        <v>0.171030580997467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8262182790383616</v>
+        <v>0.7897158554972242</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9035027019941163</v>
+        <v>0.9190215534697368</v>
       </c>
       <c r="C19" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1620790362358093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7696167582061667</v>
+        <v>0.7592782112426105</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8879024541577287</v>
+        <v>0.9483397658365702</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1508490443229675</v>
+        <v>0.1659533828496933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7314677365280665</v>
+        <v>0.7226319751940768</v>
       </c>
       <c r="B21" t="n">
-        <v>0.923896158971557</v>
+        <v>0.9857174519404251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1971838921308517</v>
+        <v>0.1721448004245758</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7327579057257582</v>
+        <v>0.6870632817528842</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9778156495717107</v>
+        <v>1.022311020126462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2022717893123627</v>
+        <v>0.1710496246814728</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6959769214981192</v>
+        <v>0.6549409038038847</v>
       </c>
       <c r="B23" t="n">
-        <v>1.006835222828724</v>
+        <v>1.053583932287194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1654813438653946</v>
+        <v>0.1631684303283691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6597166059779469</v>
+        <v>0.6251172541414491</v>
       </c>
       <c r="B24" t="n">
-        <v>1.02938097266872</v>
+        <v>1.084770793615255</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1623603403568268</v>
+        <v>0.1665990948677063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6332728351371425</v>
+        <v>0.6045664413386483</v>
       </c>
       <c r="B25" t="n">
-        <v>1.058572597384029</v>
+        <v>1.129905103666455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1802514046430588</v>
+        <v>0.171457439661026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6164756808506169</v>
+        <v>0.5579403032707724</v>
       </c>
       <c r="B26" t="n">
-        <v>1.10698201825401</v>
+        <v>1.152343081869701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1785242408514023</v>
+        <v>0.1544068455696106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5695583724686837</v>
+        <v>0.5697591086000013</v>
       </c>
       <c r="B27" t="n">
-        <v>1.126732734749204</v>
+        <v>1.166534640316855</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1426749974489212</v>
+        <v>0.1641162931919098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5542657002400653</v>
+        <v>0.5285913014791326</v>
       </c>
       <c r="B28" t="n">
-        <v>1.173858965020078</v>
+        <v>1.184419772529296</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1797526180744171</v>
+        <v>0.1535963714122772</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5068026167912636</v>
+        <v>0.4953072869882863</v>
       </c>
       <c r="B29" t="n">
-        <v>1.19908107725123</v>
+        <v>1.222082952449102</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1436892300844193</v>
+        <v>0.1685432642698288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4797843847703431</v>
+        <v>0.4688786711907726</v>
       </c>
       <c r="B30" t="n">
-        <v>1.234090639935593</v>
+        <v>1.254611761373994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1684389114379883</v>
+        <v>0.1697580516338348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4493646638301371</v>
+        <v>0.4214430227494682</v>
       </c>
       <c r="B31" t="n">
-        <v>1.27289867955583</v>
+        <v>1.281210420730098</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1618890315294266</v>
+        <v>0.1535218209028244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4102914821636586</v>
+        <v>0.3926204310986666</v>
       </c>
       <c r="B32" t="n">
-        <v>1.295279375043532</v>
+        <v>1.316834824690383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1650744825601578</v>
+        <v>0.1697397083044052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3858829020744375</v>
+        <v>0.360456040441525</v>
       </c>
       <c r="B33" t="n">
-        <v>1.329863785405511</v>
+        <v>1.35783565333255</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1699084490537643</v>
+        <v>0.1710826009511948</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3559430744019679</v>
+        <v>0.3311310044935743</v>
       </c>
       <c r="B34" t="n">
-        <v>1.366317876071113</v>
+        <v>1.393287929481223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1604160219430923</v>
+        <v>0.1645527631044388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3223401900529793</v>
+        <v>0.2895183586691591</v>
       </c>
       <c r="B35" t="n">
-        <v>1.385678884132767</v>
+        <v>1.417901187257995</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1525584906339645</v>
+        <v>0.1591523587703705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2943280783402698</v>
+        <v>0.2634765625691192</v>
       </c>
       <c r="B36" t="n">
-        <v>1.422795335533745</v>
+        <v>1.454945795126412</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1605229079723358</v>
+        <v>0.1744171530008316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.253256065744522</v>
+        <v>0.2281282409543396</v>
       </c>
       <c r="B37" t="n">
-        <v>1.450668722460286</v>
+        <v>1.475048735101128</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1568786799907684</v>
+        <v>0.1589848250150681</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2372702155413262</v>
+        <v>0.2011955581377378</v>
       </c>
       <c r="B38" t="n">
-        <v>1.487616706499024</v>
+        <v>1.510313688688899</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1734645813703537</v>
+        <v>0.1635765433311462</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2004351989066178</v>
+        <v>0.1624480444195495</v>
       </c>
       <c r="B39" t="n">
-        <v>1.512734503058668</v>
+        <v>1.532707153662909</v>
       </c>
       <c r="C39" t="n">
-        <v>0.155766949057579</v>
+        <v>0.1546689718961716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1653444732041223</v>
+        <v>0.1428984736352952</v>
       </c>
       <c r="B40" t="n">
-        <v>1.538174630113181</v>
+        <v>1.569923168849742</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1599155962467194</v>
+        <v>0.1874787956476212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1443224507067966</v>
+        <v>0.1167656916135912</v>
       </c>
       <c r="B41" t="n">
-        <v>1.576092930331079</v>
+        <v>1.607483142576883</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1783596277236938</v>
+        <v>0.1671919375658035</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1212643234451715</v>
+        <v>0.1011980271966518</v>
       </c>
       <c r="B42" t="n">
-        <v>1.616683041350217</v>
+        <v>1.657512663673483</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1617287397384644</v>
+        <v>0.1665139496326447</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1095775727971113</v>
+        <v>0.1002049089272232</v>
       </c>
       <c r="B43" t="n">
-        <v>1.669511121745721</v>
+        <v>1.716034778151266</v>
       </c>
       <c r="C43" t="n">
-        <v>0.169320747256279</v>
+        <v>0.1695708185434341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1098766369953144</v>
+        <v>0.1299282084529979</v>
       </c>
       <c r="B44" t="n">
-        <v>1.730583267744845</v>
+        <v>1.769335851984848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1697085499763489</v>
+        <v>0.1782027035951614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1230089629034789</v>
+        <v>0.1564082962397749</v>
       </c>
       <c r="B45" t="n">
-        <v>1.797510150741011</v>
+        <v>1.832992435949394</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1557720154523849</v>
+        <v>0.1535035967826843</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1667230499412509</v>
+        <v>0.1982641726992048</v>
       </c>
       <c r="B46" t="n">
-        <v>1.846341880694842</v>
+        <v>1.888087068049677</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1816386729478836</v>
+        <v>0.1637640297412872</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2167623069541757</v>
+        <v>0.2458376698040911</v>
       </c>
       <c r="B47" t="n">
-        <v>1.906080481946522</v>
+        <v>1.944868658465895</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1756214946508408</v>
+        <v>0.1757931262254715</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2733696470895685</v>
+        <v>0.30327656512739</v>
       </c>
       <c r="B48" t="n">
-        <v>1.96912218177611</v>
+        <v>2.000644796542229</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1793446838855743</v>
+        <v>0.2037061899900436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3380063754855808</v>
+        <v>0.369169246339721</v>
       </c>
       <c r="B49" t="n">
-        <v>2.028989583582212</v>
+        <v>2.05331062683365</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2064177691936493</v>
+        <v>0.2309072464704514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4078373201596625</v>
+        <v>0.4381675377259304</v>
       </c>
       <c r="B50" t="n">
-        <v>2.077221043720778</v>
+        <v>2.098485576624563</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2687260508537292</v>
+        <v>0.2800346314907074</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4790789764253767</v>
+        <v>0.3912196589691666</v>
       </c>
       <c r="B51" t="n">
-        <v>2.121430612856549</v>
+        <v>2.10559196383408</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307739645242691</v>
+        <v>0.1344422250986099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5498391418605572</v>
+        <v>0.4601675827099278</v>
       </c>
       <c r="B52" t="n">
-        <v>2.16167957789478</v>
+        <v>2.145049314068872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3714479207992554</v>
+        <v>0.3224403262138367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6203806756276345</v>
+        <v>0.5291333034020314</v>
       </c>
       <c r="B53" t="n">
-        <v>2.200597179943842</v>
+        <v>2.185415633379466</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4397931694984436</v>
+        <v>0.394462376832962</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6923426812927764</v>
+        <v>0.5980902409160529</v>
       </c>
       <c r="B54" t="n">
-        <v>2.240665786570691</v>
+        <v>2.222594605340773</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5071441531181335</v>
+        <v>0.394462376832962</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7619364382324313</v>
+        <v>0.6668729702330837</v>
       </c>
       <c r="B55" t="n">
-        <v>2.27843098249088</v>
+        <v>2.258904997692629</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5720230937004089</v>
+        <v>0.5026060938835144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8331782508745685</v>
+        <v>0.7355749184663583</v>
       </c>
       <c r="B56" t="n">
-        <v>2.317680756500366</v>
+        <v>2.294984361093146</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6497700810432434</v>
+        <v>0.5838419795036316</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9027512361857456</v>
+        <v>0.8042266893453904</v>
       </c>
       <c r="B57" t="n">
-        <v>2.355363311143917</v>
+        <v>2.330968187409328</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5680052638053894</v>
+        <v>0.6536112427711487</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.972994250510079</v>
+        <v>0.8727003063613046</v>
       </c>
       <c r="B58" t="n">
-        <v>2.393630905053556</v>
+        <v>2.366782493116601</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4874632954597473</v>
+        <v>0.5711652636528015</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.042557419275744</v>
+        <v>0.9412766743253985</v>
       </c>
       <c r="B59" t="n">
-        <v>2.431234464089022</v>
+        <v>2.402688289256975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4118749499320984</v>
+        <v>0.5133642554283142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.109710672275487</v>
+        <v>1.009799537082124</v>
       </c>
       <c r="B60" t="n">
-        <v>2.46651549645262</v>
+        <v>2.43854651367214</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3389304876327515</v>
+        <v>0.4298209249973297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.174048351445762</v>
+        <v>1.077934709594844</v>
       </c>
       <c r="B61" t="n">
-        <v>2.497435498509509</v>
+        <v>2.473927638123096</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2668529152870178</v>
+        <v>0.3589624762535095</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.17522284952604</v>
+        <v>1.144758494447971</v>
       </c>
       <c r="B62" t="n">
-        <v>2.544487532317587</v>
+        <v>2.508217437703232</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2016430050134659</v>
+        <v>0.2791471481323242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.141805628089871</v>
+        <v>1.20778219894674</v>
       </c>
       <c r="B63" t="n">
-        <v>2.576440294034479</v>
+        <v>2.537600665308595</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16309854388237</v>
+        <v>0.2102687060832977</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.109299345043944</v>
+        <v>1.225127089638298</v>
       </c>
       <c r="B64" t="n">
-        <v>2.601343620880432</v>
+        <v>2.585841186181897</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1535266488790512</v>
+        <v>0.1475725471973419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.078231070452703</v>
+        <v>1.176995328371573</v>
       </c>
       <c r="B65" t="n">
-        <v>2.633923187470305</v>
+        <v>2.600227376492165</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1698051542043686</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.055067997811438</v>
+        <v>1.134806987016816</v>
       </c>
       <c r="B66" t="n">
-        <v>2.661106920467049</v>
+        <v>2.566947265104916</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167690709233284</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.031876533711172</v>
+        <v>1.08178818664192</v>
       </c>
       <c r="B67" t="n">
-        <v>2.687964561407449</v>
+        <v>2.556642094597756</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1660710722208023</v>
+        <v>0.1746406257152557</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.003174922379516</v>
+        <v>1.063281354719189</v>
       </c>
       <c r="B68" t="n">
-        <v>2.716411542237062</v>
+        <v>2.595190307273703</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1514649093151093</v>
+        <v>0.2262817323207855</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9725330097634146</v>
+        <v>1.123721350680813</v>
       </c>
       <c r="B69" t="n">
-        <v>2.748000590928508</v>
+        <v>2.614901048292721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1661846935749054</v>
+        <v>0.1992730498313904</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.944433456959846</v>
+        <v>1.116856516254749</v>
       </c>
       <c r="B70" t="n">
-        <v>2.775973177047819</v>
+        <v>2.652035810392312</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1572454273700714</v>
+        <v>0.146515280008316</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9138110791828211</v>
+        <v>1.067621891758334</v>
       </c>
       <c r="B71" t="n">
-        <v>2.788851785625879</v>
+        <v>2.669863235580768</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1638433635234833</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8933681930114294</v>
+        <v>1.025414936804402</v>
       </c>
       <c r="B72" t="n">
-        <v>2.818618549776418</v>
+        <v>2.693214035632757</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1739861220121384</v>
+        <v>0.1460393816232681</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8722041829747252</v>
+        <v>0.9912384217087005</v>
       </c>
       <c r="B73" t="n">
-        <v>2.845611642897737</v>
+        <v>2.717615458308792</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1652159094810486</v>
+        <v>0.1654521077871323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8438795410587312</v>
+        <v>0.9552046048791253</v>
       </c>
       <c r="B74" t="n">
-        <v>2.858925209318785</v>
+        <v>2.755492354258898</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1644704788923264</v>
+        <v>0.1651098281145096</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8194288352168454</v>
+        <v>0.9285470650300125</v>
       </c>
       <c r="B75" t="n">
-        <v>2.897975185747939</v>
+        <v>2.780893598841264</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1758978813886642</v>
+        <v>0.1549800485372543</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.784936889894279</v>
+        <v>0.9021799874966271</v>
       </c>
       <c r="B76" t="n">
-        <v>2.912123428251927</v>
+        <v>2.807743958268788</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1569203734397888</v>
+        <v>0.168599858880043</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7660644766363748</v>
+        <v>0.8754719556152121</v>
       </c>
       <c r="B77" t="n">
-        <v>2.939998383478783</v>
+        <v>2.835986322081072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1663533449172974</v>
+        <v>0.1701754182577133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.743873402821153</v>
+        <v>0.8463910564098678</v>
       </c>
       <c r="B78" t="n">
-        <v>2.96966685345848</v>
+        <v>2.845661026488302</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171321302652359</v>
+        <v>0.1647332906723022</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7256673647349984</v>
+        <v>0.8381815876848748</v>
       </c>
       <c r="B79" t="n">
-        <v>2.9985101028179</v>
+        <v>2.88171667961481</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1657919883728027</v>
+        <v>0.1816801279783249</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6881645176835974</v>
+        <v>0.7985133756659444</v>
       </c>
       <c r="B80" t="n">
-        <v>3.017760279748229</v>
+        <v>2.899837486480272</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1507684737443924</v>
+        <v>0.1625802516937256</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6513022893371145</v>
+        <v>0.7744750178131047</v>
       </c>
       <c r="B81" t="n">
-        <v>3.033939394983382</v>
+        <v>2.927745745060405</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1644776314496994</v>
+        <v>0.1711859703063965</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6272593827333102</v>
+        <v>0.7418126444834866</v>
       </c>
       <c r="B82" t="n">
-        <v>3.065127744781585</v>
+        <v>2.938169520284461</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1684376150369644</v>
+        <v>0.155186727643013</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6061568869989618</v>
+        <v>0.7347961170017653</v>
       </c>
       <c r="B83" t="n">
-        <v>3.094418452615271</v>
+        <v>2.975761211039803</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1611152440309525</v>
+        <v>0.1849246770143509</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.5854126873720966</v>
+        <v>0.7060975430242704</v>
       </c>
       <c r="B84" t="n">
-        <v>3.124227186855111</v>
+        <v>3.00763921562311</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1612117290496826</v>
+        <v>0.1626642346382141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.555210426400623</v>
+        <v>0.6781328806924717</v>
       </c>
       <c r="B85" t="n">
-        <v>3.138700697276825</v>
+        <v>3.040941555347779</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1621091216802597</v>
+        <v>0.1662304550409317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.532607110380884</v>
+        <v>0.6444578036157051</v>
       </c>
       <c r="B86" t="n">
-        <v>3.170924435114358</v>
+        <v>3.054348629867659</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1713462173938751</v>
+        <v>0.1574889868497849</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.516534267224148</v>
+        <v>0.6250225524854596</v>
       </c>
       <c r="B87" t="n">
-        <v>3.201011554244063</v>
+        <v>3.08226870780111</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1690298765897751</v>
+        <v>0.1747816801071167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4974425895097433</v>
+        <v>0.602640787967233</v>
       </c>
       <c r="B88" t="n">
-        <v>3.234899957183112</v>
+        <v>3.110385998094537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1559220999479294</v>
+        <v>0.1661105751991272</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4626324614040358</v>
+        <v>0.57635289359984</v>
       </c>
       <c r="B89" t="n">
-        <v>3.259747801053201</v>
+        <v>3.138189389358934</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1312974095344543</v>
+        <v>0.1531369388103485</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4244113617830366</v>
+        <v>0.5531301336574749</v>
       </c>
       <c r="B90" t="n">
-        <v>3.255294714248775</v>
+        <v>3.168048569030694</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1477533876895905</v>
+        <v>0.166801780462265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3922848610189664</v>
+        <v>0.5327155831615558</v>
       </c>
       <c r="B91" t="n">
-        <v>3.270941875603143</v>
+        <v>3.195108482600164</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1865197718143463</v>
+        <v>0.1655432432889938</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.3813267659209889</v>
+        <v>0.4966344519178755</v>
       </c>
       <c r="B92" t="n">
-        <v>3.301615349253304</v>
+        <v>3.208572854618656</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1990847885608673</v>
+        <v>0.144566535949707</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4010632507305479</v>
+        <v>0.4731666179210772</v>
       </c>
       <c r="B93" t="n">
-        <v>3.345383261006096</v>
+        <v>3.238713076501361</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1806963831186295</v>
+        <v>0.1621703803539276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.3897201580820298</v>
+        <v>0.4432857751290424</v>
       </c>
       <c r="B94" t="n">
-        <v>3.376172364052181</v>
+        <v>3.252642604733731</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1350415050983429</v>
+        <v>0.1590974032878876</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3452400611725728</v>
+        <v>0.4294079616488482</v>
       </c>
       <c r="B95" t="n">
-        <v>3.382117146219368</v>
+        <v>3.280376754549834</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1201691180467606</v>
+        <v>0.1809529811143875</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.301298414986082</v>
+        <v>0.3984502116255204</v>
       </c>
       <c r="B96" t="n">
-        <v>3.360326530883013</v>
+        <v>3.296787253133284</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1424493938684464</v>
+        <v>0.1623161733150482</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3534140671081253</v>
+        <v>0.3777156952114641</v>
       </c>
       <c r="B97" t="n">
-        <v>3.353738986871905</v>
+        <v>3.328589436267049</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1962557435035706</v>
+        <v>0.1708335429430008</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3268398299264183</v>
+        <v>0.358544472461507</v>
       </c>
       <c r="B98" t="n">
-        <v>3.381640057036912</v>
+        <v>3.359977376761567</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1636887937784195</v>
+        <v>0.1726795881986618</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3043211521460772</v>
+        <v>0.3351651248265513</v>
       </c>
       <c r="B99" t="n">
-        <v>3.399239548623105</v>
+        <v>3.393271280928134</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1680078953504562</v>
+        <v>0.1617861539125443</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2781040919118992</v>
+        <v>0.2975066145024325</v>
       </c>
       <c r="B100" t="n">
-        <v>3.421373206700702</v>
+        <v>3.417977350504546</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1629832834005356</v>
+        <v>0.155637800693512</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2636655893999509</v>
+        <v>0.2803084889694961</v>
       </c>
       <c r="B101" t="n">
-        <v>3.450721730403138</v>
+        <v>3.446411694247233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1677314043045044</v>
+        <v>0.1678250879049301</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2326104825921027</v>
+        <v>0.2505140461942191</v>
       </c>
       <c r="B102" t="n">
-        <v>3.473110676643934</v>
+        <v>3.464815045353506</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1578843146562576</v>
+        <v>0.1642172932624817</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2114731969972363</v>
+        <v>0.2318722150807328</v>
       </c>
       <c r="B103" t="n">
-        <v>3.491161548586126</v>
+        <v>3.494754762097692</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1740343868732452</v>
+        <v>0.1653444916009903</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.1811337515173649</v>
+        <v>0.1958984798470068</v>
       </c>
       <c r="B104" t="n">
-        <v>3.516031173826866</v>
+        <v>3.517885645068771</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1668564677238464</v>
+        <v>0.1542003154754639</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1598889272135658</v>
+        <v>0.1777532192409833</v>
       </c>
       <c r="B105" t="n">
-        <v>3.532970626100954</v>
+        <v>3.550858947448766</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1693869531154633</v>
+        <v>0.1717521101236343</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1447345480994545</v>
+        <v>0.1486214194183223</v>
       </c>
       <c r="B106" t="n">
-        <v>3.565156434022277</v>
+        <v>3.566495957887036</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1720809638500214</v>
+        <v>0.1541768461465836</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1309882996998119</v>
+        <v>0.1329462525909252</v>
       </c>
       <c r="B107" t="n">
-        <v>3.597202598839494</v>
+        <v>3.594898941501427</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1650880575180054</v>
+        <v>0.1663455963134766</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.113597575843545</v>
+        <v>0.1142629789914582</v>
       </c>
       <c r="B108" t="n">
-        <v>3.631108469333781</v>
+        <v>3.62907552578803</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1654379963874817</v>
+        <v>0.1694206744432449</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1092926325128977</v>
+        <v>0.1081312008119513</v>
       </c>
       <c r="B109" t="n">
-        <v>3.680550425308136</v>
+        <v>3.670885740673385</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1683049649000168</v>
+        <v>0.1647118777036667</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1192763120652334</v>
+        <v>0.1179965719034756</v>
       </c>
       <c r="B110" t="n">
-        <v>3.73079952499071</v>
+        <v>3.718712897694538</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1662112325429916</v>
+        <v>0.1711564958095551</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1283664229819</v>
+        <v>0.1231643692346308</v>
       </c>
       <c r="B111" t="n">
-        <v>3.791027825494775</v>
+        <v>3.77440190167445</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1561891436576843</v>
+        <v>0.1494912356138229</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1710924836566011</v>
+        <v>0.1619499803983711</v>
       </c>
       <c r="B112" t="n">
-        <v>3.842262390081149</v>
+        <v>3.81979624330775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1671060919761658</v>
+        <v>0.1679456233978271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2134153020929849</v>
+        <v>0.2042633994360194</v>
       </c>
       <c r="B113" t="n">
-        <v>3.890446409813886</v>
+        <v>3.872879205109385</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1695695370435715</v>
+        <v>0.1608881503343582</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2777211673520089</v>
+        <v>0.2496777771642201</v>
       </c>
       <c r="B114" t="n">
-        <v>3.920837122647696</v>
+        <v>3.927055871611612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1681855767965317</v>
+        <v>0.1631552278995514</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.343529573507363</v>
+        <v>0.3164466098834088</v>
       </c>
       <c r="B115" t="n">
-        <v>3.951372356920992</v>
+        <v>3.953910957536145</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1662162244319916</v>
+        <v>0.1776115745306015</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4230773898057107</v>
+        <v>0.3879029656703738</v>
       </c>
       <c r="B116" t="n">
-        <v>3.982166504709361</v>
+        <v>3.979450268662435</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1800965368747711</v>
+        <v>0.1870049834251404</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.5070254846915364</v>
+        <v>0.4675911713966032</v>
       </c>
       <c r="B117" t="n">
-        <v>4.002373875872908</v>
+        <v>4.001055528076763</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2194574922323227</v>
+        <v>0.2043516784906387</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.5906655055115119</v>
+        <v>0.5499836315775747</v>
       </c>
       <c r="B118" t="n">
-        <v>4.012337978200631</v>
+        <v>4.011887882438867</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2793938219547272</v>
+        <v>0.2549104392528534</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6733743691150725</v>
+        <v>0.6304813287264134</v>
       </c>
       <c r="B119" t="n">
-        <v>4.017775335987892</v>
+        <v>4.016873585757164</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3303388655185699</v>
+        <v>0.303483635187149</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7524203684761475</v>
+        <v>0.7099066342440258</v>
       </c>
       <c r="B120" t="n">
-        <v>4.019306287775745</v>
+        <v>4.018660759691828</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3942319452762604</v>
+        <v>0.3700786828994751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8332089425987181</v>
+        <v>0.7884741638439126</v>
       </c>
       <c r="B121" t="n">
-        <v>4.022417791817982</v>
+        <v>4.019766327303529</v>
       </c>
       <c r="C121" t="n">
-        <v>0.449688196182251</v>
+        <v>0.3700786828994751</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.9121598985249454</v>
+        <v>0.866005884776703</v>
       </c>
       <c r="B122" t="n">
-        <v>4.023845193009739</v>
+        <v>4.01974438220545</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5097519159317017</v>
+        <v>0.472846508026123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.9922399059439893</v>
+        <v>0.9434297767881186</v>
       </c>
       <c r="B123" t="n">
-        <v>4.026225162412679</v>
+        <v>4.019634192194997</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5666266679763794</v>
+        <v>0.472846508026123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.071402430925118</v>
+        <v>1.02065226126179</v>
       </c>
       <c r="B124" t="n">
-        <v>4.027728092192564</v>
+        <v>4.019320346908902</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6146275401115417</v>
+        <v>0.5884355306625366</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.150887736594237</v>
+        <v>1.0978322168913</v>
       </c>
       <c r="B125" t="n">
-        <v>4.029413859459653</v>
+        <v>4.018965998000886</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6784915328025818</v>
+        <v>0.638712465763092</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.232015832394803</v>
+        <v>1.175030355725836</v>
       </c>
       <c r="B126" t="n">
-        <v>4.032676620540956</v>
+        <v>4.018620917968938</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7451566457748413</v>
+        <v>0.638712465763092</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.311960832788416</v>
+        <v>1.25232765854807</v>
       </c>
       <c r="B127" t="n">
-        <v>4.034690297289953</v>
+        <v>4.018358610438273</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8035902976989746</v>
+        <v>0.744586706161499</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.392639135627771</v>
+        <v>1.329586556457145</v>
       </c>
       <c r="B128" t="n">
-        <v>4.037235782472075</v>
+        <v>4.018058363289469</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8565024733543396</v>
+        <v>0.8035645484924316</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.472027612858455</v>
+        <v>1.406846183646939</v>
       </c>
       <c r="B129" t="n">
-        <v>4.038555218561432</v>
+        <v>4.017751568045441</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9113673567771912</v>
+        <v>0.8661924600601196</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.552537016501729</v>
+        <v>1.484035763892683</v>
       </c>
       <c r="B130" t="n">
-        <v>4.040733903402176</v>
+        <v>4.017375326303876</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8775495290756226</v>
+        <v>0.911798894405365</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.631951557864093</v>
+        <v>1.561267560038279</v>
       </c>
       <c r="B131" t="n">
-        <v>4.041868704016869</v>
+        <v>4.017033200897417</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7886090278625488</v>
+        <v>0.8519334197044373</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.711945251732407</v>
+        <v>1.6384549396192</v>
       </c>
       <c r="B132" t="n">
-        <v>4.043356848775358</v>
+        <v>4.016643728839671</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7363587617874146</v>
+        <v>0.7936720848083496</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.791142556496401</v>
+        <v>1.715671372133663</v>
       </c>
       <c r="B133" t="n">
-        <v>4.044043073361367</v>
+        <v>4.01627520320828</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6628099679946899</v>
+        <v>0.7196068167686462</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.869841618673669</v>
+        <v>1.79298564283103</v>
       </c>
       <c r="B134" t="n">
-        <v>4.044108414918074</v>
+        <v>4.015983262761209</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5876654386520386</v>
+        <v>0.644963264465332</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.949172358758684</v>
+        <v>1.870291203159413</v>
       </c>
       <c r="B135" t="n">
-        <v>4.044830174667398</v>
+        <v>4.015676784396031</v>
       </c>
       <c r="C135" t="n">
-        <v>0.525590717792511</v>
+        <v>0.5738222599029541</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.027086090073186</v>
+        <v>1.947486769838397</v>
       </c>
       <c r="B136" t="n">
-        <v>4.044401121617344</v>
+        <v>4.015285015156141</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4637569189071655</v>
+        <v>0.5215944051742554</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.105212191048877</v>
+        <v>2.024654733305557</v>
       </c>
       <c r="B137" t="n">
-        <v>4.04500787786333</v>
+        <v>4.014930095711471</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4087660312652588</v>
+        <v>0.4497610926628113</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.182701936225689</v>
+        <v>2.101539999607268</v>
       </c>
       <c r="B138" t="n">
-        <v>4.047413530053722</v>
+        <v>4.014733289025582</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3516553044319153</v>
+        <v>0.3914020657539368</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.261163547544935</v>
+        <v>2.177820787699645</v>
       </c>
       <c r="B139" t="n">
-        <v>4.051854701449981</v>
+        <v>4.015210974652232</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3311621844768524</v>
+        <v>0.3394803702831268</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.339061836816971</v>
+        <v>2.252916478107503</v>
       </c>
       <c r="B140" t="n">
-        <v>4.058150482653284</v>
+        <v>4.017353669122762</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2993046343326569</v>
+        <v>0.3079927861690521</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.417778970770108</v>
+        <v>2.327269759937639</v>
       </c>
       <c r="B141" t="n">
-        <v>4.06552644796632</v>
+        <v>4.021605379427793</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2829698920249939</v>
+        <v>0.2632624804973602</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.499139342193253</v>
+        <v>2.401498788803476</v>
       </c>
       <c r="B142" t="n">
-        <v>4.070557134435368</v>
+        <v>4.030969502815572</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3067567348480225</v>
+        <v>0.2477825284004211</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.578553200512794</v>
+        <v>2.477240230314669</v>
       </c>
       <c r="B143" t="n">
-        <v>4.071206928698646</v>
+        <v>4.042478957172441</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3401286005973816</v>
+        <v>0.2687036097049713</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.659758761077764</v>
+        <v>2.556445872137095</v>
       </c>
       <c r="B144" t="n">
-        <v>4.071983975188504</v>
+        <v>4.050182716713684</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3656724989414215</v>
+        <v>0.302661806344986</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.738545532652487</v>
+        <v>2.63594078430162</v>
       </c>
       <c r="B145" t="n">
-        <v>4.069916323084986</v>
+        <v>4.053398951062466</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4238372445106506</v>
+        <v>0.3470427393913269</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.818114418618339</v>
+        <v>2.7138346034047</v>
       </c>
       <c r="B146" t="n">
-        <v>4.068188660057626</v>
+        <v>4.051308054297664</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4784982800483704</v>
+        <v>0.4071503877639771</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.897252966387599</v>
+        <v>2.791398550902242</v>
       </c>
       <c r="B147" t="n">
-        <v>4.065905545439826</v>
+        <v>4.048833512250278</v>
       </c>
       <c r="C147" t="n">
-        <v>0.522388756275177</v>
+        <v>0.4363697171211243</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.97646548629855</v>
+        <v>2.86862019846134</v>
       </c>
       <c r="B148" t="n">
-        <v>4.06350003261116</v>
+        <v>4.045964128057522</v>
       </c>
       <c r="C148" t="n">
-        <v>0.599000096321106</v>
+        <v>0.50111985206604</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.05538022225704</v>
+        <v>2.945780946940817</v>
       </c>
       <c r="B149" t="n">
-        <v>4.060639724133482</v>
+        <v>4.043009408988841</v>
       </c>
       <c r="C149" t="n">
-        <v>0.599000096321106</v>
+        <v>0.5454297065734863</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3.133919211610499</v>
+        <v>3.02291145296571</v>
       </c>
       <c r="B150" t="n">
-        <v>4.057316746412581</v>
+        <v>4.040017701695566</v>
       </c>
       <c r="C150" t="n">
-        <v>0.69471275806427</v>
+        <v>0.6007782220840454</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3.215543041734854</v>
+        <v>3.100108689822713</v>
       </c>
       <c r="B151" t="n">
-        <v>4.056537049136148</v>
+        <v>4.037067565298885</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7515827417373657</v>
+        <v>0.6550014019012451</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.295064876616938</v>
+        <v>3.177287535986853</v>
       </c>
       <c r="B152" t="n">
-        <v>4.053585433601464</v>
+        <v>4.03408501548834</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7515827417373657</v>
+        <v>0.7039365172386169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.374441153257973</v>
+        <v>3.25442871037592</v>
       </c>
       <c r="B153" t="n">
-        <v>4.050041623011643</v>
+        <v>4.031050571591941</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8643747568130493</v>
+        <v>0.7533005475997925</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.452999113380343</v>
+        <v>3.331601301267806</v>
       </c>
       <c r="B154" t="n">
-        <v>4.045524667351905</v>
+        <v>4.028028174408106</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9216001033782959</v>
+        <v>0.8076098561286926</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3.531746688976745</v>
+        <v>3.408740174432682</v>
       </c>
       <c r="B155" t="n">
-        <v>4.040849590500089</v>
+        <v>4.024950878193918</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9716562628746033</v>
+        <v>0.8669228553771973</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.610475770404054</v>
+        <v>3.485943830573093</v>
       </c>
       <c r="B156" t="n">
-        <v>4.035864726881277</v>
+        <v>4.021900744049838</v>
       </c>
       <c r="C156" t="n">
-        <v>1.024255514144897</v>
+        <v>0.9187170267105103</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.689346169530885</v>
+        <v>3.563177647396223</v>
       </c>
       <c r="B157" t="n">
-        <v>4.030565960098588</v>
+        <v>4.018840833753876</v>
       </c>
       <c r="C157" t="n">
-        <v>1.069831609725952</v>
+        <v>0.9609372615814209</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.768834057391928</v>
+        <v>3.640395076134995</v>
       </c>
       <c r="B158" t="n">
-        <v>4.025141031182084</v>
+        <v>4.015719936325956</v>
       </c>
       <c r="C158" t="n">
-        <v>1.122037887573242</v>
+        <v>1.026471138000488</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.847095617336354</v>
+        <v>3.717502442414716</v>
       </c>
       <c r="B159" t="n">
-        <v>4.017985051176466</v>
+        <v>4.012469562895165</v>
       </c>
       <c r="C159" t="n">
-        <v>1.184265613555908</v>
+        <v>1.083654999732971</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.925757460085994</v>
+        <v>3.794693196127283</v>
       </c>
       <c r="B160" t="n">
-        <v>4.010002027437369</v>
+        <v>4.00923551089777</v>
       </c>
       <c r="C160" t="n">
-        <v>1.232351660728455</v>
+        <v>1.125635266304016</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3.871879703585197</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.005911432956421</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.176923155784607</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>3.949041027633954</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.002438726764609</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.233314871788025</v>
       </c>
     </row>
   </sheetData>

--- a/data/result1 traditional, without sampling.xlsx
+++ b/data/result1 traditional, without sampling.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1773 +440,4655 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05471201980206139</v>
+        <v>0.05411462374251953</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05469289264800471</v>
+        <v>0.05468586021316068</v>
       </c>
       <c r="C2" t="n">
-        <v>1.381471514701843</v>
+        <v>1.087479591369629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.109369095719096</v>
+        <v>0.05530630289948735</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1093346865651433</v>
+        <v>0.05589537184043583</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30906355381012</v>
+        <v>1.084986090660095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1640175853621004</v>
+        <v>0.06823534612377478</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1639685874556779</v>
+        <v>0.06886556302353478</v>
       </c>
       <c r="C4" t="n">
-        <v>1.231814503669739</v>
+        <v>1.073050856590271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2187258510208251</v>
+        <v>0.07892156979833748</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2186580047830967</v>
+        <v>0.07953847184264629</v>
       </c>
       <c r="C5" t="n">
-        <v>1.152937650680542</v>
+        <v>1.046521782875061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2734368776244703</v>
+        <v>0.08932452660922116</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2733499554777075</v>
+        <v>0.08991303072443088</v>
       </c>
       <c r="C6" t="n">
-        <v>1.056918382644653</v>
+        <v>1.029045939445496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3280970045667279</v>
+        <v>0.09968780405922315</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3279947779485306</v>
+        <v>0.1002387677191057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9944224953651428</v>
+        <v>1.028046011924744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3827799447401921</v>
+        <v>0.110346821590474</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3826603902755057</v>
+        <v>0.1108847522915939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9254314303398132</v>
+        <v>0.9999605417251587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4375418256142465</v>
+        <v>0.1211424886172583</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4373971971082742</v>
+        <v>0.1216872646920721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8359546661376953</v>
+        <v>0.9823257327079773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4922832662948685</v>
+        <v>0.1316646982534714</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4921158716794126</v>
+        <v>0.1322151658160498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7656018137931824</v>
+        <v>0.9541159272193909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5470111129391891</v>
+        <v>0.1442943340819917</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5468249946570362</v>
+        <v>0.1448415511925507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6792715787887573</v>
+        <v>0.9514939188957214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6017016442341417</v>
+        <v>0.1553175161463765</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6014988246177536</v>
+        <v>0.1558448606894899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6028870940208435</v>
+        <v>0.9290969967842102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6563957013357377</v>
+        <v>0.1636710143329908</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6561678134182507</v>
+        <v>0.1641803633520094</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5270087718963623</v>
+        <v>0.9144577980041504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.710799294392462</v>
+        <v>0.176092106211203</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7105898924947487</v>
+        <v>0.1765951972093215</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4433201253414154</v>
+        <v>0.9169455766677856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7640973928647951</v>
+        <v>0.186671017666871</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7641959980825368</v>
+        <v>0.1871798980261415</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3745968341827393</v>
+        <v>0.8844980001449585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8143520009862104</v>
+        <v>0.1978106002877136</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8146284146793575</v>
+        <v>0.198321945763043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3018644452095032</v>
+        <v>0.8518864512443542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8587964875453133</v>
+        <v>0.2087527621375672</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8558391760246673</v>
+        <v>0.2092629779731632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2248436957597733</v>
+        <v>0.850963830947876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8273439704214187</v>
+        <v>0.2195981527877361</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8861026745318971</v>
+        <v>0.2201002814539052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.171030580997467</v>
+        <v>0.8310118913650513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7897158554972242</v>
+        <v>0.2284691326337756</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9190215534697368</v>
+        <v>0.2289575626436139</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1620790362358093</v>
+        <v>0.8220090270042419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7592782112426105</v>
+        <v>0.2389986710156477</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9483397658365702</v>
+        <v>0.2394433731558652</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1659533828496933</v>
+        <v>0.8127562999725342</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7226319751940768</v>
+        <v>0.2511584624213802</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9857174519404251</v>
+        <v>0.2515963758777287</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1721448004245758</v>
+        <v>0.7998034954071045</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6870632817528842</v>
+        <v>0.2617762791811605</v>
       </c>
       <c r="B22" t="n">
-        <v>1.022311020126462</v>
+        <v>0.2622220495516732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1710496246814728</v>
+        <v>0.776297390460968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6549409038038847</v>
+        <v>0.2727002923386089</v>
       </c>
       <c r="B23" t="n">
-        <v>1.053583932287194</v>
+        <v>0.2731456652067013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1631684303283691</v>
+        <v>0.7649694681167603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6251172541414491</v>
+        <v>0.2837089775041628</v>
       </c>
       <c r="B24" t="n">
-        <v>1.084770793615255</v>
+        <v>0.2841469971827868</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1665990948677063</v>
+        <v>0.7466905117034912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6045664413386483</v>
+        <v>0.2963959565331997</v>
       </c>
       <c r="B25" t="n">
-        <v>1.129905103666455</v>
+        <v>0.2968072754603063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.171457439661026</v>
+        <v>0.7411891222000122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5579403032707724</v>
+        <v>0.3064536004262522</v>
       </c>
       <c r="B26" t="n">
-        <v>1.152343081869701</v>
+        <v>0.3068328935813436</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1544068455696106</v>
+        <v>0.723895251750946</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5697591086000013</v>
+        <v>0.3173873220613437</v>
       </c>
       <c r="B27" t="n">
-        <v>1.166534640316855</v>
+        <v>0.3177407272781987</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1641162931919098</v>
+        <v>0.6878852844238281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5285913014791326</v>
+        <v>0.3265142967522597</v>
       </c>
       <c r="B28" t="n">
-        <v>1.184419772529296</v>
+        <v>0.3268729350937356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1535963714122772</v>
+        <v>0.6890268921852112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4953072869882863</v>
+        <v>0.3374536207709696</v>
       </c>
       <c r="B29" t="n">
-        <v>1.222082952449102</v>
+        <v>0.3378215459914426</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1685432642698288</v>
+        <v>0.6734886765480042</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4688786711907726</v>
+        <v>0.3484049218800567</v>
       </c>
       <c r="B30" t="n">
-        <v>1.254611761373994</v>
+        <v>0.3487756981384717</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1697580516338348</v>
+        <v>0.6589264273643494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4214430227494682</v>
+        <v>0.3608934220040073</v>
       </c>
       <c r="B31" t="n">
-        <v>1.281210420730098</v>
+        <v>0.3612589047748013</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1535218209028244</v>
+        <v>0.6393781900405884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3926204310986666</v>
+        <v>0.3716045367193745</v>
       </c>
       <c r="B32" t="n">
-        <v>1.316834824690383</v>
+        <v>0.3719509971713577</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1697397083044052</v>
+        <v>0.6324756145477295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.360456040441525</v>
+        <v>0.3821969197587656</v>
       </c>
       <c r="B33" t="n">
-        <v>1.35783565333255</v>
+        <v>0.3825471486390757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1710826009511948</v>
+        <v>0.6008092164993286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3311310044935743</v>
+        <v>0.3928652035913159</v>
       </c>
       <c r="B34" t="n">
-        <v>1.393287929481223</v>
+        <v>0.393243490810745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1645527631044388</v>
+        <v>0.5873982310295105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2895183586691591</v>
+        <v>0.4036900046401021</v>
       </c>
       <c r="B35" t="n">
-        <v>1.417901187257995</v>
+        <v>0.404078233136927</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1591523587703705</v>
+        <v>0.5766097903251648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2634765625691192</v>
+        <v>0.4146587451405473</v>
       </c>
       <c r="B36" t="n">
-        <v>1.454945795126412</v>
+        <v>0.4150479539553888</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1744171530008316</v>
+        <v>0.5596125721931458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2281282409543396</v>
+        <v>0.4237128029451647</v>
       </c>
       <c r="B37" t="n">
-        <v>1.475048735101128</v>
+        <v>0.4240972656918185</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1589848250150681</v>
+        <v>0.5395265221595764</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2011955581377378</v>
+        <v>0.4345798391255829</v>
       </c>
       <c r="B38" t="n">
-        <v>1.510313688688899</v>
+        <v>0.4349557485338387</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1635765433311462</v>
+        <v>0.5271680951118469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1624480444195495</v>
+        <v>0.4449003442014746</v>
       </c>
       <c r="B39" t="n">
-        <v>1.532707153662909</v>
+        <v>0.4452585702742313</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1546689718961716</v>
+        <v>0.5258294939994812</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1428984736352952</v>
+        <v>0.456867056877838</v>
       </c>
       <c r="B40" t="n">
-        <v>1.569923168849742</v>
+        <v>0.4571254781350307</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1874787956476212</v>
+        <v>0.5093901753425598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1167656916135912</v>
+        <v>0.4674863345880005</v>
       </c>
       <c r="B41" t="n">
-        <v>1.607483142576883</v>
+        <v>0.4677370406437808</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1671919375658035</v>
+        <v>0.490056961774826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1011980271966518</v>
+        <v>0.4783111202807483</v>
       </c>
       <c r="B42" t="n">
-        <v>1.657512663673483</v>
+        <v>0.4785792097256258</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1665139496326447</v>
+        <v>0.4773334860801697</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1002049089272232</v>
+        <v>0.4891774297404142</v>
       </c>
       <c r="B43" t="n">
-        <v>1.716034778151266</v>
+        <v>0.4894492032553517</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1695708185434341</v>
+        <v>0.4550333023071289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1299282084529979</v>
+        <v>0.5000187094645795</v>
       </c>
       <c r="B44" t="n">
-        <v>1.769335851984848</v>
+        <v>0.5002851397092154</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1782027035951614</v>
+        <v>0.4339863359928131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1564082962397749</v>
+        <v>0.512429512424333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.832992435949394</v>
+        <v>0.5126714898527935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1535035967826843</v>
+        <v>0.4339016079902649</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1982641726992048</v>
+        <v>0.5206524126582428</v>
       </c>
       <c r="B46" t="n">
-        <v>1.888087068049677</v>
+        <v>0.5208725105018788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1637640297412872</v>
+        <v>0.421681821346283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2458376698040911</v>
+        <v>0.5293292527857854</v>
       </c>
       <c r="B47" t="n">
-        <v>1.944868658465895</v>
+        <v>0.5295242538374609</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1757931262254715</v>
+        <v>0.3994844555854797</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.30327656512739</v>
+        <v>0.5431125289035146</v>
       </c>
       <c r="B48" t="n">
-        <v>2.000644796542229</v>
+        <v>0.5433478440810338</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2037061899900436</v>
+        <v>0.3712188303470612</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.369169246339721</v>
+        <v>0.5517201112675392</v>
       </c>
       <c r="B49" t="n">
-        <v>2.05331062683365</v>
+        <v>0.5518879462832633</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2309072464704514</v>
+        <v>0.3712685108184814</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4381675377259304</v>
+        <v>0.5624266844476367</v>
       </c>
       <c r="B50" t="n">
-        <v>2.098485576624563</v>
+        <v>0.56264717830629</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2800346314907074</v>
+        <v>0.3545831739902496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.3912196589691666</v>
+        <v>0.5725383808580795</v>
       </c>
       <c r="B51" t="n">
-        <v>2.10559196383408</v>
+        <v>0.5728756533965783</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1344422250986099</v>
+        <v>0.3426969349384308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4601675827099278</v>
+        <v>0.5843729170051685</v>
       </c>
       <c r="B52" t="n">
-        <v>2.145049314068872</v>
+        <v>0.5845384755200084</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3224403262138367</v>
+        <v>0.322519987821579</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5291333034020314</v>
+        <v>0.5932838488722018</v>
       </c>
       <c r="B53" t="n">
-        <v>2.185415633379466</v>
+        <v>0.5933529958543715</v>
       </c>
       <c r="C53" t="n">
-        <v>0.394462376832962</v>
+        <v>0.3036507368087769</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.5980902409160529</v>
+        <v>0.6025760409655947</v>
       </c>
       <c r="B54" t="n">
-        <v>2.222594605340773</v>
+        <v>0.6028429202164927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.394462376832962</v>
+        <v>0.2986597120761871</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6668729702330837</v>
+        <v>0.6124700649919</v>
       </c>
       <c r="B55" t="n">
-        <v>2.258904997692629</v>
+        <v>0.6130607552566979</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5026060938835144</v>
+        <v>0.281755805015564</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7355749184663583</v>
+        <v>0.6201534024990464</v>
       </c>
       <c r="B56" t="n">
-        <v>2.294984361093146</v>
+        <v>0.6202030557443504</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5838419795036316</v>
+        <v>0.2617132365703583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8042266893453904</v>
+        <v>0.6296358272758694</v>
       </c>
       <c r="B57" t="n">
-        <v>2.330968187409328</v>
+        <v>0.6302105643447962</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6536112427711487</v>
+        <v>0.2486857175827026</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8727003063613046</v>
+        <v>0.6381966467158113</v>
       </c>
       <c r="B58" t="n">
-        <v>2.366782493116601</v>
+        <v>0.6384782721829304</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5711652636528015</v>
+        <v>0.2352311909198761</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9412766743253985</v>
+        <v>0.6458469485078555</v>
       </c>
       <c r="B59" t="n">
-        <v>2.402688289256975</v>
+        <v>0.6461342709296914</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5133642554283142</v>
+        <v>0.2225642502307892</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.009799537082124</v>
+        <v>0.6524664114896732</v>
       </c>
       <c r="B60" t="n">
-        <v>2.43854651367214</v>
+        <v>0.6532246879256907</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4298209249973297</v>
+        <v>0.2122730761766434</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.077934709594844</v>
+        <v>0.6314378814437019</v>
       </c>
       <c r="B61" t="n">
-        <v>2.473927638123096</v>
+        <v>0.6722915304801259</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3589624762535095</v>
+        <v>0.1949636489152908</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.144758494447971</v>
+        <v>0.620788140770659</v>
       </c>
       <c r="B62" t="n">
-        <v>2.508217437703232</v>
+        <v>0.6786082823225327</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2791471481323242</v>
+        <v>0.1866945177316666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.20778219894674</v>
+        <v>0.6111054803224381</v>
       </c>
       <c r="B63" t="n">
-        <v>2.537600665308595</v>
+        <v>0.6810438220949443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2102687060832977</v>
+        <v>0.1789853572845459</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.225127089638298</v>
+        <v>0.6154768753178594</v>
       </c>
       <c r="B64" t="n">
-        <v>2.585841186181897</v>
+        <v>0.6850865934440555</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1475725471973419</v>
+        <v>0.1674960255622864</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.176995328371573</v>
+        <v>0.6033930451841669</v>
       </c>
       <c r="B65" t="n">
-        <v>2.600227376492165</v>
+        <v>0.6802576792931986</v>
       </c>
       <c r="C65" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1558736264705658</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.134806987016816</v>
+        <v>0.5868147922758776</v>
       </c>
       <c r="B66" t="n">
-        <v>2.566947265104916</v>
+        <v>0.6746648094162474</v>
       </c>
       <c r="C66" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1355340927839279</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.08178818664192</v>
+        <v>0.580637376972852</v>
       </c>
       <c r="B67" t="n">
-        <v>2.556642094597756</v>
+        <v>0.6755563937659792</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1746406257152557</v>
+        <v>0.1328095495700836</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.063281354719189</v>
+        <v>0.5723199369044989</v>
       </c>
       <c r="B68" t="n">
-        <v>2.595190307273703</v>
+        <v>0.6813264536644617</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2262817323207855</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.123721350680813</v>
+        <v>0.5537173182997046</v>
       </c>
       <c r="B69" t="n">
-        <v>2.614901048292721</v>
+        <v>0.6705760385305747</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1992730498313904</v>
+        <v>0.1277335435152054</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.116856516254749</v>
+        <v>0.5510745963979607</v>
       </c>
       <c r="B70" t="n">
-        <v>2.652035810392312</v>
+        <v>0.709826747690232</v>
       </c>
       <c r="C70" t="n">
-        <v>0.146515280008316</v>
+        <v>0.1435911059379578</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.067621891758334</v>
+        <v>0.5525353610116353</v>
       </c>
       <c r="B71" t="n">
-        <v>2.669863235580768</v>
+        <v>0.7297984895966573</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1549820154905319</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.025414936804402</v>
+        <v>0.544636668050913</v>
       </c>
       <c r="B72" t="n">
-        <v>2.693214035632757</v>
+        <v>0.7387198067732597</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1460393816232681</v>
+        <v>0.1627956479787827</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9912384217087005</v>
+        <v>0.5536792298240812</v>
       </c>
       <c r="B73" t="n">
-        <v>2.717615458308792</v>
+        <v>0.7532320136724032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1654521077871323</v>
+        <v>0.1757572293281555</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9552046048791253</v>
+        <v>0.5485615674795977</v>
       </c>
       <c r="B74" t="n">
-        <v>2.755492354258898</v>
+        <v>0.7676725798122604</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1651098281145096</v>
+        <v>0.1878531873226166</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9285470650300125</v>
+        <v>0.5617152466075311</v>
       </c>
       <c r="B75" t="n">
-        <v>2.780893598841264</v>
+        <v>0.7844144224441655</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1549800485372543</v>
+        <v>0.1763936281204224</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9021799874966271</v>
+        <v>0.5565113611600803</v>
       </c>
       <c r="B76" t="n">
-        <v>2.807743958268788</v>
+        <v>0.7984099540443963</v>
       </c>
       <c r="C76" t="n">
-        <v>0.168599858880043</v>
+        <v>0.1835603266954422</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8754719556152121</v>
+        <v>0.5729440986845793</v>
       </c>
       <c r="B77" t="n">
-        <v>2.835986322081072</v>
+        <v>0.8061822695688607</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1701754182577133</v>
+        <v>0.1906196475028992</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8463910564098678</v>
+        <v>0.5625738496124888</v>
       </c>
       <c r="B78" t="n">
-        <v>2.845661026488302</v>
+        <v>0.8159176913095894</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1647332906723022</v>
+        <v>0.1881789714097977</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8381815876848748</v>
+        <v>0.589626309733057</v>
       </c>
       <c r="B79" t="n">
-        <v>2.88171667961481</v>
+        <v>0.8253578489386114</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1816801279783249</v>
+        <v>0.1738607585430145</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7985133756659444</v>
+        <v>0.5783335654005128</v>
       </c>
       <c r="B80" t="n">
-        <v>2.899837486480272</v>
+        <v>0.8461656101908736</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1625802516937256</v>
+        <v>0.1717343777418137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7744750178131047</v>
+        <v>0.5805267479364297</v>
       </c>
       <c r="B81" t="n">
-        <v>2.927745745060405</v>
+        <v>0.8571150845760502</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1711859703063965</v>
+        <v>0.1839611828327179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7418126444834866</v>
+        <v>0.5737268781747317</v>
       </c>
       <c r="B82" t="n">
-        <v>2.938169520284461</v>
+        <v>0.8665329451482422</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155186727643013</v>
+        <v>0.1688729226589203</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7347961170017653</v>
+        <v>0.5714574419586151</v>
       </c>
       <c r="B83" t="n">
-        <v>2.975761211039803</v>
+        <v>0.8839414341724785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1849246770143509</v>
+        <v>0.1624771356582642</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7060975430242704</v>
+        <v>0.5557278044519348</v>
       </c>
       <c r="B84" t="n">
-        <v>3.00763921562311</v>
+        <v>0.8973092036228469</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1626642346382141</v>
+        <v>0.1521821469068527</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6781328806924717</v>
+        <v>0.5685886033110176</v>
       </c>
       <c r="B85" t="n">
-        <v>3.040941555347779</v>
+        <v>0.9104854325668094</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1662304550409317</v>
+        <v>0.159638836979866</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6444578036157051</v>
+        <v>0.5528761138884201</v>
       </c>
       <c r="B86" t="n">
-        <v>3.054348629867659</v>
+        <v>0.9188752372907474</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1574889868497849</v>
+        <v>0.1608206778764725</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6250225524854596</v>
+        <v>0.5660446384244731</v>
       </c>
       <c r="B87" t="n">
-        <v>3.08226870780111</v>
+        <v>0.9292795613516615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1747816801071167</v>
+        <v>0.148718386888504</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.602640787967233</v>
+        <v>0.5457609629127347</v>
       </c>
       <c r="B88" t="n">
-        <v>3.110385998094537</v>
+        <v>0.9377686019083017</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1661105751991272</v>
+        <v>0.162665843963623</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.57635289359984</v>
+        <v>0.5627273862091683</v>
       </c>
       <c r="B89" t="n">
-        <v>3.138189389358934</v>
+        <v>0.9555325455845384</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1531369388103485</v>
+        <v>0.1745986342430115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.5531301336574749</v>
+        <v>0.5660648359808867</v>
       </c>
       <c r="B90" t="n">
-        <v>3.168048569030694</v>
+        <v>0.9600750871382751</v>
       </c>
       <c r="C90" t="n">
-        <v>0.166801780462265</v>
+        <v>0.171058788895607</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5327155831615558</v>
+        <v>0.5634263665915114</v>
       </c>
       <c r="B91" t="n">
-        <v>3.195108482600164</v>
+        <v>0.9772442466344036</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1655432432889938</v>
+        <v>0.1756820231676102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4966344519178755</v>
+        <v>0.5661339197251806</v>
       </c>
       <c r="B92" t="n">
-        <v>3.208572854618656</v>
+        <v>1.001181918307345</v>
       </c>
       <c r="C92" t="n">
-        <v>0.144566535949707</v>
+        <v>0.1711529940366745</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4731666179210772</v>
+        <v>0.5644693623603207</v>
       </c>
       <c r="B93" t="n">
-        <v>3.238713076501361</v>
+        <v>1.001626169752103</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1621703803539276</v>
+        <v>0.172631248831749</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4432857751290424</v>
+        <v>0.5659796495712531</v>
       </c>
       <c r="B94" t="n">
-        <v>3.252642604733731</v>
+        <v>1.024148609789762</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1590974032878876</v>
+        <v>0.1702493280172348</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4294079616488482</v>
+        <v>0.5655639640812742</v>
       </c>
       <c r="B95" t="n">
-        <v>3.280376754549834</v>
+        <v>1.033411577285818</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1809529811143875</v>
+        <v>0.1579606235027313</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.3984502116255204</v>
+        <v>0.5631559326206886</v>
       </c>
       <c r="B96" t="n">
-        <v>3.296787253133284</v>
+        <v>1.04630382770904</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1623161733150482</v>
+        <v>0.1667781919240952</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3777156952114641</v>
+        <v>0.5659874095587375</v>
       </c>
       <c r="B97" t="n">
-        <v>3.328589436267049</v>
+        <v>1.059905344276754</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1708335429430008</v>
+        <v>0.161834716796875</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.358544472461507</v>
+        <v>0.5650267967869391</v>
       </c>
       <c r="B98" t="n">
-        <v>3.359977376761567</v>
+        <v>1.072310061485149</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1726795881986618</v>
+        <v>0.1606492847204208</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3351651248265513</v>
+        <v>0.5657493246633248</v>
       </c>
       <c r="B99" t="n">
-        <v>3.393271280928134</v>
+        <v>1.092533464919398</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1617861539125443</v>
+        <v>0.1614375859498978</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2975066145024325</v>
+        <v>0.565235119234752</v>
       </c>
       <c r="B100" t="n">
-        <v>3.417977350504546</v>
+        <v>1.097067698190459</v>
       </c>
       <c r="C100" t="n">
-        <v>0.155637800693512</v>
+        <v>0.1664542406797409</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2803084889694961</v>
+        <v>0.5676491088317139</v>
       </c>
       <c r="B101" t="n">
-        <v>3.446411694247233</v>
+        <v>1.11998308896903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1678250879049301</v>
+        <v>0.170973464846611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2505140461942191</v>
+        <v>0.5684029170510521</v>
       </c>
       <c r="B102" t="n">
-        <v>3.464815045353506</v>
+        <v>1.119922577258647</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1642172932624817</v>
+        <v>0.1661096215248108</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2318722150807328</v>
+        <v>0.5822023399633492</v>
       </c>
       <c r="B103" t="n">
-        <v>3.494754762097692</v>
+        <v>1.137093802821511</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1653444916009903</v>
+        <v>0.160026490688324</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.1958984798470068</v>
+        <v>0.5670237857712082</v>
       </c>
       <c r="B104" t="n">
-        <v>3.517885645068771</v>
+        <v>1.150521155384361</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1542003154754639</v>
+        <v>0.1649685949087143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1777532192409833</v>
+        <v>0.5707973917101037</v>
       </c>
       <c r="B105" t="n">
-        <v>3.550858947448766</v>
+        <v>1.170730879002972</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1717521101236343</v>
+        <v>0.1776463687419891</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1486214194183223</v>
+        <v>0.5743646524171275</v>
       </c>
       <c r="B106" t="n">
-        <v>3.566495957887036</v>
+        <v>1.162552537689389</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1541768461465836</v>
+        <v>0.1695667505264282</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1329462525909252</v>
+        <v>0.5732383134606351</v>
       </c>
       <c r="B107" t="n">
-        <v>3.594898941501427</v>
+        <v>1.179801797391454</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1663455963134766</v>
+        <v>0.1641474515199661</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1142629789914582</v>
+        <v>0.5752331850246062</v>
       </c>
       <c r="B108" t="n">
-        <v>3.62907552578803</v>
+        <v>1.204288773792267</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1694206744432449</v>
+        <v>0.1625978946685791</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1081312008119513</v>
+        <v>0.5588472470451629</v>
       </c>
       <c r="B109" t="n">
-        <v>3.670885740673385</v>
+        <v>1.203823101041119</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1647118777036667</v>
+        <v>0.1678018718957901</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1179965719034756</v>
+        <v>0.5603088932012846</v>
       </c>
       <c r="B110" t="n">
-        <v>3.718712897694538</v>
+        <v>1.222569347447556</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1711564958095551</v>
+        <v>0.1555938124656677</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1231643692346308</v>
+        <v>0.5564613627104954</v>
       </c>
       <c r="B111" t="n">
-        <v>3.77440190167445</v>
+        <v>1.228807766980851</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1494912356138229</v>
+        <v>0.1576482802629471</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1619499803983711</v>
+        <v>0.5548570759943844</v>
       </c>
       <c r="B112" t="n">
-        <v>3.81979624330775</v>
+        <v>1.239319228056068</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1679456233978271</v>
+        <v>0.1540267467498779</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2042633994360194</v>
+        <v>0.5666096106450091</v>
       </c>
       <c r="B113" t="n">
-        <v>3.872879205109385</v>
+        <v>1.261131008892594</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1608881503343582</v>
+        <v>0.1653108596801758</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2496777771642201</v>
+        <v>0.5667473720923341</v>
       </c>
       <c r="B114" t="n">
-        <v>3.927055871611612</v>
+        <v>1.266197112884399</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1631552278995514</v>
+        <v>0.1678896248340607</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.3164466098834088</v>
+        <v>0.5664742519724222</v>
       </c>
       <c r="B115" t="n">
-        <v>3.953910957536145</v>
+        <v>1.27956203296262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1776115745306015</v>
+        <v>0.1701508015394211</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3879029656703738</v>
+        <v>0.5816631477833792</v>
       </c>
       <c r="B116" t="n">
-        <v>3.979450268662435</v>
+        <v>1.286260641818632</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1870049834251404</v>
+        <v>0.1640843451023102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4675911713966032</v>
+        <v>0.5838148268713116</v>
       </c>
       <c r="B117" t="n">
-        <v>4.001055528076763</v>
+        <v>1.310254280242828</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2043516784906387</v>
+        <v>0.1711537539958954</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.5499836315775747</v>
+        <v>0.5880664633851599</v>
       </c>
       <c r="B118" t="n">
-        <v>4.011887882438867</v>
+        <v>1.317546652164459</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2549104392528534</v>
+        <v>0.1653775721788406</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6304813287264134</v>
+        <v>0.5777732383263208</v>
       </c>
       <c r="B119" t="n">
-        <v>4.016873585757164</v>
+        <v>1.332821847989911</v>
       </c>
       <c r="C119" t="n">
-        <v>0.303483635187149</v>
+        <v>0.1674714535474777</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7099066342440258</v>
+        <v>0.5959066476342998</v>
       </c>
       <c r="B120" t="n">
-        <v>4.018660759691828</v>
+        <v>1.342211663944148</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3700786828994751</v>
+        <v>0.1597994714975357</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7884741638439126</v>
+        <v>0.5809278389222163</v>
       </c>
       <c r="B121" t="n">
-        <v>4.019766327303529</v>
+        <v>1.352027367571135</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3700786828994751</v>
+        <v>0.1655138731002808</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.866005884776703</v>
+        <v>0.5995314797072926</v>
       </c>
       <c r="B122" t="n">
-        <v>4.01974438220545</v>
+        <v>1.364953052049424</v>
       </c>
       <c r="C122" t="n">
-        <v>0.472846508026123</v>
+        <v>0.1606991589069366</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.9434297767881186</v>
+        <v>0.5998508892516179</v>
       </c>
       <c r="B123" t="n">
-        <v>4.019634192194997</v>
+        <v>1.373565605802214</v>
       </c>
       <c r="C123" t="n">
-        <v>0.472846508026123</v>
+        <v>0.172678604722023</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.02065226126179</v>
+        <v>0.6172024422737117</v>
       </c>
       <c r="B124" t="n">
-        <v>4.019320346908902</v>
+        <v>1.377156647563121</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5884355306625366</v>
+        <v>0.1719938814640045</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.0978322168913</v>
+        <v>0.6213551126660813</v>
       </c>
       <c r="B125" t="n">
-        <v>4.018965998000886</v>
+        <v>1.391600877839177</v>
       </c>
       <c r="C125" t="n">
-        <v>0.638712465763092</v>
+        <v>0.179109513759613</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.175030355725836</v>
+        <v>0.6304444799146929</v>
       </c>
       <c r="B126" t="n">
-        <v>4.018620917968938</v>
+        <v>1.406234469304944</v>
       </c>
       <c r="C126" t="n">
-        <v>0.638712465763092</v>
+        <v>0.1767547279596329</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.25232765854807</v>
+        <v>0.6365791507373376</v>
       </c>
       <c r="B127" t="n">
-        <v>4.018358610438273</v>
+        <v>1.41713517867611</v>
       </c>
       <c r="C127" t="n">
-        <v>0.744586706161499</v>
+        <v>0.1823583841323853</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.329586556457145</v>
+        <v>0.6470949011048689</v>
       </c>
       <c r="B128" t="n">
-        <v>4.018058363289469</v>
+        <v>1.431590938563934</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8035645484924316</v>
+        <v>0.18327496945858</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.406846183646939</v>
+        <v>0.6540306000331833</v>
       </c>
       <c r="B129" t="n">
-        <v>4.017751568045441</v>
+        <v>1.446228448589856</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8661924600601196</v>
+        <v>0.1725341081619263</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.484035763892683</v>
+        <v>0.6611840910196384</v>
       </c>
       <c r="B130" t="n">
-        <v>4.017375326303876</v>
+        <v>1.458301480997181</v>
       </c>
       <c r="C130" t="n">
-        <v>0.911798894405365</v>
+        <v>0.1895551979541779</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.561267560038279</v>
+        <v>0.6734799782143199</v>
       </c>
       <c r="B131" t="n">
-        <v>4.017033200897417</v>
+        <v>1.469420356219408</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8519334197044373</v>
+        <v>0.1818866580724716</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.6384549396192</v>
+        <v>0.6807209960522722</v>
       </c>
       <c r="B132" t="n">
-        <v>4.016643728839671</v>
+        <v>1.483669940580558</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7936720848083496</v>
+        <v>0.1954034864902496</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.715671372133663</v>
+        <v>0.6929170652568594</v>
       </c>
       <c r="B133" t="n">
-        <v>4.01627520320828</v>
+        <v>1.495641220505735</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7196068167686462</v>
+        <v>0.1989836245775223</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.79298564283103</v>
+        <v>0.7034359626311735</v>
       </c>
       <c r="B134" t="n">
-        <v>4.015983262761209</v>
+        <v>1.508902001477829</v>
       </c>
       <c r="C134" t="n">
-        <v>0.644963264465332</v>
+        <v>0.1941814124584198</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.870291203159413</v>
+        <v>0.715201487898695</v>
       </c>
       <c r="B135" t="n">
-        <v>4.015676784396031</v>
+        <v>1.525999101341214</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5738222599029541</v>
+        <v>0.2193780988454819</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.947486769838397</v>
+        <v>0.7295416878723601</v>
       </c>
       <c r="B136" t="n">
-        <v>4.015285015156141</v>
+        <v>1.535347388038775</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5215944051742554</v>
+        <v>0.2282963842153549</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.024654733305557</v>
+        <v>0.7396485290374027</v>
       </c>
       <c r="B137" t="n">
-        <v>4.014930095711471</v>
+        <v>1.546025092949288</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4497610926628113</v>
+        <v>0.2243397980928421</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.101539999607268</v>
+        <v>0.7489948549983689</v>
       </c>
       <c r="B138" t="n">
-        <v>4.014733289025582</v>
+        <v>1.558843333709193</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3914020657539368</v>
+        <v>0.2401389479637146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.177820787699645</v>
+        <v>0.7629704632075685</v>
       </c>
       <c r="B139" t="n">
-        <v>4.015210974652232</v>
+        <v>1.568949083577993</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3394803702831268</v>
+        <v>0.2533662617206573</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.252916478107503</v>
+        <v>0.7740844481988324</v>
       </c>
       <c r="B140" t="n">
-        <v>4.017353669122762</v>
+        <v>1.579053317646821</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3079927861690521</v>
+        <v>0.2566984593868256</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.327269759937639</v>
+        <v>0.786370017003398</v>
       </c>
       <c r="B141" t="n">
-        <v>4.021605379427793</v>
+        <v>1.590922601201857</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2632624804973602</v>
+        <v>0.2656867802143097</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.401498788803476</v>
+        <v>0.7989320203584468</v>
       </c>
       <c r="B142" t="n">
-        <v>4.030969502815572</v>
+        <v>1.601042096254054</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2477825284004211</v>
+        <v>0.2750285267829895</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.477240230314669</v>
+        <v>0.8111040233691333</v>
       </c>
       <c r="B143" t="n">
-        <v>4.042478957172441</v>
+        <v>1.611294659570384</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2687036097049713</v>
+        <v>0.2854968011379242</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.556445872137095</v>
+        <v>0.8227672951730959</v>
       </c>
       <c r="B144" t="n">
-        <v>4.050182716713684</v>
+        <v>1.621164605837184</v>
       </c>
       <c r="C144" t="n">
-        <v>0.302661806344986</v>
+        <v>0.2989379167556763</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.63594078430162</v>
+        <v>0.8352330494845202</v>
       </c>
       <c r="B145" t="n">
-        <v>4.053398951062466</v>
+        <v>1.630381953258088</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3470427393913269</v>
+        <v>0.301283210515976</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.7138346034047</v>
+        <v>0.8468653011535016</v>
       </c>
       <c r="B146" t="n">
-        <v>4.051308054297664</v>
+        <v>1.640729864418367</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4071503877639771</v>
+        <v>0.3073276579380035</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.791398550902242</v>
+        <v>0.8573622056276927</v>
       </c>
       <c r="B147" t="n">
-        <v>4.048833512250278</v>
+        <v>1.648913292962896</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4363697171211243</v>
+        <v>0.3234817087650299</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.86862019846134</v>
+        <v>0.8694902943103366</v>
       </c>
       <c r="B148" t="n">
-        <v>4.045964128057522</v>
+        <v>1.657837491655503</v>
       </c>
       <c r="C148" t="n">
-        <v>0.50111985206604</v>
+        <v>0.3377794623374939</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.945780946940817</v>
+        <v>0.8827652370059113</v>
       </c>
       <c r="B149" t="n">
-        <v>4.043009408988841</v>
+        <v>1.668413217189124</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5454297065734863</v>
+        <v>0.3276328146457672</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3.02291145296571</v>
+        <v>0.8951386279114477</v>
       </c>
       <c r="B150" t="n">
-        <v>4.040017701695566</v>
+        <v>1.67889420654764</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6007782220840454</v>
+        <v>0.3503216207027435</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3.100108689822713</v>
+        <v>0.9081986263907132</v>
       </c>
       <c r="B151" t="n">
-        <v>4.037067565298885</v>
+        <v>1.687709737762878</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6550014019012451</v>
+        <v>0.3632732629776001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.177287535986853</v>
+        <v>0.9213350798673845</v>
       </c>
       <c r="B152" t="n">
-        <v>4.03408501548834</v>
+        <v>1.698104548584438</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7039365172386169</v>
+        <v>0.3744184374809265</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.25442871037592</v>
+        <v>0.9323192565487022</v>
       </c>
       <c r="B153" t="n">
-        <v>4.031050571591941</v>
+        <v>1.706015168692945</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7533005475997925</v>
+        <v>0.383877694606781</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.331601301267806</v>
+        <v>0.9425238713991348</v>
       </c>
       <c r="B154" t="n">
-        <v>4.028028174408106</v>
+        <v>1.713673225656458</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8076098561286926</v>
+        <v>0.390158087015152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3.408740174432682</v>
+        <v>0.9560954818828087</v>
       </c>
       <c r="B155" t="n">
-        <v>4.024950878193918</v>
+        <v>1.72435541297631</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8669228553771973</v>
+        <v>0.3956266641616821</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.485943830573093</v>
+        <v>0.9681940639709802</v>
       </c>
       <c r="B156" t="n">
-        <v>4.021900744049838</v>
+        <v>1.733488043976568</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9187170267105103</v>
+        <v>0.4006073772907257</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.563177647396223</v>
+        <v>0.9803853486487085</v>
       </c>
       <c r="B157" t="n">
-        <v>4.018840833753876</v>
+        <v>1.742742987229802</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9609372615814209</v>
+        <v>0.4236874878406525</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.640395076134995</v>
+        <v>0.9920327246737223</v>
       </c>
       <c r="B158" t="n">
-        <v>4.015719936325956</v>
+        <v>1.751257810168496</v>
       </c>
       <c r="C158" t="n">
-        <v>1.026471138000488</v>
+        <v>0.4250065386295319</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.717502442414716</v>
+        <v>1.004200606776506</v>
       </c>
       <c r="B159" t="n">
-        <v>4.012469562895165</v>
+        <v>1.760408748343057</v>
       </c>
       <c r="C159" t="n">
-        <v>1.083654999732971</v>
+        <v>0.4316243231296539</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.794693196127283</v>
+        <v>1.01636001944247</v>
       </c>
       <c r="B160" t="n">
-        <v>4.00923551089777</v>
+        <v>1.769533451435845</v>
       </c>
       <c r="C160" t="n">
-        <v>1.125635266304016</v>
+        <v>0.4544770419597626</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3.871879703585197</v>
+        <v>1.029949948149365</v>
       </c>
       <c r="B161" t="n">
-        <v>4.005911432956421</v>
+        <v>1.779690460445364</v>
       </c>
       <c r="C161" t="n">
-        <v>1.176923155784607</v>
+        <v>0.4560141563415527</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.949041027633954</v>
+        <v>1.042214169612313</v>
       </c>
       <c r="B162" t="n">
-        <v>4.002438726764609</v>
+        <v>1.789111523178367</v>
       </c>
       <c r="C162" t="n">
-        <v>1.233314871788025</v>
+        <v>0.462966114282608</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.054403482986723</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.798303548850579</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4681863784790039</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.064587634886474</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.805886651970849</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4933629035949707</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.078795543481289</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.816444730979248</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4911266267299652</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.090797084486313</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.825411606346904</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.5042151212692261</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.102891473589876</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.834442886612802</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.5175715088844299</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.112762488945411</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.841825103240231</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.5169749855995178</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.124903818650816</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.850999847352651</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5245252847671509</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.136801589630925</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.859910387352519</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5418604612350464</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.148676412807654</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.868783541153136</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5394228100776672</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.16252009752107</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.879108772131498</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5500180125236511</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.174632995512897</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.888120255844667</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5502848625183105</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.186488447459977</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.897003856366669</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.570048451423645</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.198329389425158</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.905964060514298</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5772034525871277</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.210472406580837</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.915089837277359</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5803671479225159</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.222686540750916</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.924233992762375</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.6042999029159546</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.234655046272585</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.933137870322447</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6151875853538513</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.246735667675048</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.942009851943099</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6221309900283813</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.258909679246947</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.951050771019725</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6241821646690369</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.272377484483816</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.961214627224629</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6377547979354858</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.284796852780427</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.970648065353435</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6515179872512817</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.297338617990041</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.980070189997578</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6571747660636902</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.309521324238014</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.989162625940508</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6539283990859985</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.32166549758876</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.998165726559902</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6282263994216919</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.333876528979888</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.007209779423723</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.637629508972168</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.345751990941037</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.016095310829436</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.6245425939559937</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.357650800035771</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.025086449923736</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.6331244707107544</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.369850222925535</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.034256413522158</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.6154735088348389</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.382130880102624</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.043444875617228</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5962212085723877</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.394142483644514</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.05237915833512</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5947719216346741</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.406175504976865</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.061224230108308</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5821582674980164</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.420383971052021</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.071783875799979</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5795467495918274</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.432045265883781</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.080581295279568</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5579993724822998</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.442458426004829</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.08849994412262</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5525121688842773</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.454852903742223</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2.097814869608325</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.5497735738754272</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.467115731179308</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2.106970943397615</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.5379741191864014</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.477027733023147</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2.114344637120098</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.5293813347816467</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.49111279928296</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.124728331203583</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.5143483877182007</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.502988585183244</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.133557760965819</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.5119661092758179</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.514646888924037</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2.142291281236753</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5004072785377502</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.528795158136928</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2.152889372219913</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.5019339919090271</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.541290206569582</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2.16222032215509</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.4931857287883759</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.553739238178382</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.171463024440063</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.4660141170024872</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.565913134154427</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.180345407643732</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.4591783583164215</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.57812502191266</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.189339875385897</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4543994069099426</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.590131281265091</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2.19827109282913</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.4537086486816406</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.600169841005392</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.205796526270981</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.4357891082763672</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.614409935424973</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.216304735541119</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.4445919394493103</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.626560633286914</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.225361098703357</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4252032041549683</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.638444989326613</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.233856339314725</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4146986901760101</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.648497218211405</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.241005561518067</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4054535925388336</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1.660846248294653</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.249800378282738</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4105198979377747</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.672292565654221</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.258354324837156</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4107290506362915</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.684120268255615</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.267088409767721</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.3800648152828217</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.696305676614242</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.27517819991432</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4032042920589447</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.708167151272407</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.284543991323924</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.3875657916069031</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.720060391426427</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.292661586012758</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.3870635032653809</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1.735869529497265</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2.303912189395414</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.3918955624103546</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1.748370533658868</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.313066842780592</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.3833189010620117</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1.760677910780894</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.321749927687473</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.3836306631565094</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.773367297100047</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.331017739484237</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3526851534843445</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.784560836362468</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.337684274544349</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.384715735912323</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.7966970377257</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.347847994176787</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3636797070503235</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.808741639725293</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.355410372631477</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.376074492931366</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.820876056606201</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.364491333223108</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.3803634643554688</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.832771553528445</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2.373087985273887</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.3655858337879181</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.844952652883431</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2.381230263090714</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.3771036863327026</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.856860415156232</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.390332556613616</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.3835470974445343</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.868945050660683</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2.399207495760127</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.384219765663147</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.883097554871737</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.409379097041479</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.3953717052936554</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.895108087213981</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2.418316821156324</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.3868227899074554</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.907837340831689</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2.427226516694854</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.3921380341053009</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.919546665515596</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2.435959580115803</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.395073413848877</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.931645250247007</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2.444996866022918</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.3993004560470581</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.944107545233994</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2.454271347996023</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4144718647003174</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.956211246601865</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2.463436045153828</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4049126207828522</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.968215138682851</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2.471996890046199</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4191238284111023</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.980282678262051</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2.481030792822785</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4308327436447144</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.992435562969693</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2.490114488080519</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4321118593215942</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2.004231408312807</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2.498913736080667</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.4371179044246674</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2.016430064951749</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.508113099692898</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4522441029548645</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.030624060497292</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2.518837387136499</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4655788540840149</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2.042850046004757</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.528008173640542</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.4756796360015869</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2.055202479181583</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.537162407277287</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.4835315942764282</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2.067361923956871</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2.546219703940376</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4937225878238678</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.079082651432675</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.555060054616229</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.4924234449863434</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.089087466388069</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.562701320988445</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.5094530582427979</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.101442229608978</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2.572111634597509</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.5048979520797729</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.113632955946549</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.581268202728063</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5331823825836182</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.127257341989094</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2.591533319037034</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.5418845415115356</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2.13932169318556</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.600475010609479</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.5563216805458069</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2.151489790741469</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.609581430136888</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.548552393913269</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.163205841946056</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.618440845568154</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.5689125657081604</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.175212260739199</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.627641320364794</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5892491340637207</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.187401466538659</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.636854675565</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5986534357070923</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2.197589404049368</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.644518369110761</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5874937772750854</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2.209676472338713</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.653584271420017</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.6175323128700256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.223529085502813</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.663951474409771</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.6149226427078247</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.235543184272275</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.672977927443418</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.6117483973503113</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.247417964826279</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.68196901268557</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5812785029411316</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2.259581593700222</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.691217490698012</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.564298152923584</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2.271797328323451</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.700443378086777</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5553989410400391</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2.283577784107495</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2.709305252445348</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.538002073764801</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.297558453270565</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2.719735355043551</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5200910568237305</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2.309605081564101</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2.728749877194299</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5145581960678101</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2.321654091013187</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2.737868818720518</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.4941538274288177</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2.333666367545827</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2.747041544788469</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4859720170497894</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2.346130089586393</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2.75649675812496</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.4756730198860168</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.358342880823188</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2.765754485088858</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4521353840827942</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.370178708559947</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2.774683685172297</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.4351535737514496</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2.382120388777615</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2.783742229762438</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.4337798058986664</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.394216074491948</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2.792849426391877</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.4148158729076385</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.405601581021104</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2.80166099065731</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.3990186452865601</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2.417475670364816</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2.810978924171161</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.3907103538513184</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2.429198088300165</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2.820157323887783</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.3736809492111206</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2.438643990291846</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2.827684758500488</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.3642145693302155</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2.449913572931325</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2.836805430896129</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.351520299911499</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.464731839712218</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2.848211156339152</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.3434404134750366</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2.476115848772299</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2.857577423308943</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.3233179152011871</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2.484560649798841</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2.865591302595353</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.3223349750041962</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2.496129070917068</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2.874663475312244</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.307498037815094</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2.506271615508114</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2.882882397954105</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.2901412546634674</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2.515789958681781</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2.891858205052034</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2938511669635773</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2.527074715192355</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2.903102433002173</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.2722838819026947</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2.535018411054071</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.910649593342312</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.2602488994598389</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2.544094045724463</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2.91745142771109</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.2513706684112549</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2.552461000078129</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2.929382147459774</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.231678768992424</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2.558902649296023</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2.934604058175427</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.2371824383735657</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2.57113331508773</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2.943773146347402</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.2217647433280945</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2.577374933933437</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2.953715459748054</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.2119501531124115</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2.583857642316587</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2.96330583946938</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.2051952481269836</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2.591155840313297</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2.970804821009708</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1937474608421326</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2.597124365434155</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2.980081104327605</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1772739291191101</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2.576624524094669</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.011572283699025</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1831547319889069</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2.585515358375404</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.019226337181984</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1660513281822205</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2.586806301309729</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.022773280264</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1520585268735886</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2.570891467194818</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.041803966029252</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1416267454624176</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2.56973760088714</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.053362155286435</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1412988305091858</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2.554357289885383</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.051602192169641</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1422679126262665</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2.550825068736903</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3.070806503507794</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1440412551164627</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2.546841572728645</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.085246750851113</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1450379341840744</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2.541072630543578</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.099660003482485</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1578832268714905</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2.539638857190132</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3.105412315998396</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1699255704879761</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2.553023141735939</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3.124317670163522</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1653711050748825</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2.547781702924715</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.133431310109712</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1786679625511169</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2.564747674670767</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3.153836240192438</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.183268740773201</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2.578105141891304</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3.154641443153205</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1983063071966171</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2.570759840875385</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.178182508363864</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1932281404733658</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2.589702779370005</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3.181835374076234</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1766171306371689</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2.563174643109559</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3.196555277666538</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1772104352712631</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2.585745646472355</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.217120929321534</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1729332208633423</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2.573084697399449</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.226965664668894</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1665882766246796</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2.574901130889746</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.226116794300587</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1487815529108047</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2.555641463934388</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.244767431885809</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1560036987066269</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2.557393302595571</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.267659713947305</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1452352255582809</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2.538049783774034</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.254552080052054</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1487825959920883</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2.549114789799818</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.292822019339593</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.164381742477417</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2.561948359678974</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.296485624194113</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1688457131385803</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2.557350371901312</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.318913841159995</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1699466705322266</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.566158178783557</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3.323667919905202</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1906462460756302</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2.582279333901406</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.333308148071499</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1995838284492493</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.597224217611624</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3.33711197938213</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.2069188505411148</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2.607083379051532</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.351785469801623</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.2039496302604675</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2.617409748683289</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3.36195154636417</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2038428485393524</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2.631044241181134</v>
+      </c>
+      <c r="B326" t="n">
+        <v>3.373257681160923</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1883081495761871</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2.640477943738868</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3.384449243650316</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1868055164813995</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2.649285105205825</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3.391251994402473</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1783086955547333</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>2.65809611571484</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.402528834282599</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.167580783367157</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2.665096392895611</v>
+      </c>
+      <c r="B330" t="n">
+        <v>3.41245735487759</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1656578779220581</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2.675116435751276</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.423216228614896</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1700082421302795</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2.686071962934526</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.433201101612487</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1674841940402985</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2.6969708273143</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3.445734458030441</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1672893613576889</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2.706254143743275</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.455262226511855</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1603706628084183</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2.71498671143769</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.46668975473827</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1673171520233154</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2.730083912281191</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.479149708222593</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1683054119348526</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2.740424205408299</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.489378690146424</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1742944568395615</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>2.755876027801894</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.501153799464918</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1782723218202591</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2.76707687007611</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3.510908508571537</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1916125863790512</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>2.78312370913102</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3.520081862813924</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1980765908956528</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>2.796341103104538</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3.528879283677043</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.2051484882831573</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2.810886846098175</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.538061770863633</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.2168672829866409</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2.824860966741755</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.545582275045589</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.21564581990242</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>2.838205414685735</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.555328986579724</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.2336074560880661</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2.851018501494357</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3.560661712717611</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.2384097874164581</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2.86509244397308</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.568439111578371</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.234782487154007</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>2.880844005359668</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.577301363615319</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2606853246688843</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2.8939765842176</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.581496661419742</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.2671596705913544</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2.907147542589794</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.588732583629263</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.2722529172897339</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.921001545105121</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3.595587509679633</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.284530371427536</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2.937373353619111</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.602393263265287</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2898558080196381</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>2.95042655786207</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.60840464197352</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.2858090400695801</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2.963131368338772</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.615578640696993</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.3030596077442169</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2.977602842855088</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.620700510733569</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.2999555170536041</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2.992936340483656</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.62778188877559</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.3187670707702637</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3.007319142723003</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3.632828076161305</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.3229223787784576</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3.021418126656816</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.639087040023426</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.3307086229324341</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3.035347164815913</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.644604515899029</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.3343373835086823</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3.051932973530284</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.651178310527457</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.3454215526580811</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3.065961935191337</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.656791886334884</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.351845771074295</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3.081204867360972</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.662557814587617</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.3612453937530518</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3.095633632619472</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.668244790748385</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.3608297109603882</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3.110487641574576</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.674250476684714</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.3694584369659424</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3.125539277176742</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.679783050343428</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.3794829249382019</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3.139058007458315</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.684983812099099</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.3814452290534973</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3.151423476734414</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3.68969885802709</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.391810804605484</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3.165911471697789</v>
+      </c>
+      <c r="B367" t="n">
+        <v>3.69505624959543</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.3845253586769104</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3.177817762695267</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3.699843063213848</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.3966021835803986</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3.196708234631961</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3.706864063463452</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.4022158682346344</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3.208019185594947</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.711112950884318</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.3978022336959839</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3.222255528251697</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.716652721618999</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.4152588844299316</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3.235848677975589</v>
+      </c>
+      <c r="B372" t="n">
+        <v>3.721537620028356</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.4148110747337341</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3.249712138284735</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3.726769966951824</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.4175858199596405</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3.265816114937667</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.732795955050954</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.432650089263916</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3.279778969725661</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.737835372889058</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.4371514916419983</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3.293928422189707</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.74308612461764</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.4325625896453857</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3.308123062245615</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.74839340819141</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4494005739688873</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3.319374380799628</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.75241285229432</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4532321393489838</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3.337483371612456</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.759095677025551</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4654733240604401</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3.349216250648268</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.763378190935474</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.4774680435657501</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3.363526023207729</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.768562243695197</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.4683449566364288</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3.377524115979188</v>
+      </c>
+      <c r="B382" t="n">
+        <v>3.77375956134189</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4895136654376984</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3.391636553478879</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.778826364859757</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.4910077750682831</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3.405646924629171</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.783958138779863</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5074825882911682</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3.421327022162904</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.789681688940603</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5013313889503479</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>3.435437168078906</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.794847671052651</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5151546597480774</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3.44975505502894</v>
+      </c>
+      <c r="B387" t="n">
+        <v>3.800029732664255</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.5206065773963928</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3.464192570662428</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3.805283430546726</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5233245491981506</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3.478696721584944</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.810564341863564</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5440800189971924</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>3.493180043150801</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3.815820639904495</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5576338768005371</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>3.507026094737188</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3.820872719944193</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.5434992909431458</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>3.520686322438469</v>
+      </c>
+      <c r="B392" t="n">
+        <v>3.825955606378312</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5685421824455261</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.534929781420842</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.831108850754429</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.5881844758987427</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>3.549394987502579</v>
+      </c>
+      <c r="B394" t="n">
+        <v>3.836351705170029</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5898569822311401</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>3.56389091202714</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3.841614128731483</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6055282950401306</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>3.575886251117178</v>
+      </c>
+      <c r="B396" t="n">
+        <v>3.845967551361989</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.610929012298584</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>3.590345095358617</v>
+      </c>
+      <c r="B397" t="n">
+        <v>3.851216547947631</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6147439479827881</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.608221739657856</v>
+      </c>
+      <c r="B398" t="n">
+        <v>3.857754664893847</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.627811074256897</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>3.622190938272754</v>
+      </c>
+      <c r="B399" t="n">
+        <v>3.862862676344198</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6433349847793579</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.632110983048429</v>
+      </c>
+      <c r="B400" t="n">
+        <v>3.866447295240379</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6498809456825256</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3.646613693310504</v>
+      </c>
+      <c r="B401" t="n">
+        <v>3.871704630475097</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.6646720767021179</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>3.662911153420939</v>
+      </c>
+      <c r="B402" t="n">
+        <v>3.877621119740162</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.6784228086471558</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>3.677170882540608</v>
+      </c>
+      <c r="B403" t="n">
+        <v>3.882802852078245</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.6903728246688843</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>3.691440641960953</v>
+      </c>
+      <c r="B404" t="n">
+        <v>3.887994931754524</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.7041669487953186</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>3.705126097989279</v>
+      </c>
+      <c r="B405" t="n">
+        <v>3.892996122410215</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.7056438326835632</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>3.719221395481155</v>
+      </c>
+      <c r="B406" t="n">
+        <v>3.898134972307891</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7226822376251221</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>3.733117342473061</v>
+      </c>
+      <c r="B407" t="n">
+        <v>3.903174170689507</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.7375687956809998</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>3.747115333493777</v>
+      </c>
+      <c r="B408" t="n">
+        <v>3.908251384767328</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.7436674237251282</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>3.761171121728078</v>
+      </c>
+      <c r="B409" t="n">
+        <v>3.913349697659625</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7523484826087952</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>3.77526038339406</v>
+      </c>
+      <c r="B410" t="n">
+        <v>3.918458526169915</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.7714612483978271</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3.789136876539143</v>
+      </c>
+      <c r="B411" t="n">
+        <v>3.923493553250698</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7893363833427429</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3.804847503951766</v>
+      </c>
+      <c r="B412" t="n">
+        <v>3.929252009493515</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.79367595911026</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>3.818749719184598</v>
+      </c>
+      <c r="B413" t="n">
+        <v>3.93428905760598</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.8043014407157898</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>3.833175735818497</v>
+      </c>
+      <c r="B414" t="n">
+        <v>3.939507976553642</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.8305835723876953</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>3.847676326141904</v>
+      </c>
+      <c r="B415" t="n">
+        <v>3.944760988573616</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.8353815674781799</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>3.862222264001742</v>
+      </c>
+      <c r="B416" t="n">
+        <v>3.950036139196184</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.8618088960647583</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>3.878952376150879</v>
+      </c>
+      <c r="B417" t="n">
+        <v>3.956104029013783</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.859289824962616</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>3.890291314260685</v>
+      </c>
+      <c r="B418" t="n">
+        <v>3.960239590585553</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.8703143000602722</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>3.902131667528371</v>
+      </c>
+      <c r="B419" t="n">
+        <v>3.964615133168873</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.8965001106262207</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>3.918714062559807</v>
+      </c>
+      <c r="B420" t="n">
+        <v>3.970629764000835</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.8923096656799316</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>3.932891368065656</v>
+      </c>
+      <c r="B421" t="n">
+        <v>3.975748447228463</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.9056553244590759</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3.947398311815462</v>
+      </c>
+      <c r="B422" t="n">
+        <v>3.980986071962841</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.9315143227577209</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3.96185435669853</v>
+      </c>
+      <c r="B423" t="n">
+        <v>3.986211316838646</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.9419331550598145</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.978112983674607</v>
+      </c>
+      <c r="B424" t="n">
+        <v>3.992091697633222</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.9507455825805664</v>
       </c>
     </row>
   </sheetData>

--- a/data/result1 traditional, without sampling.xlsx
+++ b/data/result1 traditional, without sampling.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,4655 +440,8164 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05411462374251953</v>
+        <v>-0.04513981247407471</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05468586021316068</v>
+        <v>0.06885301893319534</v>
       </c>
       <c r="C2" t="n">
-        <v>1.087479591369629</v>
+        <v>1.38056218624115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05530630289948735</v>
+        <v>0.06051649634622103</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05589537184043583</v>
+        <v>0.06077570788468069</v>
       </c>
       <c r="C3" t="n">
-        <v>1.084986090660095</v>
+        <v>1.363062620162964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06823534612377478</v>
+        <v>0.06948685605087665</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06886556302353478</v>
+        <v>0.0746589658655312</v>
       </c>
       <c r="C4" t="n">
-        <v>1.073050856590271</v>
+        <v>1.34151303768158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07892156979833748</v>
+        <v>0.07908703333660233</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07953847184264629</v>
+        <v>0.09402070479146157</v>
       </c>
       <c r="C5" t="n">
-        <v>1.046521782875061</v>
+        <v>1.311050415039062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08932452660922116</v>
+        <v>0.09385046221814</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08991303072443088</v>
+        <v>0.1162528244004973</v>
       </c>
       <c r="C6" t="n">
-        <v>1.029045939445496</v>
+        <v>1.29111647605896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.09968780405922315</v>
+        <v>0.1045758476252226</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1002387677191057</v>
+        <v>0.1263225301475618</v>
       </c>
       <c r="C7" t="n">
-        <v>1.028046011924744</v>
+        <v>1.288070440292358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.110346821590474</v>
+        <v>0.1126329897230738</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1108847522915939</v>
+        <v>0.13290481283701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999605417251587</v>
+        <v>1.281421303749084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1211424886172583</v>
+        <v>0.122726307578336</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1216872646920721</v>
+        <v>0.1420809219635534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9823257327079773</v>
+        <v>1.268790364265442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1316646982534714</v>
+        <v>0.1335271624297713</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1322151658160498</v>
+        <v>0.1526772521487717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9541159272193909</v>
+        <v>1.247635841369629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1442943340819917</v>
+        <v>0.1438841866568509</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1448415511925507</v>
+        <v>0.1631091043183316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9514939188957214</v>
+        <v>1.230158448219299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1553175161463765</v>
+        <v>0.1566371980850445</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1558448606894899</v>
+        <v>0.1760157607460911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9290969967842102</v>
+        <v>1.209194660186768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1636710143329908</v>
+        <v>0.1668725465659436</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1641803633520094</v>
+        <v>0.1862424303433966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9144577980041504</v>
+        <v>1.202094793319702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.176092106211203</v>
+        <v>0.1773457432695594</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1765951972093215</v>
+        <v>0.196715294724323</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9169455766677856</v>
+        <v>1.182031154632568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.186671017666871</v>
+        <v>0.1881849308006589</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1871798980261415</v>
+        <v>0.2073201844395953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8844980001449585</v>
+        <v>1.169716596603394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1978106002877136</v>
+        <v>0.1989521666692652</v>
       </c>
       <c r="B16" t="n">
-        <v>0.198321945763043</v>
+        <v>0.2179767488435638</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8518864512443542</v>
+        <v>1.1684889793396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2087527621375672</v>
+        <v>0.2099026378822929</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2092629779731632</v>
+        <v>0.22887242668388</v>
       </c>
       <c r="C17" t="n">
-        <v>0.850963830947876</v>
+        <v>1.134371995925903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2195981527877361</v>
+        <v>0.2207646936370836</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2201002814539052</v>
+        <v>0.2396794619084239</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8310118913650513</v>
+        <v>1.133811354637146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2284691326337756</v>
+        <v>0.2315496787079389</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2289575626436139</v>
+        <v>0.2504154532321052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8220090270042419</v>
+        <v>1.118455410003662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2389986710156477</v>
+        <v>0.2423915012032908</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2394433731558652</v>
+        <v>0.2612330578379374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8127562999725342</v>
+        <v>1.092082619667053</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2511584624213802</v>
+        <v>0.2529212599417797</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2515963758777287</v>
+        <v>0.2717342783749844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7998034954071045</v>
+        <v>1.070887327194214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2617762791811605</v>
+        <v>0.2637583475480442</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2622220495516732</v>
+        <v>0.2824377712294027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.776297390460968</v>
+        <v>1.064589858055115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2727002923386089</v>
+        <v>0.2745492960251378</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2731456652067013</v>
+        <v>0.2931447588758487</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7649694681167603</v>
+        <v>1.051169514656067</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2837089775041628</v>
+        <v>0.2837117694747582</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2841469971827868</v>
+        <v>0.3022569872502094</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7466905117034912</v>
+        <v>1.038944959640503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2963959565331997</v>
+        <v>0.2945392744527018</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2968072754603063</v>
+        <v>0.3130230450883708</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7411891222000122</v>
+        <v>1.017237067222595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3064536004262522</v>
+        <v>0.3067083765749522</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3068328935813436</v>
+        <v>0.325143931849262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.723895251750946</v>
+        <v>1.011512756347656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3173873220613437</v>
+        <v>0.3170814584499232</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3177407272781987</v>
+        <v>0.3355427749889179</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6878852844238281</v>
+        <v>0.9883161187171936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3265142967522597</v>
+        <v>0.3276632589856288</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3268729350937356</v>
+        <v>0.3460088470015664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6890268921852112</v>
+        <v>0.9829997420310974</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3374536207709696</v>
+        <v>0.3383699978583443</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3378215459914426</v>
+        <v>0.3566151917767584</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6734886765480042</v>
+        <v>0.9600901007652283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3484049218800567</v>
+        <v>0.3492638210940897</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3487756981384717</v>
+        <v>0.367443408087904</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6589264273643494</v>
+        <v>0.9458560943603516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3608934220040073</v>
+        <v>0.3602106070697415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3612589047748013</v>
+        <v>0.3783282652739469</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6393781900405884</v>
+        <v>0.9255374670028687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3716045367193745</v>
+        <v>0.3710638871378534</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3719509971713577</v>
+        <v>0.3891233589080441</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6324756145477295</v>
+        <v>0.9093033075332642</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3821969197587656</v>
+        <v>0.3813673465430617</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3825471486390757</v>
+        <v>0.3994208796635762</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6008092164993286</v>
+        <v>0.9021662473678589</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3928652035913159</v>
+        <v>0.3933452096912268</v>
       </c>
       <c r="B34" t="n">
-        <v>0.393243490810745</v>
+        <v>0.4114326361127069</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5873982310295105</v>
+        <v>0.8864625692367554</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4036900046401021</v>
+        <v>0.4041628525171982</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404078233136927</v>
+        <v>0.4220677468923013</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5766097903251648</v>
+        <v>0.8770337700843811</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4146587451405473</v>
+        <v>0.4152912112522654</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4150479539553888</v>
+        <v>0.4330864223049997</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5596125721931458</v>
+        <v>0.859114408493042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4237128029451647</v>
+        <v>0.4243636115835083</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4240972656918185</v>
+        <v>0.4420981936278593</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5395265221595764</v>
+        <v>0.8426375985145569</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4345798391255829</v>
+        <v>0.4370800699451741</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4349557485338387</v>
+        <v>0.4547430234511016</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5271680951118469</v>
+        <v>0.8219653964042664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4449003442014746</v>
+        <v>0.4475325506238308</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4452585702742313</v>
+        <v>0.4651611367700633</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5258294939994812</v>
+        <v>0.8108499646186829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.456867056877838</v>
+        <v>0.4562839234089309</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4571254781350307</v>
+        <v>0.4739486977113497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5093901753425598</v>
+        <v>0.8006499409675598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4674863345880005</v>
+        <v>0.466890498072802</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4677370406437808</v>
+        <v>0.4845134380954303</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490056961774826</v>
+        <v>0.782316267490387</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4783111202807483</v>
+        <v>0.4773707861711633</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4785792097256258</v>
+        <v>0.4949069759345643</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4773334860801697</v>
+        <v>0.7667865753173828</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4891774297404142</v>
+        <v>0.489676698183491</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4894492032553517</v>
+        <v>0.5071453126733801</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4550333023071289</v>
+        <v>0.7413281202316284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5000187094645795</v>
+        <v>0.5004320849337528</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5002851397092154</v>
+        <v>0.5178435493209375</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4339863359928131</v>
+        <v>0.7260110378265381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.512429512424333</v>
+        <v>0.5113229903929341</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5126714898527935</v>
+        <v>0.5286833938557102</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4339016079902649</v>
+        <v>0.716408908367157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5206524126582428</v>
+        <v>0.5217825809583976</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5208725105018788</v>
+        <v>0.5391322809405346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.421681821346283</v>
+        <v>0.7048759460449219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.5293292527857854</v>
+        <v>0.5321005747129128</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5295242538374609</v>
+        <v>0.54949805187972</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3994844555854797</v>
+        <v>0.6927030086517334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5431125289035146</v>
+        <v>0.5425702644212484</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5433478440810338</v>
+        <v>0.5598044887107408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3712188303470612</v>
+        <v>0.6787372827529907</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5517201112675392</v>
+        <v>0.5551003915203488</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5518879462832633</v>
+        <v>0.5722118129092235</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3712685108184814</v>
+        <v>0.6655640006065369</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5624266844476367</v>
+        <v>0.5643875524900692</v>
       </c>
       <c r="B50" t="n">
-        <v>0.56264717830629</v>
+        <v>0.5814440523914329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3545831739902496</v>
+        <v>0.6418014764785767</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5725383808580795</v>
+        <v>0.5754217921812131</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5728756533965783</v>
+        <v>0.5924086275101159</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3426969349384308</v>
+        <v>0.6335087418556213</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5843729170051685</v>
+        <v>0.5862457371094214</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5845384755200084</v>
+        <v>0.6031747036066936</v>
       </c>
       <c r="C52" t="n">
-        <v>0.322519987821579</v>
+        <v>0.60560542345047</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5932838488722018</v>
+        <v>0.5966005977848801</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5933529958543715</v>
+        <v>0.6135210774414761</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3036507368087769</v>
+        <v>0.5830690860748291</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6025760409655947</v>
+        <v>0.6068159088708961</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6028429202164927</v>
+        <v>0.6237793187698611</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2986597120761871</v>
+        <v>0.5750736594200134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6124700649919</v>
+        <v>0.6174675246411776</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6130607552566979</v>
+        <v>0.6342346542206874</v>
       </c>
       <c r="C55" t="n">
-        <v>0.281755805015564</v>
+        <v>0.5575394034385681</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6201534024990464</v>
+        <v>0.6282426904762751</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6202030557443504</v>
+        <v>0.6449248569083198</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2617132365703583</v>
+        <v>0.5320904850959778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6296358272758694</v>
+        <v>0.6392029362182481</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6302105643447962</v>
+        <v>0.655816651858561</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2486857175827026</v>
+        <v>0.5178968906402588</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.6381966467158113</v>
+        <v>0.6500306046163167</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6384782721829304</v>
+        <v>0.6666080207980047</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2352311909198761</v>
+        <v>0.4958076179027557</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6458469485078555</v>
+        <v>0.6589948000875474</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6461342709296914</v>
+        <v>0.6755250616093642</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2225642502307892</v>
+        <v>0.4909042418003082</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6524664114896732</v>
+        <v>0.6712125554512525</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6532246879256907</v>
+        <v>0.6877196139429107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2122730761766434</v>
+        <v>0.4795755743980408</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6314378814437019</v>
+        <v>0.681069111052683</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6722915304801259</v>
+        <v>0.6975754662267077</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1949636489152908</v>
+        <v>0.4569940268993378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.620788140770659</v>
+        <v>0.6915088664394548</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6786082823225327</v>
+        <v>0.707888218503813</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1866945177316666</v>
+        <v>0.4398002028465271</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6111054803224381</v>
+        <v>0.7018862276486517</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6810438220949443</v>
+        <v>0.718248059856051</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1789853572845459</v>
+        <v>0.4250549077987671</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.6154768753178594</v>
+        <v>0.7123257512264307</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6850865934440555</v>
+        <v>0.7285974909127568</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1674960255622864</v>
+        <v>0.4150615334510803</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6033930451841669</v>
+        <v>0.7227627188050739</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6802576792931986</v>
+        <v>0.7390098017998272</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1558736264705658</v>
+        <v>0.4068614542484283</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5868147922758776</v>
+        <v>0.7331622932808888</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6746648094162474</v>
+        <v>0.7493190252091224</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1355340927839279</v>
+        <v>0.3903635442256927</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.580637376972852</v>
+        <v>0.7432058603410081</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6755563937659792</v>
+        <v>0.7593349477382854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1328095495700836</v>
+        <v>0.3816616237163544</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5723199369044989</v>
+        <v>0.7551654397821245</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6813264536644617</v>
+        <v>0.7709036592487232</v>
       </c>
       <c r="C68" t="n">
-        <v>0.119999997317791</v>
+        <v>0.3565305769443512</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5537173182997046</v>
+        <v>0.764474541040685</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6705760385305747</v>
+        <v>0.7810338814622502</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1277335435152054</v>
+        <v>0.3435874581336975</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5510745963979607</v>
+        <v>0.7746045214296826</v>
       </c>
       <c r="B70" t="n">
-        <v>0.709826747690232</v>
+        <v>0.7909563563693066</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1435911059379578</v>
+        <v>0.3262623250484467</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5525353610116353</v>
+        <v>0.7847371908798619</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7297984895966573</v>
+        <v>0.8004127794406082</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1549820154905319</v>
+        <v>0.3169458210468292</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.544636668050913</v>
+        <v>0.795083691402667</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7387198067732597</v>
+        <v>0.8099255779499417</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1627956479787827</v>
+        <v>0.2998614907264709</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5536792298240812</v>
+        <v>0.8037575340752406</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7532320136724032</v>
+        <v>0.8193437701253221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1757572293281555</v>
+        <v>0.2874990105628967</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5485615674795977</v>
+        <v>0.812557734510531</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7676725798122604</v>
+        <v>0.8283451852360305</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1878531873226166</v>
+        <v>0.2806721925735474</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5617152466075311</v>
+        <v>0.8216294051374083</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7844144224441655</v>
+        <v>0.837237167670921</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1763936281204224</v>
+        <v>0.262796550989151</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5565113611600803</v>
+        <v>0.8306429279975724</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7984099540443963</v>
+        <v>0.8444963074030715</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1835603266954422</v>
+        <v>0.2475325018167496</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5729440986845793</v>
+        <v>0.8360741038617699</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8061822695688607</v>
+        <v>0.8554174099415477</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1906196475028992</v>
+        <v>0.2342601269483566</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5625738496124888</v>
+        <v>0.8459618577437351</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8159176913095894</v>
+        <v>0.8601890991904507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1881789714097977</v>
+        <v>0.2205498516559601</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.589626309733057</v>
+        <v>0.8500265744546533</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8253578489386114</v>
+        <v>0.871589062363342</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1738607585430145</v>
+        <v>0.2038267105817795</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5783335654005128</v>
+        <v>0.8184025052866492</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8461656101908736</v>
+        <v>0.8890723098722377</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1717343777418137</v>
+        <v>0.195876806974411</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5805267479364297</v>
+        <v>0.824050702702977</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8571150845760502</v>
+        <v>0.8947373760080231</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1839611828327179</v>
+        <v>0.1710982322692871</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5737268781747317</v>
+        <v>0.8079462846625367</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8665329451482422</v>
+        <v>0.8933084490715369</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1688729226589203</v>
+        <v>0.1745457202196121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5714574419586151</v>
+        <v>0.8083004569029404</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8839414341724785</v>
+        <v>0.9031648467081834</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1624771356582642</v>
+        <v>0.1578926593065262</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.5557278044519348</v>
+        <v>0.7932109094049508</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8973092036228469</v>
+        <v>0.9002359787493802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1521821469068527</v>
+        <v>0.1486697047948837</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.5685886033110176</v>
+        <v>0.7872701017454617</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9104854325668094</v>
+        <v>0.8694796577182284</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159638836979866</v>
+        <v>0.1326614022254944</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5528761138884201</v>
+        <v>0.7743543805261338</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9188752372907474</v>
+        <v>0.8954039423006225</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1608206778764725</v>
+        <v>0.1477876007556915</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5660446384244731</v>
+        <v>0.76973416997786</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9292795613516615</v>
+        <v>0.9069213006053051</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148718386888504</v>
+        <v>0.1379998028278351</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5457609629127347</v>
+        <v>0.7659770252700913</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9377686019083017</v>
+        <v>0.9083686948071681</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162665843963623</v>
+        <v>0.1322451531887054</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.5627273862091683</v>
+        <v>0.7649616549294298</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9555325455845384</v>
+        <v>0.8902849938795343</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1745986342430115</v>
+        <v>0.1203925386071205</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.5660648359808867</v>
+        <v>0.7392614107973393</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9600750871382751</v>
+        <v>0.9028431505084324</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171058788895607</v>
+        <v>0.133453905582428</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5634263665915114</v>
+        <v>0.7360211501087778</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9772442466344036</v>
+        <v>0.9241897407939985</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1756820231676102</v>
+        <v>0.1431612074375153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.5661339197251806</v>
+        <v>0.7302594946761133</v>
       </c>
       <c r="B92" t="n">
-        <v>1.001181918307345</v>
+        <v>0.9251557034286251</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1711529940366745</v>
+        <v>0.1469400674104691</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.5644693623603207</v>
+        <v>0.7178278267370628</v>
       </c>
       <c r="B93" t="n">
-        <v>1.001626169752103</v>
+        <v>0.9345210985647743</v>
       </c>
       <c r="C93" t="n">
-        <v>0.172631248831749</v>
+        <v>0.1487003713846207</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.5659796495712531</v>
+        <v>0.7051760358503266</v>
       </c>
       <c r="B94" t="n">
-        <v>1.024148609789762</v>
+        <v>0.9418257287120168</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1702493280172348</v>
+        <v>0.1485484689474106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5655639640812742</v>
+        <v>0.7049612244508813</v>
       </c>
       <c r="B95" t="n">
-        <v>1.033411577285818</v>
+        <v>0.9546104923334903</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1579606235027313</v>
+        <v>0.1578995585441589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.5631559326206886</v>
+        <v>0.6988929521845764</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04630382770904</v>
+        <v>0.9582445522510021</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1667781919240952</v>
+        <v>0.1593668758869171</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.5659874095587375</v>
+        <v>0.6875550706447503</v>
       </c>
       <c r="B97" t="n">
-        <v>1.059905344276754</v>
+        <v>0.9669705968582666</v>
       </c>
       <c r="C97" t="n">
-        <v>0.161834716796875</v>
+        <v>0.1714702695608139</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.5650267967869391</v>
+        <v>0.6911331968249982</v>
       </c>
       <c r="B98" t="n">
-        <v>1.072310061485149</v>
+        <v>0.9685733349330362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1606492847204208</v>
+        <v>0.1659087389707565</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.5657493246633248</v>
+        <v>0.6865748669164261</v>
       </c>
       <c r="B99" t="n">
-        <v>1.092533464919398</v>
+        <v>0.9714650957708912</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1614375859498978</v>
+        <v>0.1696996241807938</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.565235119234752</v>
+        <v>0.6744017970561537</v>
       </c>
       <c r="B100" t="n">
-        <v>1.097067698190459</v>
+        <v>0.9840288950349797</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1664542406797409</v>
+        <v>0.167752593755722</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.5676491088317139</v>
+        <v>0.6781809122426101</v>
       </c>
       <c r="B101" t="n">
-        <v>1.11998308896903</v>
+        <v>1.001461918495928</v>
       </c>
       <c r="C101" t="n">
-        <v>0.170973464846611</v>
+        <v>0.1730378717184067</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5684029170510521</v>
+        <v>0.6719824572059661</v>
       </c>
       <c r="B102" t="n">
-        <v>1.119922577258647</v>
+        <v>1.009821622592996</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1661096215248108</v>
+        <v>0.170271247625351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.5822023399633492</v>
+        <v>0.6524240215501779</v>
       </c>
       <c r="B103" t="n">
-        <v>1.137093802821511</v>
+        <v>1.009192021772686</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160026490688324</v>
+        <v>0.1625637114048004</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.5670237857712082</v>
+        <v>0.6498471710166984</v>
       </c>
       <c r="B104" t="n">
-        <v>1.150521155384361</v>
+        <v>1.013046139496189</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1649685949087143</v>
+        <v>0.1728900671005249</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.5707973917101037</v>
+        <v>0.6480678896247596</v>
       </c>
       <c r="B105" t="n">
-        <v>1.170730879002972</v>
+        <v>1.021992811539175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1776463687419891</v>
+        <v>0.1625080555677414</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.5743646524171275</v>
+        <v>0.6378189911910596</v>
       </c>
       <c r="B106" t="n">
-        <v>1.162552537689389</v>
+        <v>1.028661519430227</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1695667505264282</v>
+        <v>0.1709920316934586</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.5732383134606351</v>
+        <v>0.6267573843307906</v>
       </c>
       <c r="B107" t="n">
-        <v>1.179801797391454</v>
+        <v>1.041125154489188</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1641474515199661</v>
+        <v>0.1644420772790909</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.5752331850246062</v>
+        <v>0.6220226274579674</v>
       </c>
       <c r="B108" t="n">
-        <v>1.204288773792267</v>
+        <v>1.04322927192339</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1625978946685791</v>
+        <v>0.1686055064201355</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.5588472470451629</v>
+        <v>0.617998654018881</v>
       </c>
       <c r="B109" t="n">
-        <v>1.203823101041119</v>
+        <v>1.049259119502325</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1678018718957901</v>
+        <v>0.1514776945114136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.5603088932012846</v>
+        <v>0.602167915110142</v>
       </c>
       <c r="B110" t="n">
-        <v>1.222569347447556</v>
+        <v>1.037999994481662</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1555938124656677</v>
+        <v>0.1684606373310089</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.5564613627104954</v>
+        <v>0.6038221314053022</v>
       </c>
       <c r="B111" t="n">
-        <v>1.228807766980851</v>
+        <v>1.064077234796822</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1576482802629471</v>
+        <v>0.1601053476333618</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.5548570759943844</v>
+        <v>0.5945246161053532</v>
       </c>
       <c r="B112" t="n">
-        <v>1.239319228056068</v>
+        <v>1.06876998178462</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1540267467498779</v>
+        <v>0.1659842282533646</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.5666096106450091</v>
+        <v>0.5880721027335309</v>
       </c>
       <c r="B113" t="n">
-        <v>1.261131008892594</v>
+        <v>1.075174076138519</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1653108596801758</v>
+        <v>0.1606219261884689</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.5667473720923341</v>
+        <v>0.5795036631551183</v>
       </c>
       <c r="B114" t="n">
-        <v>1.266197112884399</v>
+        <v>1.080028753160643</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1678896248340607</v>
+        <v>0.1752555519342422</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.5664742519724222</v>
+        <v>0.5858921286036584</v>
       </c>
       <c r="B115" t="n">
-        <v>1.27956203296262</v>
+        <v>1.101177823386536</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1701508015394211</v>
+        <v>0.1760377138853073</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.5816631477833792</v>
+        <v>0.5663414380168005</v>
       </c>
       <c r="B116" t="n">
-        <v>1.286260641818632</v>
+        <v>1.099281884944355</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1640843451023102</v>
+        <v>0.1753967851400375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.5838148268713116</v>
+        <v>0.5587949017276809</v>
       </c>
       <c r="B117" t="n">
-        <v>1.310254280242828</v>
+        <v>1.108946169821852</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1711537539958954</v>
+        <v>0.1821692436933517</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.5880664633851599</v>
+        <v>0.570413198721801</v>
       </c>
       <c r="B118" t="n">
-        <v>1.317546652164459</v>
+        <v>1.123079191686884</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1653775721788406</v>
+        <v>0.1697784513235092</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.5777732383263208</v>
+        <v>0.55563628028223</v>
       </c>
       <c r="B119" t="n">
-        <v>1.332821847989911</v>
+        <v>1.114623064097138</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1674714535474777</v>
+        <v>0.1721120178699493</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.5959066476342998</v>
+        <v>0.5389317647168709</v>
       </c>
       <c r="B120" t="n">
-        <v>1.342211663944148</v>
+        <v>1.134483980363293</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1597994714975357</v>
+        <v>0.1691329777240753</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.5809278389222163</v>
+        <v>0.5388531933797125</v>
       </c>
       <c r="B121" t="n">
-        <v>1.352027367571135</v>
+        <v>1.138022404985402</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1655138731002808</v>
+        <v>0.1647491604089737</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.5995314797072926</v>
+        <v>0.5294169930178537</v>
       </c>
       <c r="B122" t="n">
-        <v>1.364953052049424</v>
+        <v>1.152128327839784</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1606991589069366</v>
+        <v>0.1621011048555374</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.5998508892516179</v>
+        <v>0.5188727049843529</v>
       </c>
       <c r="B123" t="n">
-        <v>1.373565605802214</v>
+        <v>1.143050739646409</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172678604722023</v>
+        <v>0.1628057807683945</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6172024422737117</v>
+        <v>0.5077989643973548</v>
       </c>
       <c r="B124" t="n">
-        <v>1.377156647563121</v>
+        <v>1.152272053253739</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1719938814640045</v>
+        <v>0.1538657695055008</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6213551126660813</v>
+        <v>0.4997316709642954</v>
       </c>
       <c r="B125" t="n">
-        <v>1.391600877839177</v>
+        <v>1.156142742279239</v>
       </c>
       <c r="C125" t="n">
-        <v>0.179109513759613</v>
+        <v>0.1534042656421661</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.6304444799146929</v>
+        <v>0.4966500847157367</v>
       </c>
       <c r="B126" t="n">
-        <v>1.406234469304944</v>
+        <v>1.156513462331334</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1767547279596329</v>
+        <v>0.1459701806306839</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.6365791507373376</v>
+        <v>0.4773743124690893</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41713517867611</v>
+        <v>1.168580008148572</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1823583841323853</v>
+        <v>0.1531124114990234</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.6470949011048689</v>
+        <v>0.4807129717126747</v>
       </c>
       <c r="B128" t="n">
-        <v>1.431590938563934</v>
+        <v>1.163076890554885</v>
       </c>
       <c r="C128" t="n">
-        <v>0.18327496945858</v>
+        <v>0.1627346873283386</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6540306000331833</v>
+        <v>0.4746615763235303</v>
       </c>
       <c r="B129" t="n">
-        <v>1.446228448589856</v>
+        <v>1.186308509148903</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1725341081619263</v>
+        <v>0.1712075024843216</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6611840910196384</v>
+        <v>0.4625794480423402</v>
       </c>
       <c r="B130" t="n">
-        <v>1.458301480997181</v>
+        <v>1.176495829265338</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1895551979541779</v>
+        <v>0.1666401028633118</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.6734799782143199</v>
+        <v>0.4547353633213267</v>
       </c>
       <c r="B131" t="n">
-        <v>1.469420356219408</v>
+        <v>1.196698172559794</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1818866580724716</v>
+        <v>0.1755485236644745</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.6807209960522722</v>
+        <v>0.4493464741984012</v>
       </c>
       <c r="B132" t="n">
-        <v>1.483669940580558</v>
+        <v>1.202128676393246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1954034864902496</v>
+        <v>0.1802892833948135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.6929170652568594</v>
+        <v>0.4468530434658437</v>
       </c>
       <c r="B133" t="n">
-        <v>1.495641220505735</v>
+        <v>1.225620078737592</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1989836245775223</v>
+        <v>0.1901982575654984</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7034359626311735</v>
+        <v>0.4496552440518637</v>
       </c>
       <c r="B134" t="n">
-        <v>1.508902001477829</v>
+        <v>1.228064911897761</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1941814124584198</v>
+        <v>0.193406268954277</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.715201487898695</v>
+        <v>0.4431849491866955</v>
       </c>
       <c r="B135" t="n">
-        <v>1.525999101341214</v>
+        <v>1.240955964758607</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2193780988454819</v>
+        <v>0.1891159266233444</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7295416878723601</v>
+        <v>0.4383877166701918</v>
       </c>
       <c r="B136" t="n">
-        <v>1.535347388038775</v>
+        <v>1.250517928873335</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2282963842153549</v>
+        <v>0.1891119927167892</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7396485290374027</v>
+        <v>0.4376060349395708</v>
       </c>
       <c r="B137" t="n">
-        <v>1.546025092949288</v>
+        <v>1.259881623397904</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2243397980928421</v>
+        <v>0.1761148720979691</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7489948549983689</v>
+        <v>0.4198296146731903</v>
       </c>
       <c r="B138" t="n">
-        <v>1.558843333709193</v>
+        <v>1.257707109266837</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2401389479637146</v>
+        <v>0.1812160015106201</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7629704632075685</v>
+        <v>0.4312267675686485</v>
       </c>
       <c r="B139" t="n">
-        <v>1.568949083577993</v>
+        <v>1.276017828131017</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2533662617206573</v>
+        <v>0.1560726463794708</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7740844481988324</v>
+        <v>0.4039184510413184</v>
       </c>
       <c r="B140" t="n">
-        <v>1.579053317646821</v>
+        <v>1.253232809134715</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2566984593868256</v>
+        <v>0.1624884158372879</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.786370017003398</v>
+        <v>0.4084306560075261</v>
       </c>
       <c r="B141" t="n">
-        <v>1.590922601201857</v>
+        <v>1.277936105928538</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2656867802143097</v>
+        <v>0.1665867567062378</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7989320203584468</v>
+        <v>0.3958863283183898</v>
       </c>
       <c r="B142" t="n">
-        <v>1.601042096254054</v>
+        <v>1.274503855228373</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2750285267829895</v>
+        <v>0.1545010209083557</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8111040233691333</v>
+        <v>0.3947681495130928</v>
       </c>
       <c r="B143" t="n">
-        <v>1.611294659570384</v>
+        <v>1.273756598342265</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2854968011379242</v>
+        <v>0.1316030025482178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8227672951730959</v>
+        <v>0.3764173968296352</v>
       </c>
       <c r="B144" t="n">
-        <v>1.621164605837184</v>
+        <v>1.260337453228314</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2989379167556763</v>
+        <v>0.1269644647836685</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.8352330494845202</v>
+        <v>0.36434931609296</v>
       </c>
       <c r="B145" t="n">
-        <v>1.630381953258088</v>
+        <v>1.286446599162233</v>
       </c>
       <c r="C145" t="n">
-        <v>0.301283210515976</v>
+        <v>0.1528536528348923</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8468653011535016</v>
+        <v>0.3627378809267847</v>
       </c>
       <c r="B146" t="n">
-        <v>1.640729864418367</v>
+        <v>1.292913630910484</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3073276579380035</v>
+        <v>0.1510430872440338</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8573622056276927</v>
+        <v>0.3545540783496557</v>
       </c>
       <c r="B147" t="n">
-        <v>1.648913292962896</v>
+        <v>1.298226490574693</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3234817087650299</v>
+        <v>0.1490875482559204</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8694902943103366</v>
+        <v>0.3509920753640602</v>
       </c>
       <c r="B148" t="n">
-        <v>1.657837491655503</v>
+        <v>1.298074998029113</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3377794623374939</v>
+        <v>0.1586407124996185</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8827652370059113</v>
+        <v>0.3419743470883332</v>
       </c>
       <c r="B149" t="n">
-        <v>1.668413217189124</v>
+        <v>1.305386618286433</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3276328146457672</v>
+        <v>0.1562347561120987</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8951386279114477</v>
+        <v>0.3281474510073211</v>
       </c>
       <c r="B150" t="n">
-        <v>1.67889420654764</v>
+        <v>1.314360842445475</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3503216207027435</v>
+        <v>0.1619512438774109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9081986263907132</v>
+        <v>0.3233784639529673</v>
       </c>
       <c r="B151" t="n">
-        <v>1.687709737762878</v>
+        <v>1.317474171040953</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3632732629776001</v>
+        <v>0.167824849486351</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9213350798673845</v>
+        <v>0.3279580173231509</v>
       </c>
       <c r="B152" t="n">
-        <v>1.698104548584438</v>
+        <v>1.332141995149366</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3744184374809265</v>
+        <v>0.1621668487787247</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9323192565487022</v>
+        <v>0.3099869416539027</v>
       </c>
       <c r="B153" t="n">
-        <v>1.706015168692945</v>
+        <v>1.322737414823499</v>
       </c>
       <c r="C153" t="n">
-        <v>0.383877694606781</v>
+        <v>0.1688118875026703</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9425238713991348</v>
+        <v>0.306367733630343</v>
       </c>
       <c r="B154" t="n">
-        <v>1.713673225656458</v>
+        <v>1.347840793025251</v>
       </c>
       <c r="C154" t="n">
-        <v>0.390158087015152</v>
+        <v>0.1776517927646637</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.9560954818828087</v>
+        <v>0.3008955926390797</v>
       </c>
       <c r="B155" t="n">
-        <v>1.72435541297631</v>
+        <v>1.356699396573166</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3956266641616821</v>
+        <v>0.1727716475725174</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.9681940639709802</v>
+        <v>0.2957336065270799</v>
       </c>
       <c r="B156" t="n">
-        <v>1.733488043976568</v>
+        <v>1.360615250275705</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4006073772907257</v>
+        <v>0.1827185302972794</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.9803853486487085</v>
+        <v>0.3029872192707247</v>
       </c>
       <c r="B157" t="n">
-        <v>1.742742987229802</v>
+        <v>1.379019389409943</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4236874878406525</v>
+        <v>0.1931930333375931</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.9920327246737223</v>
+        <v>0.3000369585106271</v>
       </c>
       <c r="B158" t="n">
-        <v>1.751257810168496</v>
+        <v>1.387467652865263</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4250065386295319</v>
+        <v>0.1942664682865143</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.004200606776506</v>
+        <v>0.2931440448169057</v>
       </c>
       <c r="B159" t="n">
-        <v>1.760408748343057</v>
+        <v>1.402590405440209</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4316243231296539</v>
+        <v>0.1857877969741821</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.01636001944247</v>
+        <v>0.292885411741807</v>
       </c>
       <c r="B160" t="n">
-        <v>1.769533451435845</v>
+        <v>1.403995333100003</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4544770419597626</v>
+        <v>0.1816153973340988</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.029949948149365</v>
+        <v>0.288315589299187</v>
       </c>
       <c r="B161" t="n">
-        <v>1.779690460445364</v>
+        <v>1.412823441345296</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4560141563415527</v>
+        <v>0.1811652630567551</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.042214169612313</v>
+        <v>0.2776014782354176</v>
       </c>
       <c r="B162" t="n">
-        <v>1.789111523178367</v>
+        <v>1.407868039597607</v>
       </c>
       <c r="C162" t="n">
-        <v>0.462966114282608</v>
+        <v>0.1765834540128708</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.054403482986723</v>
+        <v>0.2757055225535972</v>
       </c>
       <c r="B163" t="n">
-        <v>1.798303548850579</v>
+        <v>1.417023736802174</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4681863784790039</v>
+        <v>0.1618023067712784</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.064587634886474</v>
+        <v>0.2554548742423361</v>
       </c>
       <c r="B164" t="n">
-        <v>1.805886651970849</v>
+        <v>1.41324721350815</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4933629035949707</v>
+        <v>0.1564821302890778</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.078795543481289</v>
+        <v>0.2456092519869583</v>
       </c>
       <c r="B165" t="n">
-        <v>1.816444730979248</v>
+        <v>1.423860207584662</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4911266267299652</v>
+        <v>0.1466670483350754</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.090797084486313</v>
+        <v>0.2479256444077412</v>
       </c>
       <c r="B166" t="n">
-        <v>1.825411606346904</v>
+        <v>1.41712597048975</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5042151212692261</v>
+        <v>0.1500783413648605</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.102891473589876</v>
+        <v>0.2309560479523625</v>
       </c>
       <c r="B167" t="n">
-        <v>1.834442886612802</v>
+        <v>1.411827708659412</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5175715088844299</v>
+        <v>0.1446911245584488</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.112762488945411</v>
+        <v>0.2250240345324678</v>
       </c>
       <c r="B168" t="n">
-        <v>1.841825103240231</v>
+        <v>1.412450538553307</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5169749855995178</v>
+        <v>0.1398787051439285</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.124903818650816</v>
+        <v>0.2141638103334604</v>
       </c>
       <c r="B169" t="n">
-        <v>1.850999847352651</v>
+        <v>1.414440388854688</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5245252847671509</v>
+        <v>0.1450645476579666</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.136801589630925</v>
+        <v>0.2126980363193939</v>
       </c>
       <c r="B170" t="n">
-        <v>1.859910387352519</v>
+        <v>1.429682610379579</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5418604612350464</v>
+        <v>0.1464099586009979</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.148676412807654</v>
+        <v>0.1963373958580446</v>
       </c>
       <c r="B171" t="n">
-        <v>1.868783541153136</v>
+        <v>1.41512157197769</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5394228100776672</v>
+        <v>0.1589661538600922</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.16252009752107</v>
+        <v>0.1946780067444265</v>
       </c>
       <c r="B172" t="n">
-        <v>1.879108772131498</v>
+        <v>1.459025676658225</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5500180125236511</v>
+        <v>0.174956813454628</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.174632995512897</v>
+        <v>0.1847342716605036</v>
       </c>
       <c r="B173" t="n">
-        <v>1.888120255844667</v>
+        <v>1.464013619110285</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5502848625183105</v>
+        <v>0.178135022521019</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.186488447459977</v>
+        <v>0.1915524698745512</v>
       </c>
       <c r="B174" t="n">
-        <v>1.897003856366669</v>
+        <v>1.474861040401242</v>
       </c>
       <c r="C174" t="n">
-        <v>0.570048451423645</v>
+        <v>0.1894486993551254</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.198329389425158</v>
+        <v>0.1841648655486561</v>
       </c>
       <c r="B175" t="n">
-        <v>1.905964060514298</v>
+        <v>1.486847710863812</v>
       </c>
       <c r="C175" t="n">
-        <v>0.5772034525871277</v>
+        <v>0.2013758420944214</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.210472406580837</v>
+        <v>0.1991387085628744</v>
       </c>
       <c r="B176" t="n">
-        <v>1.915089837277359</v>
+        <v>1.498064124639129</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5803671479225159</v>
+        <v>0.1931539624929428</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.222686540750916</v>
+        <v>0.1932765150322198</v>
       </c>
       <c r="B177" t="n">
-        <v>1.924233992762375</v>
+        <v>1.510534505076873</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6042999029159546</v>
+        <v>0.2030308097600937</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.234655046272585</v>
+        <v>0.1972852554258479</v>
       </c>
       <c r="B178" t="n">
-        <v>1.933137870322447</v>
+        <v>1.520585155450454</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6151875853538513</v>
+        <v>0.1892356425523758</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.246735667675048</v>
+        <v>0.1822423070597499</v>
       </c>
       <c r="B179" t="n">
-        <v>1.942009851943099</v>
+        <v>1.519014547713698</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6221309900283813</v>
+        <v>0.1896056979894638</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.258909679246947</v>
+        <v>0.184977127396319</v>
       </c>
       <c r="B180" t="n">
-        <v>1.951050771019725</v>
+        <v>1.523866986772522</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6241821646690369</v>
+        <v>0.1894180178642273</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.272377484483816</v>
+        <v>0.1741703351887646</v>
       </c>
       <c r="B181" t="n">
-        <v>1.961214627224629</v>
+        <v>1.520468546540822</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6377547979354858</v>
+        <v>0.1779085546731949</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.284796852780427</v>
+        <v>0.1691682431371204</v>
       </c>
       <c r="B182" t="n">
-        <v>1.970648065353435</v>
+        <v>1.527879704114745</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6515179872512817</v>
+        <v>0.1669865846633911</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.297338617990041</v>
+        <v>0.1591756857715209</v>
       </c>
       <c r="B183" t="n">
-        <v>1.980070189997578</v>
+        <v>1.518252891919891</v>
       </c>
       <c r="C183" t="n">
-        <v>0.6571747660636902</v>
+        <v>0.1570042073726654</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.309521324238014</v>
+        <v>0.1459063529448335</v>
       </c>
       <c r="B184" t="n">
-        <v>1.989162625940508</v>
+        <v>1.528031207388832</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6539283990859985</v>
+        <v>0.1519116163253784</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.32166549758876</v>
+        <v>0.13711167943876</v>
       </c>
       <c r="B185" t="n">
-        <v>1.998165726559902</v>
+        <v>1.514616916027728</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6282263994216919</v>
+        <v>0.151727706193924</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.333876528979888</v>
+        <v>0.128634545634677</v>
       </c>
       <c r="B186" t="n">
-        <v>2.007209779423723</v>
+        <v>1.537630299279793</v>
       </c>
       <c r="C186" t="n">
-        <v>0.637629508972168</v>
+        <v>0.1388581395149231</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.345751990941037</v>
+        <v>0.1160937850860546</v>
       </c>
       <c r="B187" t="n">
-        <v>2.016095310829436</v>
+        <v>1.522987353638821</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6245425939559937</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.357650800035771</v>
+        <v>0.1084320312420536</v>
       </c>
       <c r="B188" t="n">
-        <v>2.025086449923736</v>
+        <v>1.50284772435517</v>
       </c>
       <c r="C188" t="n">
-        <v>0.6331244707107544</v>
+        <v>0.139177680015564</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.369850222925535</v>
+        <v>0.1094411373723431</v>
       </c>
       <c r="B189" t="n">
-        <v>2.034256413522158</v>
+        <v>1.521480149948255</v>
       </c>
       <c r="C189" t="n">
-        <v>0.6154735088348389</v>
+        <v>0.1508933901786804</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.382130880102624</v>
+        <v>0.1029019264109308</v>
       </c>
       <c r="B190" t="n">
-        <v>2.043444875617228</v>
+        <v>1.541989715849011</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5962212085723877</v>
+        <v>0.1463024318218231</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.394142483644514</v>
+        <v>0.09475780321262466</v>
       </c>
       <c r="B191" t="n">
-        <v>2.05237915833512</v>
+        <v>1.534691064777133</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5947719216346741</v>
+        <v>0.1656213998794556</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.406175504976865</v>
+        <v>0.1056683827899253</v>
       </c>
       <c r="B192" t="n">
-        <v>2.061224230108308</v>
+        <v>1.539174597728199</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5821582674980164</v>
+        <v>0.1722729206085205</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.420383971052021</v>
+        <v>0.1032350035432296</v>
       </c>
       <c r="B193" t="n">
-        <v>2.071783875799979</v>
+        <v>1.531731044486945</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5795467495918274</v>
+        <v>0.1851057261228561</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.432045265883781</v>
+        <v>0.1156231617488809</v>
       </c>
       <c r="B194" t="n">
-        <v>2.080581295279568</v>
+        <v>1.531898998322295</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5579993724822998</v>
+        <v>0.1933612525463104</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.442458426004829</v>
+        <v>0.1180566673671528</v>
       </c>
       <c r="B195" t="n">
-        <v>2.08849994412262</v>
+        <v>1.525105219827935</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5525121688842773</v>
+        <v>0.2167302519083023</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.454852903742223</v>
+        <v>0.1550770269765664</v>
       </c>
       <c r="B196" t="n">
-        <v>2.097814869608325</v>
+        <v>1.517995078298029</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5497735738754272</v>
+        <v>0.2158381044864655</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.467115731179308</v>
+        <v>0.1614035894418031</v>
       </c>
       <c r="B197" t="n">
-        <v>2.106970943397615</v>
+        <v>1.510064107493941</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5379741191864014</v>
+        <v>0.2265478670597076</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.477027733023147</v>
+        <v>0.1946509983088241</v>
       </c>
       <c r="B198" t="n">
-        <v>2.114344637120098</v>
+        <v>1.486972912581358</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5293813347816467</v>
+        <v>0.2300642877817154</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.49111279928296</v>
+        <v>0.209265499538867</v>
       </c>
       <c r="B199" t="n">
-        <v>2.124728331203583</v>
+        <v>1.479906289622886</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5143483877182007</v>
+        <v>0.2245050072669983</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.502988585183244</v>
+        <v>0.2181691661150696</v>
       </c>
       <c r="B200" t="n">
-        <v>2.133557760965819</v>
+        <v>1.481003095061066</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5119661092758179</v>
+        <v>0.2183250337839127</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.514646888924037</v>
+        <v>0.228417986646935</v>
       </c>
       <c r="B201" t="n">
-        <v>2.142291281236753</v>
+        <v>1.481882139062628</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5004072785377502</v>
+        <v>0.2284216433763504</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.528795158136928</v>
+        <v>0.2343662181706855</v>
       </c>
       <c r="B202" t="n">
-        <v>2.152889372219913</v>
+        <v>1.491524896635363</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5019339919090271</v>
+        <v>0.2124336659908295</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.541290206569582</v>
+        <v>0.2049690512356705</v>
       </c>
       <c r="B203" t="n">
-        <v>2.16222032215509</v>
+        <v>1.510623129047676</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4931857287883759</v>
+        <v>0.1984793394804001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.553739238178382</v>
+        <v>0.1951709100575421</v>
       </c>
       <c r="B204" t="n">
-        <v>2.171463024440063</v>
+        <v>1.514154060814517</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4660141170024872</v>
+        <v>0.1912801712751389</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.565913134154427</v>
+        <v>0.1968734059196562</v>
       </c>
       <c r="B205" t="n">
-        <v>2.180345407643732</v>
+        <v>1.51888037430517</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4591783583164215</v>
+        <v>0.1784205436706543</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.57812502191266</v>
+        <v>0.1848132620256177</v>
       </c>
       <c r="B206" t="n">
-        <v>2.189339875385897</v>
+        <v>1.517119066052709</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4543994069099426</v>
+        <v>0.1619819849729538</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.590131281265091</v>
+        <v>0.1804566557610034</v>
       </c>
       <c r="B207" t="n">
-        <v>2.19827109282913</v>
+        <v>1.525807058499171</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4537086486816406</v>
+        <v>0.1480027884244919</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.600169841005392</v>
+        <v>0.1671245278392603</v>
       </c>
       <c r="B208" t="n">
-        <v>2.205796526270981</v>
+        <v>1.518985406729664</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4357891082763672</v>
+        <v>0.1474436372518539</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.614409935424973</v>
+        <v>0.1661728169317811</v>
       </c>
       <c r="B209" t="n">
-        <v>2.216304735541119</v>
+        <v>1.505899322308672</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4445919394493103</v>
+        <v>0.1344332098960876</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.626560633286914</v>
+        <v>0.1520122610807664</v>
       </c>
       <c r="B210" t="n">
-        <v>2.225361098703357</v>
+        <v>1.514475055580196</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4252032041549683</v>
+        <v>0.1325789093971252</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.638444989326613</v>
+        <v>0.1423428564003816</v>
       </c>
       <c r="B211" t="n">
-        <v>2.233856339314725</v>
+        <v>1.504343488151787</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4146986901760101</v>
+        <v>0.1465469002723694</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.648497218211405</v>
+        <v>0.1225332536705032</v>
       </c>
       <c r="B212" t="n">
-        <v>2.241005561518067</v>
+        <v>1.548095196095906</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4054535925388336</v>
+        <v>0.143224686384201</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.660846248294653</v>
+        <v>0.1262819416603385</v>
       </c>
       <c r="B213" t="n">
-        <v>2.249800378282738</v>
+        <v>1.566284858832663</v>
       </c>
       <c r="C213" t="n">
-        <v>0.4105198979377747</v>
+        <v>0.1390721946954727</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.672292565654221</v>
+        <v>0.1245798146889169</v>
       </c>
       <c r="B214" t="n">
-        <v>2.258354324837156</v>
+        <v>1.551365174707114</v>
       </c>
       <c r="C214" t="n">
-        <v>0.4107290506362915</v>
+        <v>0.1393530517816544</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.684120268255615</v>
+        <v>0.1179285328382382</v>
       </c>
       <c r="B215" t="n">
-        <v>2.267088409767721</v>
+        <v>1.582214277091949</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3800648152828217</v>
+        <v>0.1320302039384842</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.696305676614242</v>
+        <v>0.1125204773724902</v>
       </c>
       <c r="B216" t="n">
-        <v>2.27517819991432</v>
+        <v>1.566087225230892</v>
       </c>
       <c r="C216" t="n">
-        <v>0.4032042920589447</v>
+        <v>0.1369510143995285</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.708167151272407</v>
+        <v>0.1056452881532578</v>
       </c>
       <c r="B217" t="n">
-        <v>2.284543991323924</v>
+        <v>1.578315159291988</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3875657916069031</v>
+        <v>0.134132444858551</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.720060391426427</v>
+        <v>0.09832439136408927</v>
       </c>
       <c r="B218" t="n">
-        <v>2.292661586012758</v>
+        <v>1.586764085234045</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3870635032653809</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.735869529497265</v>
+        <v>0.08932578466153779</v>
       </c>
       <c r="B219" t="n">
-        <v>2.303912189395414</v>
+        <v>1.596222841226604</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3918955624103546</v>
+        <v>0.1316379606723785</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.748370533658868</v>
+        <v>0.09439314024695614</v>
       </c>
       <c r="B220" t="n">
-        <v>2.313066842780592</v>
+        <v>1.628186787354139</v>
       </c>
       <c r="C220" t="n">
-        <v>0.3833189010620117</v>
+        <v>0.129970371723175</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.760677910780894</v>
+        <v>0.09245993967198984</v>
       </c>
       <c r="B221" t="n">
-        <v>2.321749927687473</v>
+        <v>1.64663848222611</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3836306631565094</v>
+        <v>0.1240194439888</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.773367297100047</v>
+        <v>0.09252538192684151</v>
       </c>
       <c r="B222" t="n">
-        <v>2.331017739484237</v>
+        <v>1.657207286931605</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3526851534843445</v>
+        <v>0.1216727122664452</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.784560836362468</v>
+        <v>0.08360935243182702</v>
       </c>
       <c r="B223" t="n">
-        <v>2.337684274544349</v>
+        <v>1.652781329376441</v>
       </c>
       <c r="C223" t="n">
-        <v>0.384715735912323</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.7966970377257</v>
+        <v>0.08250351782118494</v>
       </c>
       <c r="B224" t="n">
-        <v>2.347847994176787</v>
+        <v>1.688433921063695</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3636797070503235</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.808741639725293</v>
+        <v>0.07501389341322348</v>
       </c>
       <c r="B225" t="n">
-        <v>2.355410372631477</v>
+        <v>1.700678379252542</v>
       </c>
       <c r="C225" t="n">
-        <v>0.376074492931366</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.820876056606201</v>
+        <v>0.06781583696586815</v>
       </c>
       <c r="B226" t="n">
-        <v>2.364491333223108</v>
+        <v>1.707487275624708</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3803634643554688</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.832771553528445</v>
+        <v>0.07493559325284259</v>
       </c>
       <c r="B227" t="n">
-        <v>2.373087985273887</v>
+        <v>1.720427801788701</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3655858337879181</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.844952652883431</v>
+        <v>0.06019755064740562</v>
       </c>
       <c r="B228" t="n">
-        <v>2.381230263090714</v>
+        <v>1.734155553738006</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3771036863327026</v>
+        <v>0.1243192180991173</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.856860415156232</v>
+        <v>0.06654841617856749</v>
       </c>
       <c r="B229" t="n">
-        <v>2.390332556613616</v>
+        <v>1.751229467055351</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3835470974445343</v>
+        <v>0.1414709240198135</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.868945050660683</v>
+        <v>0.08004237406972041</v>
       </c>
       <c r="B230" t="n">
-        <v>2.399207495760127</v>
+        <v>1.760836102852852</v>
       </c>
       <c r="C230" t="n">
-        <v>0.384219765663147</v>
+        <v>0.1565580815076828</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.883097554871737</v>
+        <v>0.09461197267607245</v>
       </c>
       <c r="B231" t="n">
-        <v>2.409379097041479</v>
+        <v>1.769471174248099</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3953717052936554</v>
+        <v>0.1642304062843323</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.895108087213981</v>
+        <v>0.09434998161100887</v>
       </c>
       <c r="B232" t="n">
-        <v>2.418316821156324</v>
+        <v>1.786375725582002</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3868227899074554</v>
+        <v>0.1783245056867599</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.907837340831689</v>
+        <v>0.1132175322014062</v>
       </c>
       <c r="B233" t="n">
-        <v>2.427226516694854</v>
+        <v>1.793414613869373</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3921380341053009</v>
+        <v>0.1863184720277786</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.919546665515596</v>
+        <v>0.1191455971389956</v>
       </c>
       <c r="B234" t="n">
-        <v>2.435959580115803</v>
+        <v>1.802742626097732</v>
       </c>
       <c r="C234" t="n">
-        <v>0.395073413848877</v>
+        <v>0.1805080324411392</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.931645250247007</v>
+        <v>0.1242194986088512</v>
       </c>
       <c r="B235" t="n">
-        <v>2.444996866022918</v>
+        <v>1.815271500180638</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3993004560470581</v>
+        <v>0.1617085933685303</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.944107545233994</v>
+        <v>0.1276476250935539</v>
       </c>
       <c r="B236" t="n">
-        <v>2.454271347996023</v>
+        <v>1.831960561556056</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4144718647003174</v>
+        <v>0.1779205054044724</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.956211246601865</v>
+        <v>0.1479802426210416</v>
       </c>
       <c r="B237" t="n">
-        <v>2.463436045153828</v>
+        <v>1.83044949723746</v>
       </c>
       <c r="C237" t="n">
-        <v>0.4049126207828522</v>
+        <v>0.167616605758667</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.968215138682851</v>
+        <v>0.1527571089245009</v>
       </c>
       <c r="B238" t="n">
-        <v>2.471996890046199</v>
+        <v>1.845885646673624</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4191238284111023</v>
+        <v>0.1829772442579269</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.980282678262051</v>
+        <v>0.1677453852084639</v>
       </c>
       <c r="B239" t="n">
-        <v>2.481030792822785</v>
+        <v>1.860691377481168</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4308327436447144</v>
+        <v>0.1785370856523514</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.992435562969693</v>
+        <v>0.1774223949203981</v>
       </c>
       <c r="B240" t="n">
-        <v>2.490114488080519</v>
+        <v>1.872595202244024</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4321118593215942</v>
+        <v>0.1738928556442261</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.004231408312807</v>
+        <v>0.1871535604137963</v>
       </c>
       <c r="B241" t="n">
-        <v>2.498913736080667</v>
+        <v>1.885631925391918</v>
       </c>
       <c r="C241" t="n">
-        <v>0.4371179044246674</v>
+        <v>0.169285386800766</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.016430064951749</v>
+        <v>0.192897671438054</v>
       </c>
       <c r="B242" t="n">
-        <v>2.508113099692898</v>
+        <v>1.893762147310201</v>
       </c>
       <c r="C242" t="n">
-        <v>0.4522441029548645</v>
+        <v>0.1806508004665375</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.030624060497292</v>
+        <v>0.2039398694675455</v>
       </c>
       <c r="B243" t="n">
-        <v>2.518837387136499</v>
+        <v>1.902690632482614</v>
       </c>
       <c r="C243" t="n">
-        <v>0.4655788540840149</v>
+        <v>0.1847885698080063</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.042850046004757</v>
+        <v>0.2187139762317643</v>
       </c>
       <c r="B244" t="n">
-        <v>2.528008173640542</v>
+        <v>1.918661019910192</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4756796360015869</v>
+        <v>0.1767915040254593</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.055202479181583</v>
+        <v>0.2234595553397037</v>
       </c>
       <c r="B245" t="n">
-        <v>2.537162407277287</v>
+        <v>1.927608586790773</v>
       </c>
       <c r="C245" t="n">
-        <v>0.4835315942764282</v>
+        <v>0.1810498684644699</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.067361923956871</v>
+        <v>0.2370608933796124</v>
       </c>
       <c r="B246" t="n">
-        <v>2.546219703940376</v>
+        <v>1.940650580440756</v>
       </c>
       <c r="C246" t="n">
-        <v>0.4937225878238678</v>
+        <v>0.1753804385662079</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.079082651432675</v>
+        <v>0.2457202287835134</v>
       </c>
       <c r="B247" t="n">
-        <v>2.555060054616229</v>
+        <v>1.952497189911578</v>
       </c>
       <c r="C247" t="n">
-        <v>0.4924234449863434</v>
+        <v>0.1829000562429428</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.089087466388069</v>
+        <v>0.2560747635642788</v>
       </c>
       <c r="B248" t="n">
-        <v>2.562701320988445</v>
+        <v>1.962437617343374</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5094530582427979</v>
+        <v>0.1804684102535248</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.101442229608978</v>
+        <v>0.2666622508532002</v>
       </c>
       <c r="B249" t="n">
-        <v>2.572111634597509</v>
+        <v>1.975229957876841</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5048979520797729</v>
+        <v>0.2022453546524048</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.113632955946549</v>
+        <v>0.2811405756947344</v>
       </c>
       <c r="B250" t="n">
-        <v>2.581268202728063</v>
+        <v>1.983328787940298</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5331823825836182</v>
+        <v>0.200783371925354</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.127257341989094</v>
+        <v>0.29225149178348</v>
       </c>
       <c r="B251" t="n">
-        <v>2.591533319037034</v>
+        <v>1.995543871788974</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5418845415115356</v>
+        <v>0.2050090581178665</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.13932169318556</v>
+        <v>0.3077389620667544</v>
       </c>
       <c r="B252" t="n">
-        <v>2.600475010609479</v>
+        <v>2.00783267058278</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5563216805458069</v>
+        <v>0.2054242491722107</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.151489790741469</v>
+        <v>0.3180563778316863</v>
       </c>
       <c r="B253" t="n">
-        <v>2.609581430136888</v>
+        <v>2.018151082001434</v>
       </c>
       <c r="C253" t="n">
-        <v>0.548552393913269</v>
+        <v>0.2034223079681396</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.163205841946056</v>
+        <v>0.331779855925722</v>
       </c>
       <c r="B254" t="n">
-        <v>2.618440845568154</v>
+        <v>2.031648578414196</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5689125657081604</v>
+        <v>0.2259295284748077</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.175212260739199</v>
+        <v>0.343831930860159</v>
       </c>
       <c r="B255" t="n">
-        <v>2.627641320364794</v>
+        <v>2.036869857363492</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5892491340637207</v>
+        <v>0.2317407578229904</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.187401466538659</v>
+        <v>0.3579639714813366</v>
       </c>
       <c r="B256" t="n">
-        <v>2.636854675565</v>
+        <v>2.047722296542535</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5986534357070923</v>
+        <v>0.2369362711906433</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.197589404049368</v>
+        <v>0.3709355533429554</v>
       </c>
       <c r="B257" t="n">
-        <v>2.644518369110761</v>
+        <v>2.05694550354825</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5874937772750854</v>
+        <v>0.2483758330345154</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.209676472338713</v>
+        <v>0.3841081669891847</v>
       </c>
       <c r="B258" t="n">
-        <v>2.653584271420017</v>
+        <v>2.064871075217275</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6175323128700256</v>
+        <v>0.2545863091945648</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.223529085502813</v>
+        <v>0.3972493367630545</v>
       </c>
       <c r="B259" t="n">
-        <v>2.663951474409771</v>
+        <v>2.0737585555489</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6149226427078247</v>
+        <v>0.2593846023082733</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.235543184272275</v>
+        <v>0.4129633829494124</v>
       </c>
       <c r="B260" t="n">
-        <v>2.672977927443418</v>
+        <v>2.084432752649866</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6117483973503113</v>
+        <v>0.2602986097335815</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.247417964826279</v>
+        <v>0.4229312689086468</v>
       </c>
       <c r="B261" t="n">
-        <v>2.68196901268557</v>
+        <v>2.090945152639093</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5812785029411316</v>
+        <v>0.2853962182998657</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.259581593700222</v>
+        <v>0.4407834034229723</v>
       </c>
       <c r="B262" t="n">
-        <v>2.691217490698012</v>
+        <v>2.100298751698907</v>
       </c>
       <c r="C262" t="n">
-        <v>0.564298152923584</v>
+        <v>0.2973557412624359</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.271797328323451</v>
+        <v>0.4541214704437406</v>
       </c>
       <c r="B263" t="n">
-        <v>2.700443378086777</v>
+        <v>2.108134153521648</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5553989410400391</v>
+        <v>0.30991330742836</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.283577784107495</v>
+        <v>0.4678145316663019</v>
       </c>
       <c r="B264" t="n">
-        <v>2.709305252445348</v>
+        <v>2.115565030021015</v>
       </c>
       <c r="C264" t="n">
-        <v>0.538002073764801</v>
+        <v>0.3126160800457001</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.297558453270565</v>
+        <v>0.479077655172885</v>
       </c>
       <c r="B265" t="n">
-        <v>2.719735355043551</v>
+        <v>2.122247230311296</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5200910568237305</v>
+        <v>0.3174915909767151</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.309605081564101</v>
+        <v>0.4927331043831673</v>
       </c>
       <c r="B266" t="n">
-        <v>2.728749877194299</v>
+        <v>2.130231437693397</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5145581960678101</v>
+        <v>0.3436494767665863</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.321654091013187</v>
+        <v>0.5057667813062379</v>
       </c>
       <c r="B267" t="n">
-        <v>2.737868818720518</v>
+        <v>2.136494517502721</v>
       </c>
       <c r="C267" t="n">
-        <v>0.4941538274288177</v>
+        <v>0.3379663228988647</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.333666367545827</v>
+        <v>0.5193539829216764</v>
       </c>
       <c r="B268" t="n">
-        <v>2.747041544788469</v>
+        <v>2.144682821119519</v>
       </c>
       <c r="C268" t="n">
-        <v>0.4859720170497894</v>
+        <v>0.3683409094810486</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.346130089586393</v>
+        <v>0.532292265955971</v>
       </c>
       <c r="B269" t="n">
-        <v>2.75649675812496</v>
+        <v>2.151038271091522</v>
       </c>
       <c r="C269" t="n">
-        <v>0.4756730198860168</v>
+        <v>0.382878303527832</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.358342880823188</v>
+        <v>0.5451867876723124</v>
       </c>
       <c r="B270" t="n">
-        <v>2.765754485088858</v>
+        <v>2.157985841301586</v>
       </c>
       <c r="C270" t="n">
-        <v>0.4521353840827942</v>
+        <v>0.3826010525226593</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.370178708559947</v>
+        <v>0.5600284820017947</v>
       </c>
       <c r="B271" t="n">
-        <v>2.774683685172297</v>
+        <v>2.166307574461372</v>
       </c>
       <c r="C271" t="n">
-        <v>0.4351535737514496</v>
+        <v>0.386048436164856</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.382120388777615</v>
+        <v>0.5711191543418801</v>
       </c>
       <c r="B272" t="n">
-        <v>2.783742229762438</v>
+        <v>2.172343111645576</v>
       </c>
       <c r="C272" t="n">
-        <v>0.4337798058986664</v>
+        <v>0.4017432630062103</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.394216074491948</v>
+        <v>0.5866267990475359</v>
       </c>
       <c r="B273" t="n">
-        <v>2.792849426391877</v>
+        <v>2.180580679837674</v>
       </c>
       <c r="C273" t="n">
-        <v>0.4148158729076385</v>
+        <v>0.4171496033668518</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.405601581021104</v>
+        <v>0.6010325539939274</v>
       </c>
       <c r="B274" t="n">
-        <v>2.80166099065731</v>
+        <v>2.188189999364439</v>
       </c>
       <c r="C274" t="n">
-        <v>0.3990186452865601</v>
+        <v>0.420827180147171</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.417475670364816</v>
+        <v>0.6145596441004182</v>
       </c>
       <c r="B275" t="n">
-        <v>2.810978924171161</v>
+        <v>2.195407206552255</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3907103538513184</v>
+        <v>0.4394760727882385</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.429198088300165</v>
+        <v>0.6277751134754416</v>
       </c>
       <c r="B276" t="n">
-        <v>2.820157323887783</v>
+        <v>2.202395425517832</v>
       </c>
       <c r="C276" t="n">
-        <v>0.3736809492111206</v>
+        <v>0.4502476751804352</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.438643990291846</v>
+        <v>0.6407150454738136</v>
       </c>
       <c r="B277" t="n">
-        <v>2.827684758500488</v>
+        <v>2.209369595581273</v>
       </c>
       <c r="C277" t="n">
-        <v>0.3642145693302155</v>
+        <v>0.4798307418823242</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.449913572931325</v>
+        <v>0.6539007493090976</v>
       </c>
       <c r="B278" t="n">
-        <v>2.836805430896129</v>
+        <v>2.216308576814997</v>
       </c>
       <c r="C278" t="n">
-        <v>0.351520299911499</v>
+        <v>0.4833962619304657</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.464731839712218</v>
+        <v>0.6673239443107871</v>
       </c>
       <c r="B279" t="n">
-        <v>2.848211156339152</v>
+        <v>2.223480604690051</v>
       </c>
       <c r="C279" t="n">
-        <v>0.3434404134750366</v>
+        <v>0.4933817684650421</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.476115848772299</v>
+        <v>0.6811152871098152</v>
       </c>
       <c r="B280" t="n">
-        <v>2.857577423308943</v>
+        <v>2.230820894529462</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3233179152011871</v>
+        <v>0.5150445699691772</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.484560649798841</v>
+        <v>0.6946781721804879</v>
       </c>
       <c r="B281" t="n">
-        <v>2.865591302595353</v>
+        <v>2.238009283638279</v>
       </c>
       <c r="C281" t="n">
-        <v>0.3223349750041962</v>
+        <v>0.5198662281036377</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.496129070917068</v>
+        <v>0.7081779897436039</v>
       </c>
       <c r="B282" t="n">
-        <v>2.874663475312244</v>
+        <v>2.245212097654572</v>
       </c>
       <c r="C282" t="n">
-        <v>0.307498037815094</v>
+        <v>0.539848804473877</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.506271615508114</v>
+        <v>0.720972146447706</v>
       </c>
       <c r="B283" t="n">
-        <v>2.882882397954105</v>
+        <v>2.252062178722858</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2901412546634674</v>
+        <v>0.5520133376121521</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.515789958681781</v>
+        <v>0.7359164097724521</v>
       </c>
       <c r="B284" t="n">
-        <v>2.891858205052034</v>
+        <v>2.260126932625004</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2938511669635773</v>
+        <v>0.5633983016014099</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.527074715192355</v>
+        <v>0.7495898524023208</v>
       </c>
       <c r="B285" t="n">
-        <v>2.903102433002173</v>
+        <v>2.267331775317403</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2722838819026947</v>
+        <v>0.5696783065795898</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.535018411054071</v>
+        <v>0.7634062836799533</v>
       </c>
       <c r="B286" t="n">
-        <v>2.910649593342312</v>
+        <v>2.274670633395477</v>
       </c>
       <c r="C286" t="n">
-        <v>0.2602488994598389</v>
+        <v>0.5943929553031921</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.544094045724463</v>
+        <v>0.7773871452845139</v>
       </c>
       <c r="B287" t="n">
-        <v>2.91745142771109</v>
+        <v>2.28211330853117</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2513706684112549</v>
+        <v>0.5996285080909729</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.552461000078129</v>
+        <v>0.7909890291278203</v>
       </c>
       <c r="B288" t="n">
-        <v>2.929382147459774</v>
+        <v>2.28937105222475</v>
       </c>
       <c r="C288" t="n">
-        <v>0.231678768992424</v>
+        <v>0.6109694242477417</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.558902649296023</v>
+        <v>0.8042455696386923</v>
       </c>
       <c r="B289" t="n">
-        <v>2.934604058175427</v>
+        <v>2.296475884571513</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2371824383735657</v>
+        <v>0.6282324194908142</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.57113331508773</v>
+        <v>0.8149276066415279</v>
       </c>
       <c r="B290" t="n">
-        <v>2.943773146347402</v>
+        <v>2.302258430485294</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2217647433280945</v>
+        <v>0.6438937783241272</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.577374933933437</v>
+        <v>0.8283173461366904</v>
       </c>
       <c r="B291" t="n">
-        <v>2.953715459748054</v>
+        <v>2.309428742510549</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2119501531124115</v>
+        <v>0.6375591158866882</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.583857642316587</v>
+        <v>0.8413326265505465</v>
       </c>
       <c r="B292" t="n">
-        <v>2.96330583946938</v>
+        <v>2.316355399263268</v>
       </c>
       <c r="C292" t="n">
-        <v>0.2051952481269836</v>
+        <v>0.6325739622116089</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.591155840313297</v>
+        <v>0.8567181542883329</v>
       </c>
       <c r="B293" t="n">
-        <v>2.970804821009708</v>
+        <v>2.324550040390861</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1937474608421326</v>
+        <v>0.6042141318321228</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.597124365434155</v>
+        <v>0.8703324683397169</v>
       </c>
       <c r="B294" t="n">
-        <v>2.980081104327605</v>
+        <v>2.331805548181495</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1772739291191101</v>
+        <v>0.5977769494056702</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.576624524094669</v>
+        <v>0.8838287012631486</v>
       </c>
       <c r="B295" t="n">
-        <v>3.011572283699025</v>
+        <v>2.339009755533068</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1831547319889069</v>
+        <v>0.5885950922966003</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.585515358375404</v>
+        <v>0.8967173826370294</v>
       </c>
       <c r="B296" t="n">
-        <v>3.019226337181984</v>
+        <v>2.345927290425379</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1660513281822205</v>
+        <v>0.569686233997345</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.586806301309729</v>
+        <v>0.9096443870408906</v>
       </c>
       <c r="B297" t="n">
-        <v>3.022773280264</v>
+        <v>2.352931665610345</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1520585268735886</v>
+        <v>0.5585702061653137</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.570891467194818</v>
+        <v>0.92286593630903</v>
       </c>
       <c r="B298" t="n">
-        <v>3.041803966029252</v>
+        <v>2.359922062088396</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1416267454624176</v>
+        <v>0.5385610461235046</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.56973760088714</v>
+        <v>0.9339517344597247</v>
       </c>
       <c r="B299" t="n">
-        <v>3.053362155286435</v>
+        <v>2.365800408140005</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1412988305091858</v>
+        <v>0.5305591225624084</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.554357289885383</v>
+        <v>0.9474372069569077</v>
       </c>
       <c r="B300" t="n">
-        <v>3.051602192169641</v>
+        <v>2.372973598500022</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1422679126262665</v>
+        <v>0.5141373872756958</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.550825068736903</v>
+        <v>0.9605681891222112</v>
       </c>
       <c r="B301" t="n">
-        <v>3.070806503507794</v>
+        <v>2.379960475242787</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1440412551164627</v>
+        <v>0.4901348352432251</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.546841572728645</v>
+        <v>0.9737267185473321</v>
       </c>
       <c r="B302" t="n">
-        <v>3.085246750851113</v>
+        <v>2.386934022904664</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1450379341840744</v>
+        <v>0.4800300598144531</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.541072630543578</v>
+        <v>0.9863792381637679</v>
       </c>
       <c r="B303" t="n">
-        <v>3.099660003482485</v>
+        <v>2.393679621437208</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1578832268714905</v>
+        <v>0.4757375419139862</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.539638857190132</v>
+        <v>1.001244994161611</v>
       </c>
       <c r="B304" t="n">
-        <v>3.105412315998396</v>
+        <v>2.401709281725762</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1699255704879761</v>
+        <v>0.4562279880046844</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.553023141735939</v>
+        <v>1.014160325855195</v>
       </c>
       <c r="B305" t="n">
-        <v>3.124317670163522</v>
+        <v>2.408525628423089</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1653711050748825</v>
+        <v>0.4276910722255707</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.547781702924715</v>
+        <v>1.027362091945006</v>
       </c>
       <c r="B306" t="n">
-        <v>3.133431310109712</v>
+        <v>2.415302761720155</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1786679625511169</v>
+        <v>0.4248800575733185</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.564747674670767</v>
+        <v>1.040695589634012</v>
       </c>
       <c r="B307" t="n">
-        <v>3.153836240192438</v>
+        <v>2.422368763605349</v>
       </c>
       <c r="C307" t="n">
-        <v>0.183268740773201</v>
+        <v>0.4168092310428619</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.578105141891304</v>
+        <v>1.054087463649097</v>
       </c>
       <c r="B308" t="n">
-        <v>3.154641443153205</v>
+        <v>2.429519376466777</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1983063071966171</v>
+        <v>0.4063502848148346</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.570759840875385</v>
+        <v>1.067282066300781</v>
       </c>
       <c r="B309" t="n">
-        <v>3.178182508363864</v>
+        <v>2.436470677232838</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1932281404733658</v>
+        <v>0.3820261657238007</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.589702779370005</v>
+        <v>1.079822801327518</v>
       </c>
       <c r="B310" t="n">
-        <v>3.181835374076234</v>
+        <v>2.442811065977673</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1766171306371689</v>
+        <v>0.3644754588603973</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.563174643109559</v>
+        <v>1.092051043717089</v>
       </c>
       <c r="B311" t="n">
-        <v>3.196555277666538</v>
+        <v>2.449343443957511</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1772104352712631</v>
+        <v>0.3491318225860596</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.585745646472355</v>
+        <v>1.104179981427375</v>
       </c>
       <c r="B312" t="n">
-        <v>3.217120929321534</v>
+        <v>2.45582362603926</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1729332208633423</v>
+        <v>0.3488186895847321</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.573084697399449</v>
+        <v>1.120209231700894</v>
       </c>
       <c r="B313" t="n">
-        <v>3.226965664668894</v>
+        <v>2.463072103986623</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1665882766246796</v>
+        <v>0.3209032714366913</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.574901130889746</v>
+        <v>1.132256990076898</v>
       </c>
       <c r="B314" t="n">
-        <v>3.226116794300587</v>
+        <v>2.468876977278946</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1487815529108047</v>
+        <v>0.3150117099285126</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.555641463934388</v>
+        <v>1.143027997809022</v>
       </c>
       <c r="B315" t="n">
-        <v>3.244767431885809</v>
+        <v>2.4744982153602</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1560036987066269</v>
+        <v>0.2950887680053711</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.557393302595571</v>
+        <v>1.161731131043709</v>
       </c>
       <c r="B316" t="n">
-        <v>3.267659713947305</v>
+        <v>2.466239012255501</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1452352255582809</v>
+        <v>0.2816930413246155</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.538049783774034</v>
+        <v>1.17272778572203</v>
       </c>
       <c r="B317" t="n">
-        <v>3.254552080052054</v>
+        <v>2.471013054062827</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1487825959920883</v>
+        <v>0.2674314081668854</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.549114789799818</v>
+        <v>1.183476742796147</v>
       </c>
       <c r="B318" t="n">
-        <v>3.292822019339593</v>
+        <v>2.477236883633612</v>
       </c>
       <c r="C318" t="n">
-        <v>0.164381742477417</v>
+        <v>0.2555281817913055</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.561948359678974</v>
+        <v>1.197789530973269</v>
       </c>
       <c r="B319" t="n">
-        <v>3.296485624194113</v>
+        <v>2.475974377984735</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1688457131385803</v>
+        <v>0.2380038797855377</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.557350371901312</v>
+        <v>1.207575311915431</v>
       </c>
       <c r="B320" t="n">
-        <v>3.318913841159995</v>
+        <v>2.476790494897491</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1699466705322266</v>
+        <v>0.2316486239433289</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.566158178783557</v>
+        <v>1.218475133147486</v>
       </c>
       <c r="B321" t="n">
-        <v>3.323667919905202</v>
+        <v>2.480455550088241</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1906462460756302</v>
+        <v>0.2192843407392502</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.582279333901406</v>
+        <v>1.227872683849017</v>
       </c>
       <c r="B322" t="n">
-        <v>3.333308148071499</v>
+        <v>2.479966393060436</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1995838284492493</v>
+        <v>0.197698786854744</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.597224217611624</v>
+        <v>1.236790288647565</v>
       </c>
       <c r="B323" t="n">
-        <v>3.33711197938213</v>
+        <v>2.463282892742821</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2069188505411148</v>
+        <v>0.2002522200345993</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.607083379051532</v>
+        <v>1.241474797833501</v>
       </c>
       <c r="B324" t="n">
-        <v>3.351785469801623</v>
+        <v>2.454718234327822</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2039496302604675</v>
+        <v>0.1752468943595886</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.617409748683289</v>
+        <v>1.25260098714416</v>
       </c>
       <c r="B325" t="n">
-        <v>3.36195154636417</v>
+        <v>2.448264058902907</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2038428485393524</v>
+        <v>0.1669735014438629</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.631044241181134</v>
+        <v>1.254280507192534</v>
       </c>
       <c r="B326" t="n">
-        <v>3.373257681160923</v>
+        <v>2.431024624744137</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1883081495761871</v>
+        <v>0.1641085594892502</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.640477943738868</v>
+        <v>1.263549855445074</v>
       </c>
       <c r="B327" t="n">
-        <v>3.384449243650316</v>
+        <v>2.426270935925772</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1868055164813995</v>
+        <v>0.1486672461032867</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.649285105205825</v>
+        <v>1.24448245035224</v>
       </c>
       <c r="B328" t="n">
-        <v>3.391251994402473</v>
+        <v>2.397978510943936</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1783086955547333</v>
+        <v>0.1508642584085464</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.65809611571484</v>
+        <v>1.263885629341602</v>
       </c>
       <c r="B329" t="n">
-        <v>3.402528834282599</v>
+        <v>2.398353319180834</v>
       </c>
       <c r="C329" t="n">
-        <v>0.167580783367157</v>
+        <v>0.1421321630477905</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.665096392895611</v>
+        <v>1.252827641841395</v>
       </c>
       <c r="B330" t="n">
-        <v>3.41245735487759</v>
+        <v>2.381094091354272</v>
       </c>
       <c r="C330" t="n">
-        <v>0.1656578779220581</v>
+        <v>0.132890909910202</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.675116435751276</v>
+        <v>1.267248916744549</v>
       </c>
       <c r="B331" t="n">
-        <v>3.423216228614896</v>
+        <v>2.375699121245414</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1700082421302795</v>
+        <v>0.1363722234964371</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.686071962934526</v>
+        <v>1.275319815964467</v>
       </c>
       <c r="B332" t="n">
-        <v>3.433201101612487</v>
+        <v>2.360524528843728</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1674841940402985</v>
+        <v>0.1497461646795273</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.6969708273143</v>
+        <v>1.292172466353693</v>
       </c>
       <c r="B333" t="n">
-        <v>3.445734458030441</v>
+        <v>2.361685148056852</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1672893613576889</v>
+        <v>0.1715399473905563</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.706254143743275</v>
+        <v>1.295344979988572</v>
       </c>
       <c r="B334" t="n">
-        <v>3.455262226511855</v>
+        <v>2.360802638133361</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1603706628084183</v>
+        <v>0.1733014434576035</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.71498671143769</v>
+        <v>1.308071659595908</v>
       </c>
       <c r="B335" t="n">
-        <v>3.46668975473827</v>
+        <v>2.346555948815354</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1673171520233154</v>
+        <v>0.1713347584009171</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.730083912281191</v>
+        <v>1.308270914524624</v>
       </c>
       <c r="B336" t="n">
-        <v>3.479149708222593</v>
+        <v>2.346498019993015</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1683054119348526</v>
+        <v>0.1746376007795334</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.740424205408299</v>
+        <v>1.332500553372456</v>
       </c>
       <c r="B337" t="n">
-        <v>3.489378690146424</v>
+        <v>2.345459415186927</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1742944568395615</v>
+        <v>0.1733631491661072</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.755876027801894</v>
+        <v>1.336990887519251</v>
       </c>
       <c r="B338" t="n">
-        <v>3.501153799464918</v>
+        <v>2.341027672071195</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1782723218202591</v>
+        <v>0.1860987395048141</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.76707687007611</v>
+        <v>1.338525712176016</v>
       </c>
       <c r="B339" t="n">
-        <v>3.510908508571537</v>
+        <v>2.32609566349632</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1916125863790512</v>
+        <v>0.1842501610517502</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.78312370913102</v>
+        <v>1.348785358065462</v>
       </c>
       <c r="B340" t="n">
-        <v>3.520081862813924</v>
+        <v>2.320520447648563</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1980765908956528</v>
+        <v>0.1705633550882339</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.796341103104538</v>
+        <v>1.361348605040448</v>
       </c>
       <c r="B341" t="n">
-        <v>3.528879283677043</v>
+        <v>2.307646877940479</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2051484882831573</v>
+        <v>0.1720934212207794</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.810886846098175</v>
+        <v>1.365138685439772</v>
       </c>
       <c r="B342" t="n">
-        <v>3.538061770863633</v>
+        <v>2.306661778782113</v>
       </c>
       <c r="C342" t="n">
-        <v>0.2168672829866409</v>
+        <v>0.166989877820015</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.824860966741755</v>
+        <v>1.380309982451739</v>
       </c>
       <c r="B343" t="n">
-        <v>3.545582275045589</v>
+        <v>2.289931342934167</v>
       </c>
       <c r="C343" t="n">
-        <v>0.21564581990242</v>
+        <v>0.1598873883485794</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.838205414685735</v>
+        <v>1.382118634746224</v>
       </c>
       <c r="B344" t="n">
-        <v>3.555328986579724</v>
+        <v>2.285451613850353</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2336074560880661</v>
+        <v>0.1711723655462265</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.851018501494357</v>
+        <v>1.398207691883295</v>
       </c>
       <c r="B345" t="n">
-        <v>3.560661712717611</v>
+        <v>2.275401191954256</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2384097874164581</v>
+        <v>0.162880077958107</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.86509244397308</v>
+        <v>1.395196980066584</v>
       </c>
       <c r="B346" t="n">
-        <v>3.568439111578371</v>
+        <v>2.27489067214803</v>
       </c>
       <c r="C346" t="n">
-        <v>0.234782487154007</v>
+        <v>0.1651899069547653</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.880844005359668</v>
+        <v>1.412264601941243</v>
       </c>
       <c r="B347" t="n">
-        <v>3.577301363615319</v>
+        <v>2.259974712138999</v>
       </c>
       <c r="C347" t="n">
-        <v>0.2606853246688843</v>
+        <v>0.1627326458692551</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.8939765842176</v>
+        <v>1.421874038381788</v>
       </c>
       <c r="B348" t="n">
-        <v>3.581496661419742</v>
+        <v>2.250421796040183</v>
       </c>
       <c r="C348" t="n">
-        <v>0.2671596705913544</v>
+        <v>0.1669653356075287</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.907147542589794</v>
+        <v>1.426415602522655</v>
       </c>
       <c r="B349" t="n">
-        <v>3.588732583629263</v>
+        <v>2.246939686482954</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2722529172897339</v>
+        <v>0.1597137898206711</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.921001545105121</v>
+        <v>1.433029769937863</v>
       </c>
       <c r="B350" t="n">
-        <v>3.595587509679633</v>
+        <v>2.238529399228024</v>
       </c>
       <c r="C350" t="n">
-        <v>0.284530371427536</v>
+        <v>0.1517434418201447</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.937373353619111</v>
+        <v>1.447505369862737</v>
       </c>
       <c r="B351" t="n">
-        <v>3.602393263265287</v>
+        <v>2.223483896787246</v>
       </c>
       <c r="C351" t="n">
-        <v>0.2898558080196381</v>
+        <v>0.1652310192584991</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.95042655786207</v>
+        <v>1.448380363861686</v>
       </c>
       <c r="B352" t="n">
-        <v>3.60840464197352</v>
+        <v>2.226560817510179</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2858090400695801</v>
+        <v>0.1559625715017319</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.963131368338772</v>
+        <v>1.456446245869587</v>
       </c>
       <c r="B353" t="n">
-        <v>3.615578640696993</v>
+        <v>2.215062896437102</v>
       </c>
       <c r="C353" t="n">
-        <v>0.3030596077442169</v>
+        <v>0.1686242669820786</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.977602842855088</v>
+        <v>1.472415772368291</v>
       </c>
       <c r="B354" t="n">
-        <v>3.620700510733569</v>
+        <v>2.205412458861318</v>
       </c>
       <c r="C354" t="n">
-        <v>0.2999555170536041</v>
+        <v>0.1542152166366577</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.992936340483656</v>
+        <v>1.458500612358501</v>
       </c>
       <c r="B355" t="n">
-        <v>3.62778188877559</v>
+        <v>2.191777874220986</v>
       </c>
       <c r="C355" t="n">
-        <v>0.3187670707702637</v>
+        <v>0.1717821359634399</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>3.007319142723003</v>
+        <v>1.468241553262623</v>
       </c>
       <c r="B356" t="n">
-        <v>3.632828076161305</v>
+        <v>2.190889557332359</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3229223787784576</v>
+        <v>0.1605128943920135</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3.021418126656816</v>
+        <v>1.48560024468104</v>
       </c>
       <c r="B357" t="n">
-        <v>3.639087040023426</v>
+        <v>2.168134691709315</v>
       </c>
       <c r="C357" t="n">
-        <v>0.3307086229324341</v>
+        <v>0.1551181375980377</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3.035347164815913</v>
+        <v>1.486288009642998</v>
       </c>
       <c r="B358" t="n">
-        <v>3.644604515899029</v>
+        <v>2.161087439623978</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3343373835086823</v>
+        <v>0.1651903092861176</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3.051932973530284</v>
+        <v>1.491267167093825</v>
       </c>
       <c r="B359" t="n">
-        <v>3.651178310527457</v>
+        <v>2.156343028965658</v>
       </c>
       <c r="C359" t="n">
-        <v>0.3454215526580811</v>
+        <v>0.1642332226037979</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3.065961935191337</v>
+        <v>1.507299536526211</v>
       </c>
       <c r="B360" t="n">
-        <v>3.656791886334884</v>
+        <v>2.158837700890528</v>
       </c>
       <c r="C360" t="n">
-        <v>0.351845771074295</v>
+        <v>0.1685474216938019</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3.081204867360972</v>
+        <v>1.51959954332268</v>
       </c>
       <c r="B361" t="n">
-        <v>3.662557814587617</v>
+        <v>2.145411150120936</v>
       </c>
       <c r="C361" t="n">
-        <v>0.3612453937530518</v>
+        <v>0.1709572821855545</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3.095633632619472</v>
+        <v>1.51876821586567</v>
       </c>
       <c r="B362" t="n">
-        <v>3.668244790748385</v>
+        <v>2.146496588835291</v>
       </c>
       <c r="C362" t="n">
-        <v>0.3608297109603882</v>
+        <v>0.1774854809045792</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>3.110487641574576</v>
+        <v>1.524571473173918</v>
       </c>
       <c r="B363" t="n">
-        <v>3.674250476684714</v>
+        <v>2.145010657636375</v>
       </c>
       <c r="C363" t="n">
-        <v>0.3694584369659424</v>
+        <v>0.1758491545915604</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>3.125539277176742</v>
+        <v>1.531831217551471</v>
       </c>
       <c r="B364" t="n">
-        <v>3.679783050343428</v>
+        <v>2.139755625195423</v>
       </c>
       <c r="C364" t="n">
-        <v>0.3794829249382019</v>
+        <v>0.165502592921257</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>3.139058007458315</v>
+        <v>1.541943173620982</v>
       </c>
       <c r="B365" t="n">
-        <v>3.684983812099099</v>
+        <v>2.127404670448865</v>
       </c>
       <c r="C365" t="n">
-        <v>0.3814452290534973</v>
+        <v>0.1749049872159958</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>3.151423476734414</v>
+        <v>1.551972114707091</v>
       </c>
       <c r="B366" t="n">
-        <v>3.68969885802709</v>
+        <v>2.123280599541099</v>
       </c>
       <c r="C366" t="n">
-        <v>0.391810804605484</v>
+        <v>0.1714988797903061</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>3.165911471697789</v>
+        <v>1.561987529392864</v>
       </c>
       <c r="B367" t="n">
-        <v>3.69505624959543</v>
+        <v>2.114097189442754</v>
       </c>
       <c r="C367" t="n">
-        <v>0.3845253586769104</v>
+        <v>0.1696323752403259</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3.177817762695267</v>
+        <v>1.57390478478082</v>
       </c>
       <c r="B368" t="n">
-        <v>3.699843063213848</v>
+        <v>2.104507295484796</v>
       </c>
       <c r="C368" t="n">
-        <v>0.3966021835803986</v>
+        <v>0.1692807376384735</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>3.196708234631961</v>
+        <v>1.582347458890126</v>
       </c>
       <c r="B369" t="n">
-        <v>3.706864063463452</v>
+        <v>2.097925962143938</v>
       </c>
       <c r="C369" t="n">
-        <v>0.4022158682346344</v>
+        <v>0.1679850518703461</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3.208019185594947</v>
+        <v>1.586424357167459</v>
       </c>
       <c r="B370" t="n">
-        <v>3.711112950884318</v>
+        <v>2.094383743671729</v>
       </c>
       <c r="C370" t="n">
-        <v>0.3978022336959839</v>
+        <v>0.172949492931366</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.222255528251697</v>
+        <v>1.598719936077573</v>
       </c>
       <c r="B371" t="n">
-        <v>3.716652721618999</v>
+        <v>2.086403803071669</v>
       </c>
       <c r="C371" t="n">
-        <v>0.4152588844299316</v>
+        <v>0.1700234562158585</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>3.235848677975589</v>
+        <v>1.612097066336141</v>
       </c>
       <c r="B372" t="n">
-        <v>3.721537620028356</v>
+        <v>2.094553175465139</v>
       </c>
       <c r="C372" t="n">
-        <v>0.4148110747337341</v>
+        <v>0.1627036333084106</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>3.249712138284735</v>
+        <v>1.616608244693268</v>
       </c>
       <c r="B373" t="n">
-        <v>3.726769966951824</v>
+        <v>2.069956148477823</v>
       </c>
       <c r="C373" t="n">
-        <v>0.4175858199596405</v>
+        <v>0.1792730838060379</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3.265816114937667</v>
+        <v>1.636779846989719</v>
       </c>
       <c r="B374" t="n">
-        <v>3.732795955050954</v>
+        <v>2.098243771979279</v>
       </c>
       <c r="C374" t="n">
-        <v>0.432650089263916</v>
+        <v>0.1757946163415909</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>3.279778969725661</v>
+        <v>1.64522686788635</v>
       </c>
       <c r="B375" t="n">
-        <v>3.737835372889058</v>
+        <v>2.079350067998356</v>
       </c>
       <c r="C375" t="n">
-        <v>0.4371514916419983</v>
+        <v>0.176435723900795</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3.293928422189707</v>
+        <v>1.654349783622781</v>
       </c>
       <c r="B376" t="n">
-        <v>3.74308612461764</v>
+        <v>2.076364685838674</v>
       </c>
       <c r="C376" t="n">
-        <v>0.4325625896453857</v>
+        <v>0.1602151095867157</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>3.308123062245615</v>
+        <v>1.665727060175534</v>
       </c>
       <c r="B377" t="n">
-        <v>3.74839340819141</v>
+        <v>2.068700135787743</v>
       </c>
       <c r="C377" t="n">
-        <v>0.4494005739688873</v>
+        <v>0.1617426574230194</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3.319374380799628</v>
+        <v>1.680293255939774</v>
       </c>
       <c r="B378" t="n">
-        <v>3.75241285229432</v>
+        <v>2.063519744741983</v>
       </c>
       <c r="C378" t="n">
-        <v>0.4532321393489838</v>
+        <v>0.1532817482948303</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>3.337483371612456</v>
+        <v>1.692130327707743</v>
       </c>
       <c r="B379" t="n">
-        <v>3.759095677025551</v>
+        <v>2.05630243949148</v>
       </c>
       <c r="C379" t="n">
-        <v>0.4654733240604401</v>
+        <v>0.1664577424526215</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>3.349216250648268</v>
+        <v>1.70552522700232</v>
       </c>
       <c r="B380" t="n">
-        <v>3.763378190935474</v>
+        <v>2.070610735770314</v>
       </c>
       <c r="C380" t="n">
-        <v>0.4774680435657501</v>
+        <v>0.1477065235376358</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>3.363526023207729</v>
+        <v>1.720970444619864</v>
       </c>
       <c r="B381" t="n">
-        <v>3.768562243695197</v>
+        <v>2.059302746529761</v>
       </c>
       <c r="C381" t="n">
-        <v>0.4683449566364288</v>
+        <v>0.1748277842998505</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3.377524115979188</v>
+        <v>1.729573064582282</v>
       </c>
       <c r="B382" t="n">
-        <v>3.77375956134189</v>
+        <v>2.078533297617418</v>
       </c>
       <c r="C382" t="n">
-        <v>0.4895136654376984</v>
+        <v>0.1773950755596161</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>3.391636553478879</v>
+        <v>1.744064198798946</v>
       </c>
       <c r="B383" t="n">
-        <v>3.778826364859757</v>
+        <v>2.078429646261263</v>
       </c>
       <c r="C383" t="n">
-        <v>0.4910077750682831</v>
+        <v>0.1839273124933243</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>3.405646924629171</v>
+        <v>1.755499937911533</v>
       </c>
       <c r="B384" t="n">
-        <v>3.783958138779863</v>
+        <v>2.081187541192258</v>
       </c>
       <c r="C384" t="n">
-        <v>0.5074825882911682</v>
+        <v>0.1670553386211395</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>3.421327022162904</v>
+        <v>1.772470693884068</v>
       </c>
       <c r="B385" t="n">
-        <v>3.789681688940603</v>
+        <v>2.079357691515851</v>
       </c>
       <c r="C385" t="n">
-        <v>0.5013313889503479</v>
+        <v>0.1770657002925873</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>3.435437168078906</v>
+        <v>1.787091916535771</v>
       </c>
       <c r="B386" t="n">
-        <v>3.794847671052651</v>
+        <v>2.084021200167985</v>
       </c>
       <c r="C386" t="n">
-        <v>0.5151546597480774</v>
+        <v>0.1704206019639969</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>3.44975505502894</v>
+        <v>1.801270004837248</v>
       </c>
       <c r="B387" t="n">
-        <v>3.800029732664255</v>
+        <v>2.084080119917544</v>
       </c>
       <c r="C387" t="n">
-        <v>0.5206065773963928</v>
+        <v>0.170659676194191</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>3.464192570662428</v>
+        <v>1.818689300440106</v>
       </c>
       <c r="B388" t="n">
-        <v>3.805283430546726</v>
+        <v>2.086456177868476</v>
       </c>
       <c r="C388" t="n">
-        <v>0.5233245491981506</v>
+        <v>0.1733282655477524</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>3.478696721584944</v>
+        <v>1.834605491705961</v>
       </c>
       <c r="B389" t="n">
-        <v>3.810564341863564</v>
+        <v>2.089412279071993</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5440800189971924</v>
+        <v>0.1855816394090652</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>3.493180043150801</v>
+        <v>1.846925192449079</v>
       </c>
       <c r="B390" t="n">
-        <v>3.815820639904495</v>
+        <v>2.094181954289528</v>
       </c>
       <c r="C390" t="n">
-        <v>0.5576338768005371</v>
+        <v>0.1958102583885193</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>3.507026094737188</v>
+        <v>1.859288973810652</v>
       </c>
       <c r="B391" t="n">
-        <v>3.820872719944193</v>
+        <v>2.09800300583503</v>
       </c>
       <c r="C391" t="n">
-        <v>0.5434992909431458</v>
+        <v>0.1890372782945633</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>3.520686322438469</v>
+        <v>1.877869988016924</v>
       </c>
       <c r="B392" t="n">
-        <v>3.825955606378312</v>
+        <v>2.100679559701996</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5685421824455261</v>
+        <v>0.1968658566474915</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>3.534929781420842</v>
+        <v>1.889434645695622</v>
       </c>
       <c r="B393" t="n">
-        <v>3.831108850754429</v>
+        <v>2.104507217048484</v>
       </c>
       <c r="C393" t="n">
-        <v>0.5881844758987427</v>
+        <v>0.2056081146001816</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>3.549394987502579</v>
+        <v>1.907929388865628</v>
       </c>
       <c r="B394" t="n">
-        <v>3.836351705170029</v>
+        <v>2.110976332143869</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5898569822311401</v>
+        <v>0.1987488269805908</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>3.56389091202714</v>
+        <v>1.919856087418097</v>
       </c>
       <c r="B395" t="n">
-        <v>3.841614128731483</v>
+        <v>2.112094067477333</v>
       </c>
       <c r="C395" t="n">
-        <v>0.6055282950401306</v>
+        <v>0.2170533388853073</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>3.575886251117178</v>
+        <v>1.938205769562013</v>
       </c>
       <c r="B396" t="n">
-        <v>3.845967551361989</v>
+        <v>2.12184509900096</v>
       </c>
       <c r="C396" t="n">
-        <v>0.610929012298584</v>
+        <v>0.2210808396339417</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>3.590345095358617</v>
+        <v>1.952845409153154</v>
       </c>
       <c r="B397" t="n">
-        <v>3.851216547947631</v>
+        <v>2.12677099631901</v>
       </c>
       <c r="C397" t="n">
-        <v>0.6147439479827881</v>
+        <v>0.2247382700443268</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>3.608221739657856</v>
+        <v>1.966464920287392</v>
       </c>
       <c r="B398" t="n">
-        <v>3.857754664893847</v>
+        <v>2.13128776358811</v>
       </c>
       <c r="C398" t="n">
-        <v>0.627811074256897</v>
+        <v>0.2341150492429733</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>3.622190938272754</v>
+        <v>1.981153444053282</v>
       </c>
       <c r="B399" t="n">
-        <v>3.862862676344198</v>
+        <v>2.138232554980169</v>
       </c>
       <c r="C399" t="n">
-        <v>0.6433349847793579</v>
+        <v>0.2346842437982559</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>3.632110983048429</v>
+        <v>1.997512308753299</v>
       </c>
       <c r="B400" t="n">
-        <v>3.866447295240379</v>
+        <v>2.145125359901796</v>
       </c>
       <c r="C400" t="n">
-        <v>0.6498809456825256</v>
+        <v>0.2447599172592163</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>3.646613693310504</v>
+        <v>2.012757544396235</v>
       </c>
       <c r="B401" t="n">
-        <v>3.871704630475097</v>
+        <v>2.151805358993621</v>
       </c>
       <c r="C401" t="n">
-        <v>0.6646720767021179</v>
+        <v>0.2533683180809021</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>3.662911153420939</v>
+        <v>2.027403290256718</v>
       </c>
       <c r="B402" t="n">
-        <v>3.877621119740162</v>
+        <v>2.159204822261275</v>
       </c>
       <c r="C402" t="n">
-        <v>0.6784228086471558</v>
+        <v>0.2522130608558655</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>3.677170882540608</v>
+        <v>2.041480250054335</v>
       </c>
       <c r="B403" t="n">
-        <v>3.882802852078245</v>
+        <v>2.163970558265132</v>
       </c>
       <c r="C403" t="n">
-        <v>0.6903728246688843</v>
+        <v>0.2730975151062012</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>3.691440641960953</v>
+        <v>2.051366199125859</v>
       </c>
       <c r="B404" t="n">
-        <v>3.887994931754524</v>
+        <v>2.171383126134483</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7041669487953186</v>
+        <v>0.2840142250061035</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>3.705126097989279</v>
+        <v>2.064747190238045</v>
       </c>
       <c r="B405" t="n">
-        <v>3.892996122410215</v>
+        <v>2.178835444303895</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7056438326835632</v>
+        <v>0.2949374914169312</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>3.719221395481155</v>
+        <v>2.07887994336413</v>
       </c>
       <c r="B406" t="n">
-        <v>3.898134972307891</v>
+        <v>2.187811004590601</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7226822376251221</v>
+        <v>0.2939222157001495</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>3.733117342473061</v>
+        <v>2.091482341291657</v>
       </c>
       <c r="B407" t="n">
-        <v>3.903174170689507</v>
+        <v>2.192805104629126</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7375687956809998</v>
+        <v>0.3042254447937012</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>3.747115333493777</v>
+        <v>2.098341269293478</v>
       </c>
       <c r="B408" t="n">
-        <v>3.908251384767328</v>
+        <v>2.215364131147006</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7436674237251282</v>
+        <v>0.3184798061847687</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>3.761171121728078</v>
+        <v>2.11027242632374</v>
       </c>
       <c r="B409" t="n">
-        <v>3.913349697659625</v>
+        <v>2.222956127054982</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7523484826087952</v>
+        <v>0.3155098557472229</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>3.77526038339406</v>
+        <v>2.122329442995092</v>
       </c>
       <c r="B410" t="n">
-        <v>3.918458526169915</v>
+        <v>2.231649727909948</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7714612483978271</v>
+        <v>0.3298916220664978</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>3.789136876539143</v>
+        <v>2.131407906365085</v>
       </c>
       <c r="B411" t="n">
-        <v>3.923493553250698</v>
+        <v>2.240633813771133</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7893363833427429</v>
+        <v>0.3246857225894928</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>3.804847503951766</v>
+        <v>2.143234012865483</v>
       </c>
       <c r="B412" t="n">
-        <v>3.929252009493515</v>
+        <v>2.250051337572782</v>
       </c>
       <c r="C412" t="n">
-        <v>0.79367595911026</v>
+        <v>0.3533376157283783</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>3.818749719184598</v>
+        <v>2.152980402624107</v>
       </c>
       <c r="B413" t="n">
-        <v>3.93428905760598</v>
+        <v>2.260322587936631</v>
       </c>
       <c r="C413" t="n">
-        <v>0.8043014407157898</v>
+        <v>0.3591772317886353</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>3.833175735818497</v>
+        <v>2.164221846070743</v>
       </c>
       <c r="B414" t="n">
-        <v>3.939507976553642</v>
+        <v>2.270352211122725</v>
       </c>
       <c r="C414" t="n">
-        <v>0.8305835723876953</v>
+        <v>0.3647439479827881</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>3.847676326141904</v>
+        <v>2.175230096458466</v>
       </c>
       <c r="B415" t="n">
-        <v>3.944760988573616</v>
+        <v>2.280306575223308</v>
       </c>
       <c r="C415" t="n">
-        <v>0.8353815674781799</v>
+        <v>0.3681755661964417</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>3.862222264001742</v>
+        <v>2.186403659660563</v>
       </c>
       <c r="B416" t="n">
-        <v>3.950036139196184</v>
+        <v>2.290494045130212</v>
       </c>
       <c r="C416" t="n">
-        <v>0.8618088960647583</v>
+        <v>0.3681606352329254</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>3.878952376150879</v>
+        <v>2.19769444033525</v>
       </c>
       <c r="B417" t="n">
-        <v>3.956104029013783</v>
+        <v>2.300655514723147</v>
       </c>
       <c r="C417" t="n">
-        <v>0.859289824962616</v>
+        <v>0.3943128883838654</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>3.890291314260685</v>
+        <v>2.208155203855457</v>
       </c>
       <c r="B418" t="n">
-        <v>3.960239590585553</v>
+        <v>2.310974716405607</v>
       </c>
       <c r="C418" t="n">
-        <v>0.8703143000602722</v>
+        <v>0.3988370895385742</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3.902131667528371</v>
+        <v>2.218938071466554</v>
       </c>
       <c r="B419" t="n">
-        <v>3.964615133168873</v>
+        <v>2.320868948818688</v>
       </c>
       <c r="C419" t="n">
-        <v>0.8965001106262207</v>
+        <v>0.4036087691783905</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>3.918714062559807</v>
+        <v>2.231477279763046</v>
       </c>
       <c r="B420" t="n">
-        <v>3.970629764000835</v>
+        <v>2.332450385871535</v>
       </c>
       <c r="C420" t="n">
-        <v>0.8923096656799316</v>
+        <v>0.4211882948875427</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>3.932891368065656</v>
+        <v>2.242174055694689</v>
       </c>
       <c r="B421" t="n">
-        <v>3.975748447228463</v>
+        <v>2.342734225771791</v>
       </c>
       <c r="C421" t="n">
-        <v>0.9056553244590759</v>
+        <v>0.414706289768219</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>3.947398311815462</v>
+        <v>2.253620677836497</v>
       </c>
       <c r="B422" t="n">
-        <v>3.980986071962841</v>
+        <v>2.353316640673874</v>
       </c>
       <c r="C422" t="n">
-        <v>0.9315143227577209</v>
+        <v>0.4363805949687958</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>3.96185435669853</v>
+        <v>2.264685622479387</v>
       </c>
       <c r="B423" t="n">
-        <v>3.986211316838646</v>
+        <v>2.363923111125685</v>
       </c>
       <c r="C423" t="n">
-        <v>0.9419331550598145</v>
+        <v>0.4423927962779999</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>3.978112983674607</v>
+        <v>2.275894253914689</v>
       </c>
       <c r="B424" t="n">
-        <v>3.992091697633222</v>
+        <v>2.374385626278311</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9507455825805664</v>
+        <v>0.459154486656189</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>2.286583765672405</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2.38445915975575</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.4656800329685211</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>2.297065403944964</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2.394221281645893</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.4810106754302979</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>2.309781473985371</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2.406339647550022</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.4825176894664764</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>2.321042834078875</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2.416952429375082</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.4957226812839508</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>2.332250719500995</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2.427546902867995</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.5089811086654663</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2.341771745388249</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2.436523903934559</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.5306984782218933</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>2.353069181286882</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2.447162442172965</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.5348469614982605</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>2.36383684532727</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2.457259396808143</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.5478584170341492</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>2.37447011494361</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2.467256785387133</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.557975172996521</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2.385295787824914</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2.477505495778433</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5820357203483582</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2.398315902553771</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2.489815696335306</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.590057373046875</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>2.409348067902978</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2.500222093067626</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.5944325923919678</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>2.420513660472238</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2.510736969258669</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.5994777083396912</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2.429536195502066</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2.519226568719357</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.6340697407722473</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>2.440315135720113</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2.529241075751615</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6313362717628479</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>2.450941759926803</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2.539242340705957</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.6498233675956726</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>2.461725549430037</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2.549446049532511</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.6644997000694275</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>2.472544926144393</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2.55966720004605</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.6676928400993347</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>2.483413554134805</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2.569926358732857</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.6802526116371155</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>2.49430536123806</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2.580198847197824</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.6746243834495544</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>2.506726520461001</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2.591872022546827</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6822514533996582</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>2.517285350857395</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2.601738647586159</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.6531034111976624</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2.528172921770076</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2.612093532312779</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.6452205777168274</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>2.539154099866459</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2.622492890909539</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6318399906158447</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2.550302127071873</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2.633020979785054</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.606703519821167</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2.56149391632435</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2.643576538199328</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.5998799800872803</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2.572614227199201</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2.654034498017739</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.5840831995010376</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>2.583327966768602</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2.66407283551177</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.5701425671577454</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2.595545063658048</v>
+      </c>
+      <c r="B453" t="n">
+        <v>2.675573669801769</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.5509191155433655</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2.604854329979304</v>
+      </c>
+      <c r="B454" t="n">
+        <v>2.684469745211686</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.5394383072853088</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2.617857781483961</v>
+      </c>
+      <c r="B455" t="n">
+        <v>2.696796785945693</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.5259336233139038</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2.629238378542598</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2.707524955257054</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.5016556978225708</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2.640757999161463</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2.718380201100464</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.4845999181270599</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2.649933420560581</v>
+      </c>
+      <c r="B458" t="n">
+        <v>2.727024024755044</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.4725659191608429</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2.660805986666635</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2.737075625811189</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.4579282104969025</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>2.671477664528972</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2.747100954801532</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.4521009922027588</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>2.682188073137914</v>
+      </c>
+      <c r="B461" t="n">
+        <v>2.757230199726295</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.4270063936710358</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2.694615094893944</v>
+      </c>
+      <c r="B462" t="n">
+        <v>2.768882421119089</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.4209361672401428</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2.70563159618617</v>
+      </c>
+      <c r="B463" t="n">
+        <v>2.779378457179234</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.4056410491466522</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2.71649832945258</v>
+      </c>
+      <c r="B464" t="n">
+        <v>2.789577709015464</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.3913398683071136</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2.726796977998827</v>
+      </c>
+      <c r="B465" t="n">
+        <v>2.79927002439321</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.3761277496814728</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2.737317152920634</v>
+      </c>
+      <c r="B466" t="n">
+        <v>2.808514639072753</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.3604336082935333</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2.747318121955779</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2.818290540802858</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.336897075176239</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>2.757148185462138</v>
+      </c>
+      <c r="B468" t="n">
+        <v>2.827833548449069</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.339902400970459</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2.768709816365158</v>
+      </c>
+      <c r="B469" t="n">
+        <v>2.837570690782559</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.3011386096477509</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2.776408626147097</v>
+      </c>
+      <c r="B470" t="n">
+        <v>2.84656222840223</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.2862052023410797</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2.784673419883076</v>
+      </c>
+      <c r="B471" t="n">
+        <v>2.853102755676525</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.2841099798679352</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>2.795588692643648</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2.862791865549185</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.2632101476192474</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>2.803720396492497</v>
+      </c>
+      <c r="B473" t="n">
+        <v>2.871571181396658</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.2339130789041519</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>2.809834621669971</v>
+      </c>
+      <c r="B474" t="n">
+        <v>2.877582047932459</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.2339130789041519</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2.818937310112011</v>
+      </c>
+      <c r="B475" t="n">
+        <v>2.885624503309458</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.2217523902654648</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2.826759718855906</v>
+      </c>
+      <c r="B476" t="n">
+        <v>2.89308847591741</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.2101737856864929</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2.80664045719741</v>
+      </c>
+      <c r="B477" t="n">
+        <v>2.915108780706448</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.2020796537399292</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2.800509774844635</v>
+      </c>
+      <c r="B478" t="n">
+        <v>2.919698475831245</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.1893855929374695</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2.783024449880424</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2.923403325822453</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.1813870221376419</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2.788583132532145</v>
+      </c>
+      <c r="B480" t="n">
+        <v>2.926527508473038</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1578506380319595</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>2.766552097057864</v>
+      </c>
+      <c r="B481" t="n">
+        <v>2.906888168099444</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1546616852283478</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>2.761811094516088</v>
+      </c>
+      <c r="B482" t="n">
+        <v>2.915649077900934</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.1387963742017746</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2.752166942994204</v>
+      </c>
+      <c r="B483" t="n">
+        <v>2.922666054705483</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.1318076699972153</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>2.747610003688293</v>
+      </c>
+      <c r="B484" t="n">
+        <v>2.905817835630962</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1345414370298386</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>2.732538513383439</v>
+      </c>
+      <c r="B485" t="n">
+        <v>2.915452011899695</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.1321737319231033</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2.732763839785715</v>
+      </c>
+      <c r="B486" t="n">
+        <v>2.91221098125951</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.1390492022037506</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2.723088956605171</v>
+      </c>
+      <c r="B487" t="n">
+        <v>2.939738804140208</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.1504573076963425</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2.713998950909967</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.954336075928929</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.1523300111293793</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2.721621666595334</v>
+      </c>
+      <c r="B489" t="n">
+        <v>2.947516862029247</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.1409292668104172</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2.708831317471365</v>
+      </c>
+      <c r="B490" t="n">
+        <v>2.956492006990889</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.1390644460916519</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>2.695600398597674</v>
+      </c>
+      <c r="B491" t="n">
+        <v>2.945267106814816</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.1462738662958145</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>2.687938346380351</v>
+      </c>
+      <c r="B492" t="n">
+        <v>2.951406570166417</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.1280072182416916</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2.682818112530525</v>
+      </c>
+      <c r="B493" t="n">
+        <v>2.963898212699769</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.1410143971443176</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>2.680282351407687</v>
+      </c>
+      <c r="B494" t="n">
+        <v>2.96061552279814</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1540219932794571</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>2.667755513100625</v>
+      </c>
+      <c r="B495" t="n">
+        <v>2.968866169666832</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.1663009524345398</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>2.664890253129709</v>
+      </c>
+      <c r="B496" t="n">
+        <v>2.992340059055193</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.1700190454721451</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>2.659093782398514</v>
+      </c>
+      <c r="B497" t="n">
+        <v>2.995574508349324</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.1772421002388</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2.652997047708662</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3.001959381801257</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.1812645047903061</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2.661484662155149</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.017019441472727</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.1816152781248093</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>2.654852403177901</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3.025812781012395</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.1850050985813141</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>2.652048274237536</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3.03503847600548</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.1856451332569122</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>2.646986312375517</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3.04816243132611</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.1745645850896835</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>2.632505340806597</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3.044953079796859</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.1717461794614792</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>2.623427418379137</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3.061060554986115</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.1721267402172089</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>2.607764667955499</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3.058990234331104</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.157060295343399</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>2.602123128033985</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3.05915182334383</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.1546070128679276</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>2.594599953284468</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3.064391718083434</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.1534491926431656</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>2.589639683788552</v>
+      </c>
+      <c r="B508" t="n">
+        <v>3.066024862674397</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.1584191173315048</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>2.579052242158475</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3.075115705658479</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.1592310667037964</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>2.573184461985239</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3.077193543274563</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.1566146314144135</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>2.568679368659645</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.07804464593814</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.1543941348791122</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>2.560091107175594</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3.082856957125758</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.172907218337059</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>2.566552168416902</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3.101838450215028</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.1573707759380341</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>2.552618145994215</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3.106923171404566</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.1744460165500641</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>2.553929546124357</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3.110253251520629</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.1784685403108597</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>2.545233065756773</v>
+      </c>
+      <c r="B516" t="n">
+        <v>3.120939503764715</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.1898379623889923</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>2.559977350684868</v>
+      </c>
+      <c r="B517" t="n">
+        <v>3.13346966986107</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.1894095987081528</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>2.5574260849476</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3.137824159727891</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.1823726743459702</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>2.548828000946628</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3.148289334120753</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.1940838992595673</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>2.542250813062253</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3.146225435029412</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.1771069020032883</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2.533070815059042</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3.152073763830488</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.167745053768158</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>2.531150467080241</v>
+      </c>
+      <c r="B522" t="n">
+        <v>3.153724473636254</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.1721967905759811</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>2.530273341211887</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3.160069691422304</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.1667905449867249</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>2.509855360809518</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3.159355857856986</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.1627123057842255</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>2.508900075248652</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3.161495834823924</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.1519271433353424</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>2.501219923697414</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3.165325329891054</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.1577865928411484</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>2.498219710738709</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3.169080820442364</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.1470341086387634</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>2.482098211610545</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3.178986831765511</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.1562326848506927</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>2.467016635555885</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3.173053530427281</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.1604617238044739</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>2.475804330853209</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3.184366425427573</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.151996836066246</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2.464179991643421</v>
+      </c>
+      <c r="B531" t="n">
+        <v>3.18755634085611</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.1645853668451309</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>2.448711136095678</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3.196325497343324</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.1701636165380478</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>2.445448348333812</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3.21793668363658</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.1802512109279633</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>2.44478731710827</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3.220870117185362</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.1847360879182816</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>2.447792194368381</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3.242154929269808</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.1936044543981552</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>2.444011410099838</v>
+      </c>
+      <c r="B536" t="n">
+        <v>3.256243381420408</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.1853154450654984</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>2.444384062807628</v>
+      </c>
+      <c r="B537" t="n">
+        <v>3.262862605490594</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.1918753087520599</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>2.43226574943443</v>
+      </c>
+      <c r="B538" t="n">
+        <v>3.268581057607316</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.1738731265068054</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>2.427530209929191</v>
+      </c>
+      <c r="B539" t="n">
+        <v>3.274368350362285</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.169058084487915</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>2.415746149229788</v>
+      </c>
+      <c r="B540" t="n">
+        <v>3.269572518122435</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.1568606048822403</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>2.407941901957409</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3.275220932934525</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.1493261903524399</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>2.395639444383378</v>
+      </c>
+      <c r="B542" t="n">
+        <v>3.263989494115656</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.1493629366159439</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2.385525224361618</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3.272472625492594</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.1373897045850754</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>2.380936442072723</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3.269213388812688</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.1391837149858475</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>2.366396140867797</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3.276953209951833</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.1358142048120499</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>2.36054163996232</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3.274726905407643</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.1443446725606918</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2.348579622412108</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3.28113553869919</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.1605317145586014</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>2.352160173248078</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3.296730603947858</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.1600080728530884</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>2.347608542516965</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3.296581416023205</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.1791483759880066</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>2.348667406764365</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3.319945080239295</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.1784934252500534</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>2.342888728820926</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3.324075379414637</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.1890944689512253</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>2.337608133851516</v>
+      </c>
+      <c r="B552" t="n">
+        <v>3.335969060994051</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.1916774362325668</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>2.33538558372013</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3.343984079232031</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.1969326585531235</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>2.352164920220676</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3.349800039097321</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.1934534013271332</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>2.33525134328968</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3.35299200328905</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.1838878989219666</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>2.330141690919432</v>
+      </c>
+      <c r="B556" t="n">
+        <v>3.364633348886341</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.1934902220964432</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>2.33699022464967</v>
+      </c>
+      <c r="B557" t="n">
+        <v>3.366699793672552</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.1630414128303528</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>2.31564405456673</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3.362402081422965</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.1681427806615829</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>2.312832390136434</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3.373014884936943</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.1576318740844727</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>2.302418078392845</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3.361344602592955</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.1538085788488388</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2.29663229549013</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3.366188984094741</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.1449408233165741</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>2.294073117023153</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3.365449437202666</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.1409631073474884</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>2.277802754180954</v>
+      </c>
+      <c r="B563" t="n">
+        <v>3.354869606066641</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.1443101614713669</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>2.269095619689516</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3.380905550261883</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.1471773535013199</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>2.257467503158715</v>
+      </c>
+      <c r="B565" t="n">
+        <v>3.382859214690393</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.1551069915294647</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>2.257679461964833</v>
+      </c>
+      <c r="B566" t="n">
+        <v>3.401177071902711</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.1623552739620209</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>2.252979626274366</v>
+      </c>
+      <c r="B567" t="n">
+        <v>3.404105480002845</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.1596558690071106</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>2.243828026411455</v>
+      </c>
+      <c r="B568" t="n">
+        <v>3.407324158577383</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.1785316318273544</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>2.256236606165087</v>
+      </c>
+      <c r="B569" t="n">
+        <v>3.421977110070057</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.1831621676683426</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>2.24849844669251</v>
+      </c>
+      <c r="B570" t="n">
+        <v>3.432599789930272</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.1925937831401825</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>2.25790425346607</v>
+      </c>
+      <c r="B571" t="n">
+        <v>3.44878140378131</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.1783888638019562</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>2.236614068451832</v>
+      </c>
+      <c r="B572" t="n">
+        <v>3.456981063900153</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.1808498054742813</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>2.237684895775066</v>
+      </c>
+      <c r="B573" t="n">
+        <v>3.468057823582601</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.1859585642814636</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>2.241832828558875</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3.472674707674247</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.1703488677740097</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>2.225285437480687</v>
+      </c>
+      <c r="B575" t="n">
+        <v>3.469167994458103</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.1598401218652725</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>2.215487493432315</v>
+      </c>
+      <c r="B576" t="n">
+        <v>3.484415007090598</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.1490550488233566</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>2.207114945133114</v>
+      </c>
+      <c r="B577" t="n">
+        <v>3.452158155861693</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.1470286399126053</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>2.201554778272743</v>
+      </c>
+      <c r="B578" t="n">
+        <v>3.474983698920644</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.1469672322273254</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>2.183959846103287</v>
+      </c>
+      <c r="B579" t="n">
+        <v>3.496569163924233</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.1549941152334213</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>2.195132566222832</v>
+      </c>
+      <c r="B580" t="n">
+        <v>3.488714333463692</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.1368254125118256</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>2.184031888973512</v>
+      </c>
+      <c r="B581" t="n">
+        <v>3.473877705561391</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.1316845864057541</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>2.175863692045612</v>
+      </c>
+      <c r="B582" t="n">
+        <v>3.459407226719432</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.1309853494167328</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>2.160492083314054</v>
+      </c>
+      <c r="B583" t="n">
+        <v>3.484720985947436</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.1482136398553848</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>2.160787607261525</v>
+      </c>
+      <c r="B584" t="n">
+        <v>3.507854851629998</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.1542953103780746</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>2.160357707528</v>
+      </c>
+      <c r="B585" t="n">
+        <v>3.53482728178407</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.1585176140069962</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>2.147923629652787</v>
+      </c>
+      <c r="B586" t="n">
+        <v>3.529548199184143</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.1475892215967178</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>2.139039015284041</v>
+      </c>
+      <c r="B587" t="n">
+        <v>3.541177933168566</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.142532154917717</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>2.13148544745101</v>
+      </c>
+      <c r="B588" t="n">
+        <v>3.526861260392211</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.1396896243095398</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>2.130585419944742</v>
+      </c>
+      <c r="B589" t="n">
+        <v>3.526837468215795</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.1337171941995621</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>2.118034839672423</v>
+      </c>
+      <c r="B590" t="n">
+        <v>3.552881674428874</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.1428250521421432</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>2.100249942432903</v>
+      </c>
+      <c r="B591" t="n">
+        <v>3.572899365903629</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.1557139456272125</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>2.10806040743211</v>
+      </c>
+      <c r="B592" t="n">
+        <v>3.592032644085137</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.1538910865783691</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>2.092644601406359</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3.587546082095896</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.1498815417289734</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>2.089966139351663</v>
+      </c>
+      <c r="B594" t="n">
+        <v>3.589913393576148</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.1455368250608444</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>2.076428342428292</v>
+      </c>
+      <c r="B595" t="n">
+        <v>3.578998163423856</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.1379202604293823</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>2.071451314828487</v>
+      </c>
+      <c r="B596" t="n">
+        <v>3.598248979625394</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.1460271775722504</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>2.07016928890366</v>
+      </c>
+      <c r="B597" t="n">
+        <v>3.620093827870872</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.1477775573730469</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>2.052422848501568</v>
+      </c>
+      <c r="B598" t="n">
+        <v>3.612768878731285</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.1556364744901657</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>2.058211171281441</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3.630967465597837</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.1603646874427795</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>2.052914202798084</v>
+      </c>
+      <c r="B600" t="n">
+        <v>3.635818421462506</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.1700323820114136</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>2.064356252817996</v>
+      </c>
+      <c r="B601" t="n">
+        <v>3.64974643675867</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.1677280515432358</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>2.056547554551552</v>
+      </c>
+      <c r="B602" t="n">
+        <v>3.65970775473534</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.1879581063985825</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>2.087008244821852</v>
+      </c>
+      <c r="B603" t="n">
+        <v>3.669434527694633</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.1937487721443176</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>2.086844618607001</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3.677868211869769</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.1933952420949936</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>2.086897439331276</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3.693157734636416</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.2120712548494339</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>2.117319327975783</v>
+      </c>
+      <c r="B606" t="n">
+        <v>3.684391890902532</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.1963260024785995</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>2.097676049285544</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3.715172572394848</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.19772008061409</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>2.116032375208504</v>
+      </c>
+      <c r="B608" t="n">
+        <v>3.715397847382131</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.1941106170415878</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>2.109152978208106</v>
+      </c>
+      <c r="B609" t="n">
+        <v>3.726461498865836</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.1806101202964783</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>2.113376026898556</v>
+      </c>
+      <c r="B610" t="n">
+        <v>3.738310727779532</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.1797410249710083</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>2.101693174206711</v>
+      </c>
+      <c r="B611" t="n">
+        <v>3.745282850556039</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.1665600538253784</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>2.081781422593161</v>
+      </c>
+      <c r="B612" t="n">
+        <v>3.760100033251931</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.1600560992956161</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>2.10339760848076</v>
+      </c>
+      <c r="B613" t="n">
+        <v>3.76857133151969</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.1474693566560745</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>2.099718122508317</v>
+      </c>
+      <c r="B614" t="n">
+        <v>3.777700453221493</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.1561724692583084</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>2.100709957200273</v>
+      </c>
+      <c r="B615" t="n">
+        <v>3.791225802462263</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.1604911983013153</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>2.116532060710168</v>
+      </c>
+      <c r="B616" t="n">
+        <v>3.798745065847565</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.157008171081543</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>2.117769655682706</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3.813246573838878</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.1755650192499161</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>2.13844500572962</v>
+      </c>
+      <c r="B618" t="n">
+        <v>3.814509822226489</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.1645466089248657</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>2.140294562074164</v>
+      </c>
+      <c r="B619" t="n">
+        <v>3.825274393793022</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.1678657382726669</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>2.146352894760776</v>
+      </c>
+      <c r="B620" t="n">
+        <v>3.832800288167581</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.1726554334163666</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>2.166030575491907</v>
+      </c>
+      <c r="B621" t="n">
+        <v>3.832984858080782</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.1745312213897705</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>2.164578017871241</v>
+      </c>
+      <c r="B622" t="n">
+        <v>3.853819729149974</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.1764577776193619</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>2.182245973351949</v>
+      </c>
+      <c r="B623" t="n">
+        <v>3.849634996816151</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.1605538129806519</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>2.187646704018054</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3.860094226171005</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.1766563355922699</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>2.198730272689778</v>
+      </c>
+      <c r="B625" t="n">
+        <v>3.864707845367895</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.1690827757120132</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>2.210445678337513</v>
+      </c>
+      <c r="B626" t="n">
+        <v>3.877570838652112</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.1780622899532318</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>2.219440987662635</v>
+      </c>
+      <c r="B627" t="n">
+        <v>3.880301169093128</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.1658406108617783</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>2.227733121016709</v>
+      </c>
+      <c r="B628" t="n">
+        <v>3.890425220000488</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.162966251373291</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>2.244127424302893</v>
+      </c>
+      <c r="B629" t="n">
+        <v>3.904773294134404</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.1685180515050888</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>2.256583187947077</v>
+      </c>
+      <c r="B630" t="n">
+        <v>3.894097107191231</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.1576594561338425</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>2.259269550636767</v>
+      </c>
+      <c r="B631" t="n">
+        <v>3.917355973168561</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.1634894907474518</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>2.27695526985972</v>
+      </c>
+      <c r="B632" t="n">
+        <v>3.909575534486551</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.1624949425458908</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>2.288971614390951</v>
+      </c>
+      <c r="B633" t="n">
+        <v>3.917241430401792</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.1578271836042404</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>2.293094453673895</v>
+      </c>
+      <c r="B634" t="n">
+        <v>3.938280390707455</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.1611549407243729</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>2.313057407628623</v>
+      </c>
+      <c r="B635" t="n">
+        <v>3.930726810079496</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.1643430292606354</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>2.329298098403276</v>
+      </c>
+      <c r="B636" t="n">
+        <v>3.93947404579754</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.1635070294141769</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>2.337843758377818</v>
+      </c>
+      <c r="B637" t="n">
+        <v>3.945937505127013</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.1715827286243439</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>2.349898448640941</v>
+      </c>
+      <c r="B638" t="n">
+        <v>3.950773265943601</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.1758234798908234</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>2.363484396635523</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3.955883464470256</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.1787382960319519</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>2.383772855906813</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3.96326303737054</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.1837947964668274</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>2.398586601267775</v>
+      </c>
+      <c r="B641" t="n">
+        <v>3.967642014534022</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.1751458197832108</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>2.413559258466839</v>
+      </c>
+      <c r="B642" t="n">
+        <v>3.975417182243377</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.1927980482578278</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>2.429249210101835</v>
+      </c>
+      <c r="B643" t="n">
+        <v>3.976863149205704</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.2009006589651108</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>2.446286955587831</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3.980633824235233</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.2053327411413193</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>2.462693181997762</v>
+      </c>
+      <c r="B645" t="n">
+        <v>3.984566100514443</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.2125087380409241</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>2.479834334985707</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3.987269123128556</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.2139862179756165</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>2.495179704154086</v>
+      </c>
+      <c r="B647" t="n">
+        <v>3.990745129072108</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.2220756113529205</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>2.510932812162467</v>
+      </c>
+      <c r="B648" t="n">
+        <v>3.993212521365435</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.2355382740497589</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>2.527292754286185</v>
+      </c>
+      <c r="B649" t="n">
+        <v>3.994452108875596</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.2454696297645569</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>2.544354925429638</v>
+      </c>
+      <c r="B650" t="n">
+        <v>3.995734596951099</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.250090092420578</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>2.560381852077026</v>
+      </c>
+      <c r="B651" t="n">
+        <v>3.99805053461996</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.2731952667236328</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>2.575332802675984</v>
+      </c>
+      <c r="B652" t="n">
+        <v>3.997306317447032</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.2800494134426117</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>2.593441879055669</v>
+      </c>
+      <c r="B653" t="n">
+        <v>3.998717476755087</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.2891649007797241</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>2.606264901545331</v>
+      </c>
+      <c r="B654" t="n">
+        <v>3.999549999661509</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.3037258684635162</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>2.622628327366953</v>
+      </c>
+      <c r="B655" t="n">
+        <v>3.999302551847374</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.318294495344162</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>2.637917428214754</v>
+      </c>
+      <c r="B656" t="n">
+        <v>3.99957451831994</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.3142834901809692</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>2.653847929857942</v>
+      </c>
+      <c r="B657" t="n">
+        <v>4.001039573160836</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.3255168199539185</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>2.671740205122531</v>
+      </c>
+      <c r="B658" t="n">
+        <v>4.000998187036524</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.332728385925293</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>2.68720905837607</v>
+      </c>
+      <c r="B659" t="n">
+        <v>4.001217895234518</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.3529383838176727</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>2.702114033979258</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4.001148657904027</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.3622561693191528</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>2.718009843782303</v>
+      </c>
+      <c r="B661" t="n">
+        <v>4.001306273935031</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.379045844078064</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>2.733504784702857</v>
+      </c>
+      <c r="B662" t="n">
+        <v>4.001453941652767</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.3757071197032928</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>2.746699077652396</v>
+      </c>
+      <c r="B663" t="n">
+        <v>4.001638773588869</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.3969057500362396</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>2.761610074924922</v>
+      </c>
+      <c r="B664" t="n">
+        <v>4.00158017321301</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.3990984261035919</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>2.776456838768988</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4.001690317833423</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.418311595916748</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>2.793660511239346</v>
+      </c>
+      <c r="B666" t="n">
+        <v>4.001622031593454</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.4232433438301086</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>2.808529089396405</v>
+      </c>
+      <c r="B667" t="n">
+        <v>4.001746115488081</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.4351013004779816</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>2.823941072103842</v>
+      </c>
+      <c r="B668" t="n">
+        <v>4.001674732170018</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.4464389085769653</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>2.83940280270981</v>
+      </c>
+      <c r="B669" t="n">
+        <v>4.001660754200589</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.4649991095066071</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>2.854754090796702</v>
+      </c>
+      <c r="B670" t="n">
+        <v>4.001651274648679</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.4753619730472565</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>2.86971728287173</v>
+      </c>
+      <c r="B671" t="n">
+        <v>4.001667030054195</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.4765796661376953</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>2.884913655589845</v>
+      </c>
+      <c r="B672" t="n">
+        <v>4.001719453211352</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.4916904866695404</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>2.900119944277179</v>
+      </c>
+      <c r="B673" t="n">
+        <v>4.001715265245243</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.5039317011833191</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>2.915338397298118</v>
+      </c>
+      <c r="B674" t="n">
+        <v>4.001663305651221</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.5156412124633789</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>2.928306309948764</v>
+      </c>
+      <c r="B675" t="n">
+        <v>4.001626164415968</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.5246173143386841</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>2.94601598337903</v>
+      </c>
+      <c r="B676" t="n">
+        <v>4.001594440859267</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.5445576906204224</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>2.961061987408242</v>
+      </c>
+      <c r="B677" t="n">
+        <v>4.00156666724212</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.5471131205558777</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>2.975828272056938</v>
+      </c>
+      <c r="B678" t="n">
+        <v>4.001569253750092</v>
+      </c>
+      <c r="C678" t="n">
+        <v>0.5593814253807068</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>2.990561280093394</v>
+      </c>
+      <c r="B679" t="n">
+        <v>4.001575861877153</v>
+      </c>
+      <c r="C679" t="n">
+        <v>0.562196671962738</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>3.005337670899319</v>
+      </c>
+      <c r="B680" t="n">
+        <v>4.001547801591565</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0.5768927335739136</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>3.020643016153216</v>
+      </c>
+      <c r="B681" t="n">
+        <v>4.001508483089127</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.5976161956787109</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>3.03550209343559</v>
+      </c>
+      <c r="B682" t="n">
+        <v>4.001474468598221</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.5965588092803955</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>3.050491991069216</v>
+      </c>
+      <c r="B683" t="n">
+        <v>4.001443929077734</v>
+      </c>
+      <c r="C683" t="n">
+        <v>0.6122913956642151</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>3.067940816533029</v>
+      </c>
+      <c r="B684" t="n">
+        <v>4.001417492887009</v>
+      </c>
+      <c r="C684" t="n">
+        <v>0.6193163990974426</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>3.082670375259653</v>
+      </c>
+      <c r="B685" t="n">
+        <v>4.00140906628219</v>
+      </c>
+      <c r="C685" t="n">
+        <v>0.6307244300842285</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>3.097566638351913</v>
+      </c>
+      <c r="B686" t="n">
+        <v>4.001396909400398</v>
+      </c>
+      <c r="C686" t="n">
+        <v>0.6392253041267395</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>3.112782583905396</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4.001340648812975</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.6523913741111755</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>3.128207733594138</v>
+      </c>
+      <c r="B688" t="n">
+        <v>4.001295221104169</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.6666294932365417</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>3.143699119510179</v>
+      </c>
+      <c r="B689" t="n">
+        <v>4.001257678075052</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.6727690696716309</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>3.159219413188428</v>
+      </c>
+      <c r="B690" t="n">
+        <v>4.001224013274951</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.6815508604049683</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>3.174214578500099</v>
+      </c>
+      <c r="B691" t="n">
+        <v>4.001214930031021</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.6944038271903992</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>3.189275223010824</v>
+      </c>
+      <c r="B692" t="n">
+        <v>4.001235396114802</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.7090893387794495</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>3.204390248619395</v>
+      </c>
+      <c r="B693" t="n">
+        <v>4.00123172628083</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.7170048356056213</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>3.217202688681595</v>
+      </c>
+      <c r="B694" t="n">
+        <v>4.001191169698036</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.7260242700576782</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>3.2348208473765</v>
+      </c>
+      <c r="B695" t="n">
+        <v>4.001138745273198</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.740801215171814</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>3.250039411812137</v>
+      </c>
+      <c r="B696" t="n">
+        <v>4.001108858708646</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.7467992305755615</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>3.265385274898399</v>
+      </c>
+      <c r="B697" t="n">
+        <v>4.001083620114021</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.7606112360954285</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>3.280052125432368</v>
+      </c>
+      <c r="B698" t="n">
+        <v>4.00108085496898</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.7634774446487427</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>3.295164040591213</v>
+      </c>
+      <c r="B699" t="n">
+        <v>4.001089589912186</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.7804597020149231</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>3.31292717500975</v>
+      </c>
+      <c r="B700" t="n">
+        <v>4.001052830007021</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.7861990332603455</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>3.328372634539514</v>
+      </c>
+      <c r="B701" t="n">
+        <v>4.001002135017306</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.7956051230430603</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>3.344211775911886</v>
+      </c>
+      <c r="B702" t="n">
+        <v>4.000959165901969</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.8033227324485779</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>3.360035682818788</v>
+      </c>
+      <c r="B703" t="n">
+        <v>4.000926799465749</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.8300139307975769</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>3.372462369367557</v>
+      </c>
+      <c r="B704" t="n">
+        <v>4.000914416260724</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.8342146277427673</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>3.390473439627864</v>
+      </c>
+      <c r="B705" t="n">
+        <v>4.000942002844631</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.8422190546989441</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>3.402761639619894</v>
+      </c>
+      <c r="B706" t="n">
+        <v>4.000943898780744</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.858906626701355</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>3.420602359509457</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4.000892709302508</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.8696538209915161</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>3.436014599830853</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4.000860890781654</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.877055823802948</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>3.451520115601645</v>
+      </c>
+      <c r="B709" t="n">
+        <v>4.000826025727597</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.8836701512336731</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>3.466922203292961</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4.000797778814527</v>
+      </c>
+      <c r="C710" t="n">
+        <v>0.8951363563537598</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>3.481801678273433</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4.000801428087102</v>
+      </c>
+      <c r="C711" t="n">
+        <v>0.8951758146286011</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>3.494328262193907</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4.000825439079027</v>
+      </c>
+      <c r="C712" t="n">
+        <v>0.9107540845870972</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>3.509519129160761</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4.000830360373659</v>
+      </c>
+      <c r="C713" t="n">
+        <v>0.9387121200561523</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>3.526842577454229</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4.000804023884509</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.945220947265625</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>3.541984209920341</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4.000770846193484</v>
+      </c>
+      <c r="C715" t="n">
+        <v>0.9541500210762024</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>3.557429073911787</v>
+      </c>
+      <c r="B716" t="n">
+        <v>4.000734555726115</v>
+      </c>
+      <c r="C716" t="n">
+        <v>0.968567967414856</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>3.572693703742165</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4.000707126500462</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0.9752702116966248</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>3.587676717687172</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4.000711704784762</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0.9858354926109314</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>3.602661166075972</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4.000714841994242</v>
+      </c>
+      <c r="C719" t="n">
+        <v>0.9998393058776855</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>3.617879158299257</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4.000652884316755</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.01213276386261</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>3.633230778692134</v>
+      </c>
+      <c r="B721" t="n">
+        <v>4.000599202794406</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1.005191326141357</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>3.64869349256171</v>
+      </c>
+      <c r="B722" t="n">
+        <v>4.00055996171006</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.03221583366394</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>3.661371991174128</v>
+      </c>
+      <c r="B723" t="n">
+        <v>4.000529852510249</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.045561909675598</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>3.676656166298364</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4.00050160287972</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.051337242126465</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>3.69144891224652</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4.000482320350618</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.064149856567383</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>3.708620847671984</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4.000460338942765</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.073518753051758</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>3.723719180882821</v>
+      </c>
+      <c r="B727" t="n">
+        <v>4.000421403062265</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.076961874961853</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>3.739107202022656</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4.000383357264042</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.092565178871155</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>3.754507411742073</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4.00034934785239</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.101163029670715</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>3.769485958203597</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4.000320299955618</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.109438538551331</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>3.786992515837133</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.000310829142888</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.127536296844482</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>3.801957359618799</v>
+      </c>
+      <c r="B732" t="n">
+        <v>4.000320296059396</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.132667899131775</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>3.817096969348305</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4.000304851856924</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.148625612258911</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>3.832567557532792</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4.000266934649175</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.163010597229004</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>3.848029661548416</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4.000233190715973</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.177015542984009</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>3.86341109835487</v>
+      </c>
+      <c r="B736" t="n">
+        <v>4.000202063012725</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.181708574295044</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>3.878932070207641</v>
+      </c>
+      <c r="B737" t="n">
+        <v>4.00017489686274</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.188993453979492</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>3.894099642604063</v>
+      </c>
+      <c r="B738" t="n">
+        <v>4.000155564980761</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.196664690971375</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>3.908982276640594</v>
+      </c>
+      <c r="B739" t="n">
+        <v>4.000139597211563</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.213753938674927</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>3.924180595017056</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4.00010003132944</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.216298580169678</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>3.93960361564903</v>
+      </c>
+      <c r="B741" t="n">
+        <v>4.000067885883158</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1.240627288818359</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>3.9550277264611</v>
+      </c>
+      <c r="B742" t="n">
+        <v>4.00004356896685</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1.238274574279785</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>3.97034865228478</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4.000025251282112</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.244524002075195</v>
       </c>
     </row>
   </sheetData>
